--- a/playstation/output/platinums & trophies.xlsx
+++ b/playstation/output/platinums & trophies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="2024-12-31" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="2025-01-31" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="platinums" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="trophies" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="grades" sheetId="4" r:id="rId7"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="869">
   <si>
     <t>Tasks</t>
   </si>
@@ -52,6 +52,852 @@
     <t>Rarity</t>
   </si>
   <si>
+    <t>Saints Row: The Third</t>
+  </si>
+  <si>
+    <t>PS5</t>
+  </si>
+  <si>
+    <t>14/01/2025</t>
+  </si>
+  <si>
+    <t>Jak and Daxter: The Precursor Legacy</t>
+  </si>
+  <si>
+    <t>PS3</t>
+  </si>
+  <si>
+    <t>16/12/2012</t>
+  </si>
+  <si>
+    <t>VITA</t>
+  </si>
+  <si>
+    <t>14/11/2015</t>
+  </si>
+  <si>
+    <t>The Walking Dead: Season 1 TTG</t>
+  </si>
+  <si>
+    <t>29/12/2015</t>
+  </si>
+  <si>
+    <t>PS4</t>
+  </si>
+  <si>
+    <t>21/10/2016</t>
+  </si>
+  <si>
+    <t>Batman: Season 1 TTG</t>
+  </si>
+  <si>
+    <t>28/03/2017</t>
+  </si>
+  <si>
+    <t>Game of Thrones TTG</t>
+  </si>
+  <si>
+    <t>13/10/2017</t>
+  </si>
+  <si>
+    <t>23/01/2018</t>
+  </si>
+  <si>
+    <t>Tales from the Borderlands TTG</t>
+  </si>
+  <si>
+    <t>Bully: Canis Canem Edit</t>
+  </si>
+  <si>
+    <t>24/08/2018</t>
+  </si>
+  <si>
+    <t>Rocket League</t>
+  </si>
+  <si>
+    <t>Spyro the Dragon</t>
+  </si>
+  <si>
+    <t>14/11/2018</t>
+  </si>
+  <si>
+    <t>Spyro 3: Year of the Dragon</t>
+  </si>
+  <si>
+    <t>19/11/2018</t>
+  </si>
+  <si>
+    <t>Spyro 2: Gateway to Glimmer</t>
+  </si>
+  <si>
+    <t>Marvel's Spider-Man</t>
+  </si>
+  <si>
+    <t>14/01/2019</t>
+  </si>
+  <si>
+    <t>Apocalypse Rider</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Shooty Fruity</t>
+  </si>
+  <si>
+    <t>15/07/2020</t>
+  </si>
+  <si>
+    <t>Syrup and the Ultimate Sweet</t>
+  </si>
+  <si>
+    <t>17/07/2020</t>
+  </si>
+  <si>
+    <t>Batman: Season 2 TTG</t>
+  </si>
+  <si>
+    <t>21/07/2020</t>
+  </si>
+  <si>
+    <t>Saints Row: The Third Remastered</t>
+  </si>
+  <si>
+    <t>Destroy All Humans! (Original)</t>
+  </si>
+  <si>
+    <t>Destroy All Humans! (Remake)</t>
+  </si>
+  <si>
+    <t>Destroy All Humans! 2</t>
+  </si>
+  <si>
+    <t>Lovers in a Dangerous Spacetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inFamous </t>
+  </si>
+  <si>
+    <t>29/09/2020</t>
+  </si>
+  <si>
+    <t>inFamous 2</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot 3: Warped</t>
+  </si>
+  <si>
+    <t>South Park: The Fractured But Whole</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot 2: Cortex Strikes Back</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank: A Crack in Time</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot</t>
+  </si>
+  <si>
+    <t>23/10/2020</t>
+  </si>
+  <si>
+    <t>Family Guy: Back to the Multiverse</t>
+  </si>
+  <si>
+    <t>Crash Team Racing: Nitro Fueled</t>
+  </si>
+  <si>
+    <t>25/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MediEvil </t>
+  </si>
+  <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank (2016)</t>
+  </si>
+  <si>
+    <t>31/10/2020</t>
+  </si>
+  <si>
+    <t>Oddworld: New 'n' Tasty</t>
+  </si>
+  <si>
+    <t>Borderlands 3</t>
+  </si>
+  <si>
+    <t>15/11/2020</t>
+  </si>
+  <si>
+    <t>Ghost of Tsushima</t>
+  </si>
+  <si>
+    <t>Star Wars Episode I: Racer</t>
+  </si>
+  <si>
+    <t>24/12/2020</t>
+  </si>
+  <si>
+    <t>ASTRO BOT: RESCUE MISSION</t>
+  </si>
+  <si>
+    <t>Ratchet and Clank: Nexus</t>
+  </si>
+  <si>
+    <t>13/02/2021</t>
+  </si>
+  <si>
+    <t>Ratchet: Gladiator</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto: San Andreas</t>
+  </si>
+  <si>
+    <t>ASTRO'S PLAYROOM</t>
+  </si>
+  <si>
+    <t>17/05/2021</t>
+  </si>
+  <si>
+    <t>One Escape</t>
+  </si>
+  <si>
+    <t>19/05/2021</t>
+  </si>
+  <si>
+    <t>Maneater</t>
+  </si>
+  <si>
+    <t>31/05/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugsnax </t>
+  </si>
+  <si>
+    <t>Concept Destruction</t>
+  </si>
+  <si>
+    <t>Sir Lovelot</t>
+  </si>
+  <si>
+    <t>Wreckfest</t>
+  </si>
+  <si>
+    <t>Evil Inside</t>
+  </si>
+  <si>
+    <t>24/06/2021</t>
+  </si>
+  <si>
+    <t>Concrete Genie</t>
+  </si>
+  <si>
+    <t>28/06/2021</t>
+  </si>
+  <si>
+    <t>Days Gone</t>
+  </si>
+  <si>
+    <t>Manual Samuel</t>
+  </si>
+  <si>
+    <t>Donut County</t>
+  </si>
+  <si>
+    <t>Saints Row IV: Re-Elected</t>
+  </si>
+  <si>
+    <t>18/07/2021</t>
+  </si>
+  <si>
+    <t>Marvel's Guardians of the Galaxy TTG</t>
+  </si>
+  <si>
+    <t>God of War (2018)</t>
+  </si>
+  <si>
+    <t>29/07/2021</t>
+  </si>
+  <si>
+    <t>Psychonauts</t>
+  </si>
+  <si>
+    <t>Sumatra: Fate of Yandi</t>
+  </si>
+  <si>
+    <t>19/08/2021</t>
+  </si>
+  <si>
+    <t>Accounting+</t>
+  </si>
+  <si>
+    <t>29/08/2021</t>
+  </si>
+  <si>
+    <t>Putty Squad</t>
+  </si>
+  <si>
+    <t>Supermarket Shriek</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants: Battle for Bikini Bottom: Rehydrated</t>
+  </si>
+  <si>
+    <t>Shing!</t>
+  </si>
+  <si>
+    <t>Trover Saves The Universe</t>
+  </si>
+  <si>
+    <t>Twin Robots: Ultimate Edition</t>
+  </si>
+  <si>
+    <t>27/09/2021</t>
+  </si>
+  <si>
+    <t>F1 2021</t>
+  </si>
+  <si>
+    <t>30/09/2021</t>
+  </si>
+  <si>
+    <t>Infliction: Extended Cut</t>
+  </si>
+  <si>
+    <t>Until Dawn</t>
+  </si>
+  <si>
+    <t>Psychonauts 2</t>
+  </si>
+  <si>
+    <t>26/11/2021</t>
+  </si>
+  <si>
+    <t>Jak X</t>
+  </si>
+  <si>
+    <t>13/12/2021</t>
+  </si>
+  <si>
+    <t>Ovivo</t>
+  </si>
+  <si>
+    <t>14/12/2021</t>
+  </si>
+  <si>
+    <t>Ratchet and Clank 2</t>
+  </si>
+  <si>
+    <t>21/12/2021</t>
+  </si>
+  <si>
+    <t>Ratchet and Clank 3</t>
+  </si>
+  <si>
+    <t>25/12/2021</t>
+  </si>
+  <si>
+    <t>Ratchet and Clank: Rift Apart</t>
+  </si>
+  <si>
+    <t>29/12/2021</t>
+  </si>
+  <si>
+    <t>Beat Cop</t>
+  </si>
+  <si>
+    <t>Deeeer Simulator</t>
+  </si>
+  <si>
+    <t>Kandagawa Jet Girls</t>
+  </si>
+  <si>
+    <t>21/03/2022</t>
+  </si>
+  <si>
+    <t>Cyberpunk 2077</t>
+  </si>
+  <si>
+    <t>Cloudpunk</t>
+  </si>
+  <si>
+    <t>Absolute Drift: Zen Edition</t>
+  </si>
+  <si>
+    <t>20/04/2022</t>
+  </si>
+  <si>
+    <t>In Rays of the Light</t>
+  </si>
+  <si>
+    <t>22/04/2022</t>
+  </si>
+  <si>
+    <t>The Guy VR</t>
+  </si>
+  <si>
+    <t>27/04/2022</t>
+  </si>
+  <si>
+    <t>Art of Rally</t>
+  </si>
+  <si>
+    <t>Leisure Suit Larry - Wet Dreams Don't Dry</t>
+  </si>
+  <si>
+    <t>25/05/2022</t>
+  </si>
+  <si>
+    <t>Leisure Suit Larry - Wet Dreams Dry Twice</t>
+  </si>
+  <si>
+    <t>29/05/2022</t>
+  </si>
+  <si>
+    <t>Ghostwire: Tokyo</t>
+  </si>
+  <si>
+    <t>Need for Speed: Shift</t>
+  </si>
+  <si>
+    <t>15/06/2022</t>
+  </si>
+  <si>
+    <t>Sly Cooper and the Thievius Raccoonus</t>
+  </si>
+  <si>
+    <t>Sly Cooper 2: Band of Thieves</t>
+  </si>
+  <si>
+    <t>Sly Cooper 3: Honour Among Thieves</t>
+  </si>
+  <si>
+    <t>Sonic Origins</t>
+  </si>
+  <si>
+    <t>20/09/2022</t>
+  </si>
+  <si>
+    <t>TOEM</t>
+  </si>
+  <si>
+    <t>25/09/2022</t>
+  </si>
+  <si>
+    <t>Night Book</t>
+  </si>
+  <si>
+    <t>Jazzpunk</t>
+  </si>
+  <si>
+    <t>The Walking Dead: Season 3 TTG</t>
+  </si>
+  <si>
+    <t>The Walking Dead: The Final Season TTG</t>
+  </si>
+  <si>
+    <t>16/10/2022</t>
+  </si>
+  <si>
+    <t>The Darkside Detective</t>
+  </si>
+  <si>
+    <t>20/10/2022</t>
+  </si>
+  <si>
+    <t>The Wolf Among Us</t>
+  </si>
+  <si>
+    <t>Oxenfree</t>
+  </si>
+  <si>
+    <t>24/10/2022</t>
+  </si>
+  <si>
+    <t>LEGO Batman 2: DC Super Heroes</t>
+  </si>
+  <si>
+    <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>Rayman Origins</t>
+  </si>
+  <si>
+    <t>Biomutant</t>
+  </si>
+  <si>
+    <t>18/11/2022</t>
+  </si>
+  <si>
+    <t>Hot Wheels Unleashed</t>
+  </si>
+  <si>
+    <t>23/11/2022</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>24/11/2022</t>
+  </si>
+  <si>
+    <t>Marvel's Spider-Man: Miles Morales</t>
+  </si>
+  <si>
+    <t>27/11/2022</t>
+  </si>
+  <si>
+    <t>Cult of the Lamb</t>
+  </si>
+  <si>
+    <t>Knack</t>
+  </si>
+  <si>
+    <t>Ratchet and Clank (2002)</t>
+  </si>
+  <si>
+    <t>Knack II</t>
+  </si>
+  <si>
+    <t>Stray</t>
+  </si>
+  <si>
+    <t>Klonoa Phantasy Reverie Series</t>
+  </si>
+  <si>
+    <t>Color Slayer</t>
+  </si>
+  <si>
+    <t>17/12/2022</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>19/12/2022</t>
+  </si>
+  <si>
+    <t>Potion Permit</t>
+  </si>
+  <si>
+    <t>Horizon Zero Dawn</t>
+  </si>
+  <si>
+    <t>13/01/2023</t>
+  </si>
+  <si>
+    <t>Pic-a-Pix Color</t>
+  </si>
+  <si>
+    <t>26/01/2023</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>31/01/2023</t>
+  </si>
+  <si>
+    <t>PlayStation Vita Pets</t>
+  </si>
+  <si>
+    <t>Hogwarts Legacy</t>
+  </si>
+  <si>
+    <t>22/02/2023</t>
+  </si>
+  <si>
+    <t>Uncharted: Golden Abyss</t>
+  </si>
+  <si>
+    <t>22/03/2023</t>
+  </si>
+  <si>
+    <t>26/03/2023</t>
+  </si>
+  <si>
+    <t>30/03/2023</t>
+  </si>
+  <si>
+    <t>Spy Hunter</t>
+  </si>
+  <si>
+    <t>27/04/2023</t>
+  </si>
+  <si>
+    <t>The Amazing Spider-Man</t>
+  </si>
+  <si>
+    <t>19/06/2023</t>
+  </si>
+  <si>
+    <t>The Darkness II</t>
+  </si>
+  <si>
+    <t>PlayStation Move Heroes</t>
+  </si>
+  <si>
+    <t>20/07/2023</t>
+  </si>
+  <si>
+    <t>Uncharted: Drake's Fortune: Remastered</t>
+  </si>
+  <si>
+    <t>Uncharted 2: Among Thieves: Remastered</t>
+  </si>
+  <si>
+    <t>Uncharted 3: Drake's Deception: Remastered</t>
+  </si>
+  <si>
+    <t>The American Dream</t>
+  </si>
+  <si>
+    <t>13/08/2023</t>
+  </si>
+  <si>
+    <t>inFamous Second Son</t>
+  </si>
+  <si>
+    <t>21/08/2023</t>
+  </si>
+  <si>
+    <t>inFamous First Light</t>
+  </si>
+  <si>
+    <t>22/08/2023</t>
+  </si>
+  <si>
+    <t>Dark Cloud</t>
+  </si>
+  <si>
+    <t>Sleeping Dogs: Definitive Edition</t>
+  </si>
+  <si>
+    <t>30/09/2023</t>
+  </si>
+  <si>
+    <t>Marvel's Spider-Man 2</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>Turnip Boy Commits Tax Evasion</t>
+  </si>
+  <si>
+    <t>31/10/2023</t>
+  </si>
+  <si>
+    <t>GRID Legends</t>
+  </si>
+  <si>
+    <t>16/11/2023</t>
+  </si>
+  <si>
+    <t>Saints Row (2022)</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>Run Sausage Run!</t>
+  </si>
+  <si>
+    <t>27/11/2023</t>
+  </si>
+  <si>
+    <t>PowerWash Simulator</t>
+  </si>
+  <si>
+    <t>14/12/2023</t>
+  </si>
+  <si>
+    <t>Like a Dragon Gaiden: The Man Who Erased His Name: Deluxe Edition</t>
+  </si>
+  <si>
+    <t>Bud Spencer &amp; Terence Hill - Slaps And Beans</t>
+  </si>
+  <si>
+    <t>Riptide GP: Renegade</t>
+  </si>
+  <si>
+    <t>15/01/2024</t>
+  </si>
+  <si>
+    <t>Far Cry New Dawn</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>Like a Dragon: Infinite Wealth</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>SpongeBob SquarePants: The Cosmic Shake</t>
+  </si>
+  <si>
+    <t>19/02/2024</t>
+  </si>
+  <si>
+    <t>Borderlands</t>
+  </si>
+  <si>
+    <t>26/02/2024</t>
+  </si>
+  <si>
+    <t>RoboCop: Rogue City</t>
+  </si>
+  <si>
+    <t>Spirit of the North: Enhanced Edition</t>
+  </si>
+  <si>
+    <t>19/03/2024</t>
+  </si>
+  <si>
+    <t>Going Under</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>Far Cry Primal</t>
+  </si>
+  <si>
+    <t>22/04/2024</t>
+  </si>
+  <si>
+    <t>A Plague Tale: Innocence</t>
+  </si>
+  <si>
+    <t>28/04/2024</t>
+  </si>
+  <si>
+    <t>Rustler</t>
+  </si>
+  <si>
+    <t>Coffee Talk</t>
+  </si>
+  <si>
+    <t>Daxter</t>
+  </si>
+  <si>
+    <t>PSP</t>
+  </si>
+  <si>
+    <t>Medievil (1998)</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>Jumping Flash</t>
+  </si>
+  <si>
+    <t>Toy Story 2</t>
+  </si>
+  <si>
+    <t>Rayman Legends</t>
+  </si>
+  <si>
+    <t>18/07/2024</t>
+  </si>
+  <si>
+    <t>Nobody Saves the World</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>Dead Island 2</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank: Size Matters</t>
+  </si>
+  <si>
+    <t>18/08/2024</t>
+  </si>
+  <si>
+    <t>Astro Bot</t>
+  </si>
+  <si>
+    <t>Yakuza 0</t>
+  </si>
+  <si>
+    <t>17/10/2024</t>
+  </si>
+  <si>
+    <t>Yakuza Kiwami</t>
+  </si>
+  <si>
+    <t>Squirrel with a Gun</t>
+  </si>
+  <si>
+    <t>Yakuza Kiwami 2</t>
+  </si>
+  <si>
+    <t>20/11/2024</t>
+  </si>
+  <si>
+    <t>Parcel Corps</t>
+  </si>
+  <si>
+    <t>27/11/2024</t>
+  </si>
+  <si>
+    <t>LA Cops</t>
+  </si>
+  <si>
+    <t>28/11/2024</t>
+  </si>
+  <si>
+    <t>Hot Wheels Unleashed 2 - Turbocharged</t>
+  </si>
+  <si>
+    <t>30/11/2024</t>
+  </si>
+  <si>
+    <t>Horizon Forbidden West</t>
+  </si>
+  <si>
+    <t>Watch_Dogs</t>
+  </si>
+  <si>
+    <t>Watch_Dogs 2</t>
+  </si>
+  <si>
+    <t>Watch Dogs Legion</t>
+  </si>
+  <si>
+    <t>15/12/2024</t>
+  </si>
+  <si>
+    <t>Uncharted: The Lost Legacy</t>
+  </si>
+  <si>
+    <t>24/12/2024</t>
+  </si>
+  <si>
+    <t>South Park: Snow Day</t>
+  </si>
+  <si>
+    <t>27/12/2024</t>
+  </si>
+  <si>
     <t>TY the Tasmanian Tiger</t>
   </si>
   <si>
@@ -61,846 +907,6 @@
     <t>28/12/2024</t>
   </si>
   <si>
-    <t>Jak and Daxter: The Precursor Legacy</t>
-  </si>
-  <si>
-    <t>PS3</t>
-  </si>
-  <si>
-    <t>16/12/2012</t>
-  </si>
-  <si>
-    <t>VITA</t>
-  </si>
-  <si>
-    <t>14/11/2015</t>
-  </si>
-  <si>
-    <t>The Walking Dead: Season 1 TTG</t>
-  </si>
-  <si>
-    <t>29/12/2015</t>
-  </si>
-  <si>
-    <t>PS4</t>
-  </si>
-  <si>
-    <t>21/10/2016</t>
-  </si>
-  <si>
-    <t>Batman: Season 1 TTG</t>
-  </si>
-  <si>
-    <t>28/03/2017</t>
-  </si>
-  <si>
-    <t>Game of Thrones TTG</t>
-  </si>
-  <si>
-    <t>13/10/2017</t>
-  </si>
-  <si>
-    <t>23/01/2018</t>
-  </si>
-  <si>
-    <t>Tales from the Borderlands TTG</t>
-  </si>
-  <si>
-    <t>Bully: Canis Canem Edit</t>
-  </si>
-  <si>
-    <t>24/08/2018</t>
-  </si>
-  <si>
-    <t>Rocket League</t>
-  </si>
-  <si>
-    <t>Spyro the Dragon</t>
-  </si>
-  <si>
-    <t>14/11/2018</t>
-  </si>
-  <si>
-    <t>Spyro 3: Year of the Dragon</t>
-  </si>
-  <si>
-    <t>19/11/2018</t>
-  </si>
-  <si>
-    <t>Spyro 2: Gateway to Glimmer</t>
-  </si>
-  <si>
-    <t>Marvel's Spider-Man</t>
-  </si>
-  <si>
-    <t>14/01/2019</t>
-  </si>
-  <si>
-    <t>Apocalypse Rider</t>
-  </si>
-  <si>
-    <t>VR</t>
-  </si>
-  <si>
-    <t>Shooty Fruity</t>
-  </si>
-  <si>
-    <t>15/07/2020</t>
-  </si>
-  <si>
-    <t>Syrup and the Ultimate Sweet</t>
-  </si>
-  <si>
-    <t>17/07/2020</t>
-  </si>
-  <si>
-    <t>Batman: Season 2 TTG</t>
-  </si>
-  <si>
-    <t>21/07/2020</t>
-  </si>
-  <si>
-    <t>Saints Row: The Third Remastered</t>
-  </si>
-  <si>
-    <t>Destroy All Humans! (Original)</t>
-  </si>
-  <si>
-    <t>Destroy All Humans! (Remake)</t>
-  </si>
-  <si>
-    <t>Destroy All Humans! 2</t>
-  </si>
-  <si>
-    <t>Lovers in a Dangerous Spacetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inFamous </t>
-  </si>
-  <si>
-    <t>29/09/2020</t>
-  </si>
-  <si>
-    <t>inFamous 2</t>
-  </si>
-  <si>
-    <t>Crash Bandicoot 3: Warped</t>
-  </si>
-  <si>
-    <t>South Park: The Fractured But Whole</t>
-  </si>
-  <si>
-    <t>14/10/2020</t>
-  </si>
-  <si>
-    <t>Crash Bandicoot 2: Cortex Strikes Back</t>
-  </si>
-  <si>
-    <t>19/10/2020</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank: A Crack in Time</t>
-  </si>
-  <si>
-    <t>21/10/2020</t>
-  </si>
-  <si>
-    <t>Crash Bandicoot</t>
-  </si>
-  <si>
-    <t>23/10/2020</t>
-  </si>
-  <si>
-    <t>Family Guy: Back to the Multiverse</t>
-  </si>
-  <si>
-    <t>Crash Team Racing: Nitro Fueled</t>
-  </si>
-  <si>
-    <t>25/10/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MediEvil </t>
-  </si>
-  <si>
-    <t>28/10/2020</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank (2016)</t>
-  </si>
-  <si>
-    <t>31/10/2020</t>
-  </si>
-  <si>
-    <t>Oddworld: New 'n' Tasty</t>
-  </si>
-  <si>
-    <t>Borderlands 3</t>
-  </si>
-  <si>
-    <t>15/11/2020</t>
-  </si>
-  <si>
-    <t>Ghost of Tsushima</t>
-  </si>
-  <si>
-    <t>Star Wars Episode I: Racer</t>
-  </si>
-  <si>
-    <t>24/12/2020</t>
-  </si>
-  <si>
-    <t>ASTRO BOT: RESCUE MISSION</t>
-  </si>
-  <si>
-    <t>Ratchet and Clank: Nexus</t>
-  </si>
-  <si>
-    <t>13/02/2021</t>
-  </si>
-  <si>
-    <t>Ratchet: Gladiator</t>
-  </si>
-  <si>
-    <t>Grand Theft Auto: San Andreas</t>
-  </si>
-  <si>
-    <t>ASTRO'S PLAYROOM</t>
-  </si>
-  <si>
-    <t>PS5</t>
-  </si>
-  <si>
-    <t>17/05/2021</t>
-  </si>
-  <si>
-    <t>One Escape</t>
-  </si>
-  <si>
-    <t>19/05/2021</t>
-  </si>
-  <si>
-    <t>Maneater</t>
-  </si>
-  <si>
-    <t>31/05/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugsnax </t>
-  </si>
-  <si>
-    <t>Concept Destruction</t>
-  </si>
-  <si>
-    <t>Sir Lovelot</t>
-  </si>
-  <si>
-    <t>Wreckfest</t>
-  </si>
-  <si>
-    <t>Evil Inside</t>
-  </si>
-  <si>
-    <t>24/06/2021</t>
-  </si>
-  <si>
-    <t>Concrete Genie</t>
-  </si>
-  <si>
-    <t>28/06/2021</t>
-  </si>
-  <si>
-    <t>Days Gone</t>
-  </si>
-  <si>
-    <t>Manual Samuel</t>
-  </si>
-  <si>
-    <t>Donut County</t>
-  </si>
-  <si>
-    <t>Saints Row IV: Re-Elected</t>
-  </si>
-  <si>
-    <t>18/07/2021</t>
-  </si>
-  <si>
-    <t>Marvel's Guardians of the Galaxy TTG</t>
-  </si>
-  <si>
-    <t>God of War (2018)</t>
-  </si>
-  <si>
-    <t>29/07/2021</t>
-  </si>
-  <si>
-    <t>Psychonauts</t>
-  </si>
-  <si>
-    <t>Sumatra: Fate of Yandi</t>
-  </si>
-  <si>
-    <t>19/08/2021</t>
-  </si>
-  <si>
-    <t>Accounting+</t>
-  </si>
-  <si>
-    <t>29/08/2021</t>
-  </si>
-  <si>
-    <t>Putty Squad</t>
-  </si>
-  <si>
-    <t>Supermarket Shriek</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants: Battle for Bikini Bottom: Rehydrated</t>
-  </si>
-  <si>
-    <t>Shing!</t>
-  </si>
-  <si>
-    <t>Trover Saves The Universe</t>
-  </si>
-  <si>
-    <t>Twin Robots: Ultimate Edition</t>
-  </si>
-  <si>
-    <t>27/09/2021</t>
-  </si>
-  <si>
-    <t>F1 2021</t>
-  </si>
-  <si>
-    <t>30/09/2021</t>
-  </si>
-  <si>
-    <t>Infliction: Extended Cut</t>
-  </si>
-  <si>
-    <t>Until Dawn</t>
-  </si>
-  <si>
-    <t>Psychonauts 2</t>
-  </si>
-  <si>
-    <t>26/11/2021</t>
-  </si>
-  <si>
-    <t>Jak X</t>
-  </si>
-  <si>
-    <t>13/12/2021</t>
-  </si>
-  <si>
-    <t>Ovivo</t>
-  </si>
-  <si>
-    <t>14/12/2021</t>
-  </si>
-  <si>
-    <t>Ratchet and Clank 2</t>
-  </si>
-  <si>
-    <t>21/12/2021</t>
-  </si>
-  <si>
-    <t>Ratchet and Clank 3</t>
-  </si>
-  <si>
-    <t>25/12/2021</t>
-  </si>
-  <si>
-    <t>Ratchet and Clank: Rift Apart</t>
-  </si>
-  <si>
-    <t>29/12/2021</t>
-  </si>
-  <si>
-    <t>Beat Cop</t>
-  </si>
-  <si>
-    <t>Deeeer Simulator</t>
-  </si>
-  <si>
-    <t>Kandagawa Jet Girls</t>
-  </si>
-  <si>
-    <t>21/03/2022</t>
-  </si>
-  <si>
-    <t>Cyberpunk 2077</t>
-  </si>
-  <si>
-    <t>Cloudpunk</t>
-  </si>
-  <si>
-    <t>Absolute Drift: Zen Edition</t>
-  </si>
-  <si>
-    <t>20/04/2022</t>
-  </si>
-  <si>
-    <t>In Rays of the Light</t>
-  </si>
-  <si>
-    <t>22/04/2022</t>
-  </si>
-  <si>
-    <t>The Guy VR</t>
-  </si>
-  <si>
-    <t>27/04/2022</t>
-  </si>
-  <si>
-    <t>Art of Rally</t>
-  </si>
-  <si>
-    <t>Leisure Suit Larry - Wet Dreams Don't Dry</t>
-  </si>
-  <si>
-    <t>25/05/2022</t>
-  </si>
-  <si>
-    <t>Leisure Suit Larry - Wet Dreams Dry Twice</t>
-  </si>
-  <si>
-    <t>29/05/2022</t>
-  </si>
-  <si>
-    <t>Ghostwire: Tokyo</t>
-  </si>
-  <si>
-    <t>Need for Speed: Shift</t>
-  </si>
-  <si>
-    <t>15/06/2022</t>
-  </si>
-  <si>
-    <t>Sly Cooper and the Thievius Raccoonus</t>
-  </si>
-  <si>
-    <t>Sly Cooper 2: Band of Thieves</t>
-  </si>
-  <si>
-    <t>Sly Cooper 3: Honour Among Thieves</t>
-  </si>
-  <si>
-    <t>Sonic Origins</t>
-  </si>
-  <si>
-    <t>20/09/2022</t>
-  </si>
-  <si>
-    <t>TOEM</t>
-  </si>
-  <si>
-    <t>25/09/2022</t>
-  </si>
-  <si>
-    <t>Night Book</t>
-  </si>
-  <si>
-    <t>Jazzpunk</t>
-  </si>
-  <si>
-    <t>The Walking Dead: Season 3 TTG</t>
-  </si>
-  <si>
-    <t>The Walking Dead: The Final Season TTG</t>
-  </si>
-  <si>
-    <t>16/10/2022</t>
-  </si>
-  <si>
-    <t>The Darkside Detective</t>
-  </si>
-  <si>
-    <t>20/10/2022</t>
-  </si>
-  <si>
-    <t>The Wolf Among Us</t>
-  </si>
-  <si>
-    <t>Oxenfree</t>
-  </si>
-  <si>
-    <t>24/10/2022</t>
-  </si>
-  <si>
-    <t>LEGO Batman 2: DC Super Heroes</t>
-  </si>
-  <si>
-    <t>31/10/2022</t>
-  </si>
-  <si>
-    <t>Rayman Origins</t>
-  </si>
-  <si>
-    <t>Biomutant</t>
-  </si>
-  <si>
-    <t>18/11/2022</t>
-  </si>
-  <si>
-    <t>Hot Wheels Unleashed</t>
-  </si>
-  <si>
-    <t>23/11/2022</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>24/11/2022</t>
-  </si>
-  <si>
-    <t>Marvel's Spider-Man: Miles Morales</t>
-  </si>
-  <si>
-    <t>27/11/2022</t>
-  </si>
-  <si>
-    <t>Cult of the Lamb</t>
-  </si>
-  <si>
-    <t>Knack</t>
-  </si>
-  <si>
-    <t>Ratchet and Clank (2002)</t>
-  </si>
-  <si>
-    <t>Knack II</t>
-  </si>
-  <si>
-    <t>Stray</t>
-  </si>
-  <si>
-    <t>Klonoa Phantasy Reverie Series</t>
-  </si>
-  <si>
-    <t>Color Slayer</t>
-  </si>
-  <si>
-    <t>17/12/2022</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>19/12/2022</t>
-  </si>
-  <si>
-    <t>Potion Permit</t>
-  </si>
-  <si>
-    <t>Horizon Zero Dawn</t>
-  </si>
-  <si>
-    <t>13/01/2023</t>
-  </si>
-  <si>
-    <t>Pic-a-Pix Color</t>
-  </si>
-  <si>
-    <t>26/01/2023</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>31/01/2023</t>
-  </si>
-  <si>
-    <t>PlayStation Vita Pets</t>
-  </si>
-  <si>
-    <t>Hogwarts Legacy</t>
-  </si>
-  <si>
-    <t>22/02/2023</t>
-  </si>
-  <si>
-    <t>Uncharted: Golden Abyss</t>
-  </si>
-  <si>
-    <t>22/03/2023</t>
-  </si>
-  <si>
-    <t>26/03/2023</t>
-  </si>
-  <si>
-    <t>30/03/2023</t>
-  </si>
-  <si>
-    <t>Spy Hunter</t>
-  </si>
-  <si>
-    <t>27/04/2023</t>
-  </si>
-  <si>
-    <t>The Amazing Spider-Man</t>
-  </si>
-  <si>
-    <t>19/06/2023</t>
-  </si>
-  <si>
-    <t>The Darkness II</t>
-  </si>
-  <si>
-    <t>PlayStation Move Heroes</t>
-  </si>
-  <si>
-    <t>20/07/2023</t>
-  </si>
-  <si>
-    <t>Uncharted: Drake's Fortune: Remastered</t>
-  </si>
-  <si>
-    <t>Uncharted 2: Among Thieves: Remastered</t>
-  </si>
-  <si>
-    <t>Uncharted 3: Drake's Deception: Remastered</t>
-  </si>
-  <si>
-    <t>The American Dream</t>
-  </si>
-  <si>
-    <t>13/08/2023</t>
-  </si>
-  <si>
-    <t>inFamous Second Son</t>
-  </si>
-  <si>
-    <t>21/08/2023</t>
-  </si>
-  <si>
-    <t>inFamous First Light</t>
-  </si>
-  <si>
-    <t>22/08/2023</t>
-  </si>
-  <si>
-    <t>Dark Cloud</t>
-  </si>
-  <si>
-    <t>Sleeping Dogs: Definitive Edition</t>
-  </si>
-  <si>
-    <t>30/09/2023</t>
-  </si>
-  <si>
-    <t>Marvel's Spider-Man 2</t>
-  </si>
-  <si>
-    <t>25/10/2023</t>
-  </si>
-  <si>
-    <t>Turnip Boy Commits Tax Evasion</t>
-  </si>
-  <si>
-    <t>31/10/2023</t>
-  </si>
-  <si>
-    <t>GRID Legends</t>
-  </si>
-  <si>
-    <t>16/11/2023</t>
-  </si>
-  <si>
-    <t>Saints Row (2022)</t>
-  </si>
-  <si>
-    <t>24/11/2023</t>
-  </si>
-  <si>
-    <t>Run Sausage Run!</t>
-  </si>
-  <si>
-    <t>27/11/2023</t>
-  </si>
-  <si>
-    <t>PowerWash Simulator</t>
-  </si>
-  <si>
-    <t>14/12/2023</t>
-  </si>
-  <si>
-    <t>Like a Dragon Gaiden: The Man Who Erased His Name: Deluxe Edition</t>
-  </si>
-  <si>
-    <t>Bud Spencer &amp; Terence Hill - Slaps And Beans</t>
-  </si>
-  <si>
-    <t>Riptide GP: Renegade</t>
-  </si>
-  <si>
-    <t>15/01/2024</t>
-  </si>
-  <si>
-    <t>Far Cry New Dawn</t>
-  </si>
-  <si>
-    <t>19/01/2024</t>
-  </si>
-  <si>
-    <t>Like a Dragon: Infinite Wealth</t>
-  </si>
-  <si>
-    <t>16/02/2024</t>
-  </si>
-  <si>
-    <t>SpongeBob SquarePants: The Cosmic Shake</t>
-  </si>
-  <si>
-    <t>19/02/2024</t>
-  </si>
-  <si>
-    <t>Borderlands</t>
-  </si>
-  <si>
-    <t>26/02/2024</t>
-  </si>
-  <si>
-    <t>RoboCop: Rogue City</t>
-  </si>
-  <si>
-    <t>Spirit of the North: Enhanced Edition</t>
-  </si>
-  <si>
-    <t>19/03/2024</t>
-  </si>
-  <si>
-    <t>Going Under</t>
-  </si>
-  <si>
-    <t>19/04/2024</t>
-  </si>
-  <si>
-    <t>Far Cry Primal</t>
-  </si>
-  <si>
-    <t>22/04/2024</t>
-  </si>
-  <si>
-    <t>A Plague Tale: Innocence</t>
-  </si>
-  <si>
-    <t>28/04/2024</t>
-  </si>
-  <si>
-    <t>Rustler</t>
-  </si>
-  <si>
-    <t>Coffee Talk</t>
-  </si>
-  <si>
-    <t>Daxter</t>
-  </si>
-  <si>
-    <t>PSP</t>
-  </si>
-  <si>
-    <t>Medievil (1998)</t>
-  </si>
-  <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>Jumping Flash</t>
-  </si>
-  <si>
-    <t>Toy Story 2</t>
-  </si>
-  <si>
-    <t>Rayman Legends</t>
-  </si>
-  <si>
-    <t>18/07/2024</t>
-  </si>
-  <si>
-    <t>Nobody Saves the World</t>
-  </si>
-  <si>
-    <t>26/07/2024</t>
-  </si>
-  <si>
-    <t>Dead Island 2</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank: Size Matters</t>
-  </si>
-  <si>
-    <t>18/08/2024</t>
-  </si>
-  <si>
-    <t>Astro Bot</t>
-  </si>
-  <si>
-    <t>Yakuza 0</t>
-  </si>
-  <si>
-    <t>17/10/2024</t>
-  </si>
-  <si>
-    <t>Yakuza Kiwami</t>
-  </si>
-  <si>
-    <t>Squirrel with a Gun</t>
-  </si>
-  <si>
-    <t>Yakuza Kiwami 2</t>
-  </si>
-  <si>
-    <t>20/11/2024</t>
-  </si>
-  <si>
-    <t>Parcel Corps</t>
-  </si>
-  <si>
-    <t>27/11/2024</t>
-  </si>
-  <si>
-    <t>LA Cops</t>
-  </si>
-  <si>
-    <t>28/11/2024</t>
-  </si>
-  <si>
-    <t>Hot Wheels Unleashed 2 - Turbocharged</t>
-  </si>
-  <si>
-    <t>30/11/2024</t>
-  </si>
-  <si>
-    <t>Horizon Forbidden West</t>
-  </si>
-  <si>
-    <t>Watch_Dogs</t>
-  </si>
-  <si>
-    <t>Watch_Dogs 2</t>
-  </si>
-  <si>
-    <t>Watch Dogs Legion</t>
-  </si>
-  <si>
-    <t>15/12/2024</t>
-  </si>
-  <si>
-    <t>Uncharted: The Lost Legacy</t>
-  </si>
-  <si>
-    <t>24/12/2024</t>
-  </si>
-  <si>
-    <t>South Park: Snow Day</t>
-  </si>
-  <si>
-    <t>27/12/2024</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -919,6 +925,9 @@
     <t>16th</t>
   </si>
   <si>
+    <t>17th</t>
+  </si>
+  <si>
     <t>14th</t>
   </si>
   <si>
@@ -934,21 +943,21 @@
     <t>10th</t>
   </si>
   <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>13th</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
     <t>9th</t>
   </si>
   <si>
-    <t>13th</t>
-  </si>
-  <si>
-    <t>8th</t>
-  </si>
-  <si>
-    <t>7th</t>
-  </si>
-  <si>
-    <t>6th</t>
-  </si>
-  <si>
     <t>5th</t>
   </si>
   <si>
@@ -964,9 +973,6 @@
     <t>3rd</t>
   </si>
   <si>
-    <t>17th</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
@@ -2377,13 +2383,10 @@
     <t>Bridge Constructor</t>
   </si>
   <si>
-    <t>Saints Row Gat out of Hell</t>
+    <t xml:space="preserve">Olliolli </t>
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olliolli </t>
   </si>
   <si>
     <t>Olliolli 2</t>
@@ -2630,7 +2633,7 @@
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2665,6 +2668,30 @@
     <font>
       <b/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFA4C2F4"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFF1C232"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFD9D9D9"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFCC4125"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -2803,7 +2830,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2856,13 +2883,13 @@
     <xf borderId="3" fillId="5" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2938,10 +2965,28 @@
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="3" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="11" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="3" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2950,10 +2995,7 @@
     <xf borderId="3" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2967,6 +3009,12 @@
     </xf>
     <xf borderId="3" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -3021,7 +3069,7 @@
                 </a:solidFill>
                 <a:latin typeface="Tahoma"/>
               </a:rPr>
-              <a:t>Updated as of 31st Dec 2024</a:t>
+              <a:t>Updated as of 31st Jan 2025</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3055,21 +3103,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>platinums!$A$2:$A$184</c:f>
+              <c:f>platinums!$A$2:$A$185</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>platinums!$E$2:$E$184</c:f>
+              <c:f>platinums!$E$2:$E$185</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1708880123"/>
-        <c:axId val="395222880"/>
+        <c:axId val="721533883"/>
+        <c:axId val="1094194657"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1708880123"/>
+        <c:axId val="721533883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,10 +3169,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395222880"/>
+        <c:crossAx val="1094194657"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395222880"/>
+        <c:axId val="1094194657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3199,7 +3247,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1708880123"/>
+        <c:crossAx val="721533883"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3231,7 +3279,7 @@
                 </a:solidFill>
                 <a:latin typeface="Tahoma"/>
               </a:rPr>
-              <a:t>Updated as of 31st Dec 2024</a:t>
+              <a:t>Updated as of 31st Jan 2025</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3445,11 +3493,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1153583869"/>
-        <c:axId val="493232133"/>
+        <c:axId val="1093102506"/>
+        <c:axId val="290873201"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1153583869"/>
+        <c:axId val="1093102506"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3501,10 +3549,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493232133"/>
+        <c:crossAx val="290873201"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="493232133"/>
+        <c:axId val="290873201"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3579,7 +3627,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153583869"/>
+        <c:crossAx val="1093102506"/>
       </c:valAx>
     </c:plotArea>
   </c:chart>
@@ -3987,7 +4035,7 @@
     </row>
     <row r="10">
       <c r="A10" s="16">
-        <v>183.0</v>
+        <v>184.0</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>12</v>
@@ -3999,7 +4047,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="17">
-        <v>0.152</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">
@@ -4008,6 +4056,76 @@
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4818,10 +4936,10 @@
         <v>83</v>
       </c>
       <c r="C44" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>84</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="E44" s="23">
         <v>0.045</v>
@@ -4833,13 +4951,13 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="22" t="s">
         <v>86</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>87</v>
       </c>
       <c r="E45" s="23">
         <v>0.774</v>
@@ -4851,13 +4969,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="E46" s="23">
         <v>0.098</v>
@@ -4869,10 +4987,10 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D47" s="24">
         <v>44233.0</v>
@@ -4887,10 +5005,10 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D48" s="24">
         <v>44292.0</v>
@@ -4905,10 +5023,10 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D49" s="24">
         <v>44383.0</v>
@@ -4923,10 +5041,10 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D50" s="24">
         <v>44383.0</v>
@@ -4941,13 +5059,13 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>95</v>
       </c>
       <c r="E51" s="23">
         <v>0.548</v>
@@ -4959,13 +5077,13 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52" s="23">
         <v>0.059</v>
@@ -4977,7 +5095,7 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>22</v>
@@ -4995,7 +5113,7 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>22</v>
@@ -5013,7 +5131,7 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>22</v>
@@ -5031,13 +5149,13 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E56" s="25">
         <v>0.016</v>
@@ -5049,13 +5167,13 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E57" s="23">
         <v>0.292</v>
@@ -5067,13 +5185,13 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E58" s="23">
         <v>0.045</v>
@@ -5085,7 +5203,7 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>22</v>
@@ -5103,13 +5221,13 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="22" t="s">
         <v>107</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>108</v>
       </c>
       <c r="E60" s="23">
         <v>0.625</v>
@@ -5121,13 +5239,13 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E61" s="23">
         <v>0.12</v>
@@ -5139,7 +5257,7 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>22</v>
@@ -5157,7 +5275,7 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>22</v>
@@ -5175,7 +5293,7 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>22</v>
@@ -5193,10 +5311,10 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D65" s="24">
         <v>44448.0</v>
@@ -5211,7 +5329,7 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="22" t="s">
         <v>22</v>
@@ -5229,13 +5347,13 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>117</v>
       </c>
       <c r="E67" s="23">
         <v>0.207</v>
@@ -5247,13 +5365,13 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="22" t="s">
         <v>118</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>119</v>
       </c>
       <c r="E68" s="23">
         <v>0.003</v>
@@ -5265,10 +5383,10 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D69" s="24">
         <v>44296.0</v>
@@ -5283,7 +5401,7 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>22</v>
@@ -5301,13 +5419,13 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C71" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E71" s="23">
         <v>0.185</v>
@@ -5319,13 +5437,13 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E72" s="28">
         <v>0.03</v>
@@ -5337,13 +5455,13 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>127</v>
       </c>
       <c r="E73" s="23">
         <v>0.312</v>
@@ -5355,13 +5473,13 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E74" s="23">
         <v>0.105</v>
@@ -5373,13 +5491,13 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E75" s="27">
         <v>0.101</v>
@@ -5391,13 +5509,13 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="22" t="s">
         <v>132</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>133</v>
       </c>
       <c r="E76" s="23">
         <v>0.1</v>
@@ -5419,7 +5537,7 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C77" s="22" t="s">
         <v>22</v>
@@ -5437,7 +5555,7 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C78" s="22" t="s">
         <v>22</v>
@@ -5455,13 +5573,13 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E79" s="23">
         <v>0.142</v>
@@ -5473,10 +5591,10 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D80" s="24">
         <v>44565.0</v>
@@ -5491,7 +5609,7 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>22</v>
@@ -5509,13 +5627,13 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E82" s="23">
         <v>0.054</v>
@@ -5527,13 +5645,13 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>143</v>
       </c>
       <c r="E83" s="23">
         <v>0.213</v>
@@ -5545,13 +5663,13 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C84" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E84" s="27">
         <v>0.011</v>
@@ -5563,10 +5681,10 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D85" s="24">
         <v>44625.0</v>
@@ -5581,13 +5699,13 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C86" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E86" s="23">
         <v>0.171</v>
@@ -5599,13 +5717,13 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E87" s="23">
         <v>0.104</v>
@@ -5617,10 +5735,10 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D88" s="24">
         <v>44748.0</v>
@@ -5635,13 +5753,13 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E89" s="23">
         <v>0.008</v>
@@ -5653,7 +5771,7 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>16</v>
@@ -5671,7 +5789,7 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>16</v>
@@ -5689,7 +5807,7 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="22" t="s">
         <v>16</v>
@@ -5707,13 +5825,13 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="E93" s="23">
         <v>0.063</v>
@@ -5725,13 +5843,13 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="E94" s="23">
         <v>0.218</v>
@@ -5743,7 +5861,7 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C95" s="22" t="s">
         <v>22</v>
@@ -5761,7 +5879,7 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C96" s="22" t="s">
         <v>22</v>
@@ -5779,7 +5897,7 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="22" t="s">
         <v>22</v>
@@ -5797,13 +5915,13 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E98" s="23">
         <v>0.113</v>
@@ -5815,13 +5933,13 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="22" t="s">
         <v>166</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>167</v>
       </c>
       <c r="E99" s="27">
         <v>0.131</v>
@@ -5833,13 +5951,13 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C100" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E100" s="23">
         <v>0.191</v>
@@ -5851,13 +5969,13 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C101" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E101" s="23">
         <v>0.064</v>
@@ -5869,13 +5987,13 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C102" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E102" s="27">
         <v>0.073</v>
@@ -5887,13 +6005,13 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C103" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E103" s="23">
         <v>0.052</v>
@@ -5905,13 +6023,13 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="22" t="s">
         <v>174</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D104" s="22" t="s">
-        <v>175</v>
       </c>
       <c r="E104" s="23">
         <v>0.015</v>
@@ -5923,13 +6041,13 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="22" t="s">
         <v>176</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>177</v>
       </c>
       <c r="E105" s="23">
         <v>0.004</v>
@@ -5941,13 +6059,13 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>179</v>
       </c>
       <c r="E106" s="23">
         <v>0.005</v>
@@ -5959,13 +6077,13 @@
         <v>106.0</v>
       </c>
       <c r="B107" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>181</v>
       </c>
       <c r="E107" s="23">
         <v>0.057</v>
@@ -5977,10 +6095,10 @@
         <v>107.0</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D108" s="24">
         <v>44573.0</v>
@@ -5995,7 +6113,7 @@
         <v>108.0</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C109" s="22" t="s">
         <v>22</v>
@@ -6013,7 +6131,7 @@
         <v>109.0</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C110" s="22" t="s">
         <v>16</v>
@@ -6031,7 +6149,7 @@
         <v>110.0</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C111" s="22" t="s">
         <v>22</v>
@@ -6049,10 +6167,10 @@
         <v>111.0</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D112" s="26">
         <v>44846.0</v>
@@ -6067,10 +6185,10 @@
         <v>112.0</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D113" s="26">
         <v>44907.0</v>
@@ -6085,13 +6203,13 @@
         <v>113.0</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C114" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E114" s="23">
         <v>0.536</v>
@@ -6103,13 +6221,13 @@
         <v>114.0</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C115" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E115" s="23">
         <v>0.067</v>
@@ -6131,10 +6249,10 @@
         <v>115.0</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D116" s="24">
         <v>45017.0</v>
@@ -6149,13 +6267,13 @@
         <v>116.0</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C117" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E117" s="25">
         <v>0.054</v>
@@ -6167,13 +6285,13 @@
         <v>117.0</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C118" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E118" s="23">
         <v>0.879</v>
@@ -6185,13 +6303,13 @@
         <v>118.0</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C119" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E119" s="23">
         <v>0.351</v>
@@ -6203,7 +6321,7 @@
         <v>119.0</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C120" s="22" t="s">
         <v>18</v>
@@ -6221,13 +6339,13 @@
         <v>120.0</v>
       </c>
       <c r="B121" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D121" s="22" t="s">
-        <v>201</v>
       </c>
       <c r="E121" s="23">
         <v>0.022</v>
@@ -6239,7 +6357,7 @@
         <v>121.0</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C122" s="22" t="s">
         <v>18</v>
@@ -6263,7 +6381,7 @@
         <v>18</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E123" s="23">
         <v>0.959</v>
@@ -6275,13 +6393,13 @@
         <v>123.0</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C124" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E124" s="23">
         <v>0.096</v>
@@ -6293,13 +6411,13 @@
         <v>124.0</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C125" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E125" s="23">
         <v>0.182</v>
@@ -6311,7 +6429,7 @@
         <v>125.0</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C126" s="22" t="s">
         <v>18</v>
@@ -6329,7 +6447,7 @@
         <v>126.0</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C127" s="22" t="s">
         <v>18</v>
@@ -6347,7 +6465,7 @@
         <v>127.0</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C128" s="22" t="s">
         <v>18</v>
@@ -6365,7 +6483,7 @@
         <v>128.0</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C129" s="22" t="s">
         <v>18</v>
@@ -6383,13 +6501,13 @@
         <v>129.0</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C130" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E130" s="23">
         <v>0.16</v>
@@ -6401,13 +6519,13 @@
         <v>130.0</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C131" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E131" s="23">
         <v>0.016</v>
@@ -6419,7 +6537,7 @@
         <v>131.0</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C132" s="22" t="s">
         <v>16</v>
@@ -6437,13 +6555,13 @@
         <v>132.0</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C133" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E133" s="23">
         <v>0.02</v>
@@ -6455,7 +6573,7 @@
         <v>133.0</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C134" s="22" t="s">
         <v>22</v>
@@ -6473,7 +6591,7 @@
         <v>134.0</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C135" s="22" t="s">
         <v>22</v>
@@ -6491,7 +6609,7 @@
         <v>135.0</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C136" s="22" t="s">
         <v>22</v>
@@ -6509,13 +6627,13 @@
         <v>136.0</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C137" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E137" s="23">
         <v>0.038</v>
@@ -6527,13 +6645,13 @@
         <v>137.0</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C138" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E138" s="25">
         <v>0.055</v>
@@ -6545,13 +6663,13 @@
         <v>138.0</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C139" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E139" s="25">
         <v>0.055</v>
@@ -6563,7 +6681,7 @@
         <v>139.0</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C140" s="22" t="s">
         <v>22</v>
@@ -6581,13 +6699,13 @@
         <v>140.0</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C141" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E141" s="23">
         <v>0.033</v>
@@ -6599,13 +6717,13 @@
         <v>141.0</v>
       </c>
       <c r="B142" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="E142" s="23">
         <v>0.163</v>
@@ -6617,13 +6735,13 @@
         <v>142.0</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C143" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E143" s="23">
         <v>0.523</v>
@@ -6635,13 +6753,13 @@
         <v>143.0</v>
       </c>
       <c r="B144" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="E144" s="25">
         <v>0.005</v>
@@ -6653,13 +6771,13 @@
         <v>144.0</v>
       </c>
       <c r="B145" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="C145" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>232</v>
       </c>
       <c r="E145" s="23">
         <v>0.007</v>
@@ -6671,13 +6789,13 @@
         <v>145.0</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C146" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E146" s="23">
         <v>0.04</v>
@@ -6689,13 +6807,13 @@
         <v>146.0</v>
       </c>
       <c r="B147" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="C147" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="E147" s="23">
         <v>0.01</v>
@@ -6717,10 +6835,10 @@
         <v>147.0</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D148" s="24">
         <v>45413.0</v>
@@ -6735,7 +6853,7 @@
         <v>148.0</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C149" s="22" t="s">
         <v>22</v>
@@ -6753,13 +6871,13 @@
         <v>149.0</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C150" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E150" s="23">
         <v>0.029</v>
@@ -6771,13 +6889,13 @@
         <v>150.0</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C151" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E151" s="25">
         <v>0.025</v>
@@ -6789,13 +6907,13 @@
         <v>151.0</v>
       </c>
       <c r="B152" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="22" t="s">
         <v>243</v>
-      </c>
-      <c r="C152" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D152" s="22" t="s">
-        <v>244</v>
       </c>
       <c r="E152" s="23">
         <v>0.096</v>
@@ -6807,13 +6925,13 @@
         <v>152.0</v>
       </c>
       <c r="B153" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="22" t="s">
         <v>245</v>
-      </c>
-      <c r="C153" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D153" s="22" t="s">
-        <v>246</v>
       </c>
       <c r="E153" s="23">
         <v>0.02</v>
@@ -6825,13 +6943,13 @@
         <v>153.0</v>
       </c>
       <c r="B154" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C154" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E154" s="23">
         <v>0.057</v>
@@ -6843,10 +6961,10 @@
         <v>154.0</v>
       </c>
       <c r="B155" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D155" s="24">
         <v>45354.0</v>
@@ -6861,13 +6979,13 @@
         <v>155.0</v>
       </c>
       <c r="B156" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="22" t="s">
         <v>250</v>
-      </c>
-      <c r="C156" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D156" s="22" t="s">
-        <v>251</v>
       </c>
       <c r="E156" s="25">
         <v>0.038</v>
@@ -6879,13 +6997,13 @@
         <v>156.0</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C157" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E157" s="23">
         <v>0.081</v>
@@ -6897,13 +7015,13 @@
         <v>157.0</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C158" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E158" s="23">
         <v>0.039</v>
@@ -6915,13 +7033,13 @@
         <v>158.0</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C159" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E159" s="25">
         <v>0.092</v>
@@ -6933,10 +7051,10 @@
         <v>159.0</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D160" s="24">
         <v>45510.0</v>
@@ -6951,10 +7069,10 @@
         <v>160.0</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D161" s="24">
         <v>45571.0</v>
@@ -6969,10 +7087,10 @@
         <v>161.0</v>
       </c>
       <c r="B162" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C162" s="22" t="s">
         <v>260</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>261</v>
       </c>
       <c r="D162" s="24">
         <v>45419.0</v>
@@ -6987,10 +7105,10 @@
         <v>162.0</v>
       </c>
       <c r="B163" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C163" s="22" t="s">
         <v>262</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>263</v>
       </c>
       <c r="D163" s="24">
         <v>45572.0</v>
@@ -7005,10 +7123,10 @@
         <v>163.0</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D164" s="24">
         <v>45572.0</v>
@@ -7023,10 +7141,10 @@
         <v>164.0</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D165" s="32">
         <v>45633.0</v>
@@ -7041,13 +7159,13 @@
         <v>165.0</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C166" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E166" s="23">
         <v>0.003</v>
@@ -7059,13 +7177,13 @@
         <v>166.0</v>
       </c>
       <c r="B167" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C167" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="31" t="s">
         <v>268</v>
-      </c>
-      <c r="C167" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D167" s="31" t="s">
-        <v>269</v>
       </c>
       <c r="E167" s="23">
         <v>0.022</v>
@@ -7077,10 +7195,10 @@
         <v>167.0</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D168" s="32">
         <v>45573.0</v>
@@ -7095,13 +7213,13 @@
         <v>168.0</v>
       </c>
       <c r="B169" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C169" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D169" s="31" t="s">
         <v>271</v>
-      </c>
-      <c r="C169" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D169" s="31" t="s">
-        <v>272</v>
       </c>
       <c r="E169" s="23">
         <v>0.055</v>
@@ -7113,10 +7231,10 @@
         <v>169.0</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D170" s="32">
         <v>45544.0</v>
@@ -7131,13 +7249,13 @@
         <v>170.0</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C171" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D171" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E171" s="23">
         <v>0.008</v>
@@ -7149,7 +7267,7 @@
         <v>171.0</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C172" s="31" t="s">
         <v>22</v>
@@ -7167,10 +7285,10 @@
         <v>172.0</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D173" s="34">
         <v>45515.0</v>
@@ -7185,13 +7303,13 @@
         <v>173.0</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C174" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D174" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E174" s="35">
         <v>0.026</v>
@@ -7203,13 +7321,13 @@
         <v>174.0</v>
       </c>
       <c r="B175" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="31" t="s">
         <v>280</v>
-      </c>
-      <c r="C175" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D175" s="31" t="s">
-        <v>281</v>
       </c>
       <c r="E175" s="23">
         <v>0.008</v>
@@ -7221,13 +7339,13 @@
         <v>175.0</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C176" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D176" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E176" s="23">
         <v>0.144</v>
@@ -7239,13 +7357,13 @@
         <v>176.0</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C177" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D177" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E177" s="23">
         <v>0.005</v>
@@ -7257,7 +7375,7 @@
         <v>177.0</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C178" s="31" t="s">
         <v>22</v>
@@ -7275,7 +7393,7 @@
         <v>178.0</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C179" s="31" t="s">
         <v>16</v>
@@ -7293,7 +7411,7 @@
         <v>179.0</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C180" s="31" t="s">
         <v>22</v>
@@ -7310,13 +7428,13 @@
         <v>180.0</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C181" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D181" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E181" s="23">
         <v>0.01</v>
@@ -7327,13 +7445,13 @@
         <v>181.0</v>
       </c>
       <c r="B182" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C182" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D182" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E182" s="38">
         <v>0.019</v>
@@ -7344,13 +7462,13 @@
         <v>182.0</v>
       </c>
       <c r="B183" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C183" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="37" t="s">
         <v>293</v>
-      </c>
-      <c r="C183" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D183" s="37" t="s">
-        <v>294</v>
       </c>
       <c r="E183" s="38">
         <v>0.021</v>
@@ -7361,13 +7479,13 @@
         <v>183.0</v>
       </c>
       <c r="B184" s="37" t="s">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>13</v>
+        <v>295</v>
       </c>
       <c r="D184" s="37" t="s">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="E184" s="38">
         <v>0.151</v>
@@ -7383,6 +7501,29 @@
       <c r="H184" s="30">
         <v>0.0577</v>
       </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="16">
+        <v>184.0</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="F185" s="29">
+        <f>SUM(E185)</f>
+        <v>0.02</v>
+      </c>
+      <c r="G185" s="21"/>
+      <c r="H185" s="30"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7419,34 +7560,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="G1" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>297</v>
-      </c>
       <c r="I1" s="42" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J1" s="43" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
@@ -7471,41 +7612,43 @@
       <c r="E2" s="45">
         <v>33.0</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="46">
         <v>2009.0</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="46">
         <v>0.0</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="46">
         <v>2.0</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="46">
         <v>5.0</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J2" s="46">
         <v>33.0</v>
       </c>
-      <c r="K2" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="L2" s="47">
-        <f t="shared" ref="L2:L17" si="2">(G2-$G$18)+1</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="48">
-        <f t="shared" ref="M2:O2" si="1">(H2-H18)+1</f>
-        <v>3</v>
-      </c>
-      <c r="N2" s="49">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="O2" s="50">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="P2" s="46"/>
+      <c r="K2" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="L2" s="48">
+        <f t="shared" ref="L2:L17" si="1">(G2-$G$18)+1</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="49">
+        <f t="shared" ref="M2:M17" si="2">(H2-$H$18)+1</f>
+        <v>-8</v>
+      </c>
+      <c r="N2" s="50">
+        <f t="shared" ref="N2:N17" si="3">(I2-$I$18)+1</f>
+        <v>-44</v>
+      </c>
+      <c r="O2" s="51">
+        <f t="shared" ref="O2:O17" si="4">(J2-$J$18)+1</f>
+        <v>-96</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="45">
@@ -7523,41 +7666,43 @@
       <c r="E3" s="45">
         <v>152.0</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="46">
         <v>2010.0</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="46">
         <v>0.0</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="46">
         <v>4.0</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="46">
         <v>19.0</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="46">
         <v>119.0</v>
       </c>
-      <c r="K3" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="L3" s="47">
+      <c r="K3" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="49">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M3" s="48">
-        <f t="shared" ref="M3:M17" si="4">(H3-H18)+1</f>
-        <v>5</v>
-      </c>
-      <c r="N3" s="49">
-        <f t="shared" ref="N3:O3" si="3">(I3-I19)+1</f>
-        <v>20</v>
-      </c>
-      <c r="O3" s="50">
+        <v>-6</v>
+      </c>
+      <c r="N3" s="50">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="P3" s="46"/>
+        <v>-30</v>
+      </c>
+      <c r="O3" s="51">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="45">
@@ -7575,41 +7720,43 @@
       <c r="E4" s="45">
         <v>239.0</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="46">
         <v>2011.0</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="46">
         <v>0.0</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="46">
         <v>2.0</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="46">
         <v>15.0</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="46">
         <v>87.0</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="L4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="49">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="N4" s="50">
+        <f t="shared" si="3"/>
+        <v>-34</v>
+      </c>
+      <c r="O4" s="51">
+        <f t="shared" si="4"/>
+        <v>-42</v>
+      </c>
+      <c r="P4" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="L4" s="47">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M4" s="48">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="N4" s="49">
-        <f t="shared" ref="N4:O4" si="5">(I4-I20)+1</f>
-        <v>16</v>
-      </c>
-      <c r="O4" s="50">
-        <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="P4" s="46"/>
     </row>
     <row r="5">
       <c r="A5" s="45">
@@ -7642,26 +7789,26 @@
       <c r="J5" s="45">
         <v>146.0</v>
       </c>
-      <c r="K5" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="L5" s="47">
+      <c r="K5" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="L5" s="52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="49">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M5" s="48">
+        <v>-2</v>
+      </c>
+      <c r="N5" s="50">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="O5" s="53">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="N5" s="49">
-        <f t="shared" ref="N5:O5" si="6">(I5-I21)+1</f>
-        <v>45</v>
-      </c>
-      <c r="O5" s="50">
-        <f t="shared" si="6"/>
-        <v>147</v>
-      </c>
-      <c r="P5" s="46"/>
+        <v>17</v>
+      </c>
+      <c r="P5" s="47"/>
     </row>
     <row r="6">
       <c r="A6" s="45">
@@ -7694,26 +7841,26 @@
       <c r="J6" s="45">
         <v>254.0</v>
       </c>
-      <c r="K6" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="L6" s="47">
+      <c r="K6" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="L6" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="49">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="48">
+        <v>0</v>
+      </c>
+      <c r="N6" s="50">
+        <f t="shared" si="3"/>
+        <v>-12</v>
+      </c>
+      <c r="O6" s="53">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="N6" s="49">
-        <f t="shared" ref="N6:O6" si="7">(I6-I22)+1</f>
-        <v>38</v>
-      </c>
-      <c r="O6" s="50">
-        <f t="shared" si="7"/>
-        <v>255</v>
-      </c>
-      <c r="P6" s="46"/>
+        <v>125</v>
+      </c>
+      <c r="P6" s="47"/>
     </row>
     <row r="7">
       <c r="A7" s="45">
@@ -7746,26 +7893,26 @@
       <c r="J7" s="45">
         <v>236.0</v>
       </c>
-      <c r="K7" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="L7" s="47">
+      <c r="K7" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="L7" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="54">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M7" s="48">
+        <v>4</v>
+      </c>
+      <c r="N7" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="53">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="N7" s="49">
-        <f t="shared" ref="N7:O7" si="8">(I7-I23)+1</f>
-        <v>50</v>
-      </c>
-      <c r="O7" s="50">
-        <f t="shared" si="8"/>
-        <v>237</v>
-      </c>
-      <c r="P7" s="46"/>
+        <v>107</v>
+      </c>
+      <c r="P7" s="47"/>
     </row>
     <row r="8">
       <c r="A8" s="45">
@@ -7798,78 +7945,78 @@
       <c r="J8" s="45">
         <v>344.0</v>
       </c>
-      <c r="K8" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="L8" s="47">
+      <c r="K8" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="L8" s="52">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="54">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M8" s="48">
+        <v>19</v>
+      </c>
+      <c r="N8" s="55">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="O8" s="53">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="N8" s="49">
-        <f t="shared" ref="N8:O8" si="9">(I8-I24)+1</f>
-        <v>77</v>
-      </c>
-      <c r="O8" s="50">
-        <f t="shared" si="9"/>
-        <v>345</v>
-      </c>
-      <c r="P8" s="46"/>
+        <v>215</v>
+      </c>
+      <c r="P8" s="47"/>
     </row>
     <row r="9">
-      <c r="A9" s="51">
+      <c r="A9" s="56">
         <v>2016.0</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="56">
         <v>4.0</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="56">
         <v>75.0</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="56">
         <v>282.0</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="56">
         <v>1320.0</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="56">
         <v>2016.0</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="56">
         <v>1.0</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="56">
         <v>6.0</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="56">
         <v>37.0</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="56">
         <v>101.0</v>
       </c>
-      <c r="K9" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="L9" s="47">
+      <c r="K9" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="L9" s="52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="49">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M9" s="48">
+        <v>-4</v>
+      </c>
+      <c r="N9" s="50">
+        <f t="shared" si="3"/>
+        <v>-12</v>
+      </c>
+      <c r="O9" s="51">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="N9" s="49">
-        <f t="shared" ref="N9:O9" si="10">(I9-I25)+1</f>
-        <v>38</v>
-      </c>
-      <c r="O9" s="50">
-        <f t="shared" si="10"/>
-        <v>102</v>
-      </c>
-      <c r="P9" s="46"/>
+        <v>-28</v>
+      </c>
+      <c r="P9" s="47"/>
     </row>
     <row r="10">
       <c r="A10" s="45">
@@ -7902,26 +8049,26 @@
       <c r="J10" s="45">
         <v>439.0</v>
       </c>
-      <c r="K10" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" s="47">
+      <c r="K10" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="L10" s="52">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M10" s="54">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M10" s="48">
+        <v>35</v>
+      </c>
+      <c r="N10" s="55">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="O10" s="53">
         <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="N10" s="49">
-        <f t="shared" ref="N10:O10" si="11">(I10-I26)+1</f>
-        <v>133</v>
-      </c>
-      <c r="O10" s="50">
-        <f t="shared" si="11"/>
-        <v>440</v>
-      </c>
-      <c r="P10" s="46"/>
+        <v>310</v>
+      </c>
+      <c r="P10" s="47"/>
     </row>
     <row r="11">
       <c r="A11" s="45">
@@ -7954,26 +8101,26 @@
       <c r="J11" s="45">
         <v>478.0</v>
       </c>
-      <c r="K11" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="L11" s="47">
+      <c r="K11" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="L11" s="52">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M11" s="54">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M11" s="48">
+        <v>42</v>
+      </c>
+      <c r="N11" s="55">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="O11" s="53">
         <f t="shared" si="4"/>
-        <v>53</v>
-      </c>
-      <c r="N11" s="49">
-        <f t="shared" ref="N11:O11" si="12">(I11-I27)+1</f>
-        <v>147</v>
-      </c>
-      <c r="O11" s="50">
-        <f t="shared" si="12"/>
-        <v>479</v>
-      </c>
-      <c r="P11" s="46"/>
+        <v>349</v>
+      </c>
+      <c r="P11" s="47"/>
     </row>
     <row r="12">
       <c r="A12" s="45">
@@ -8006,26 +8153,26 @@
       <c r="J12" s="45">
         <v>557.0</v>
       </c>
-      <c r="K12" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="L12" s="47">
+      <c r="K12" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="L12" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="54">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M12" s="48">
+        <v>23</v>
+      </c>
+      <c r="N12" s="55">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="O12" s="53">
         <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="N12" s="49">
-        <f t="shared" ref="N12:O12" si="13">(I12-I28)+1</f>
-        <v>107</v>
-      </c>
-      <c r="O12" s="50">
-        <f t="shared" si="13"/>
-        <v>558</v>
-      </c>
-      <c r="P12" s="46"/>
+        <v>428</v>
+      </c>
+      <c r="P12" s="47"/>
     </row>
     <row r="13">
       <c r="A13" s="45">
@@ -8058,134 +8205,134 @@
       <c r="J13" s="45">
         <v>1068.0</v>
       </c>
-      <c r="K13" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="L13" s="47">
+      <c r="K13" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="L13" s="52">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M13" s="54">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="M13" s="48">
+        <v>114</v>
+      </c>
+      <c r="N13" s="55">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+      <c r="O13" s="53">
         <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-      <c r="N13" s="49">
-        <f t="shared" ref="N13:O13" si="14">(I13-I29)+1</f>
-        <v>354</v>
-      </c>
-      <c r="O13" s="50">
-        <f t="shared" si="14"/>
-        <v>1069</v>
-      </c>
-      <c r="P13" s="46"/>
+        <v>939</v>
+      </c>
+      <c r="P13" s="47"/>
     </row>
     <row r="14">
-      <c r="A14" s="52">
+      <c r="A14" s="57">
         <v>2021.0</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="57">
         <v>75.0</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="57">
         <v>569.0</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="57">
         <v>1497.0</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="57">
         <v>5215.0</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="57">
         <v>2021.0</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="57">
         <v>37.0</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="57">
         <v>240.0</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="57">
         <v>478.0</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="57">
         <v>1353.0</v>
       </c>
-      <c r="K14" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="L14" s="47">
+      <c r="K14" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="L14" s="52">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M14" s="54">
         <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="M14" s="48">
+        <v>230</v>
+      </c>
+      <c r="N14" s="55">
+        <f t="shared" si="3"/>
+        <v>429</v>
+      </c>
+      <c r="O14" s="53">
         <f t="shared" si="4"/>
-        <v>241</v>
-      </c>
-      <c r="N14" s="49">
-        <f t="shared" ref="N14:O14" si="15">(I14-I30)+1</f>
-        <v>479</v>
-      </c>
-      <c r="O14" s="50">
-        <f t="shared" si="15"/>
-        <v>1354</v>
-      </c>
-      <c r="P14" s="46"/>
+        <v>1224</v>
+      </c>
+      <c r="P14" s="47"/>
     </row>
     <row r="15">
-      <c r="A15" s="53">
+      <c r="A15" s="58">
         <v>2022.0</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="58">
         <v>114.0</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="58">
         <v>839.0</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="58">
         <v>2051.0</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="58">
         <v>7030.0</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="58">
         <v>2022.0</v>
       </c>
-      <c r="G15" s="53">
-        <f t="shared" ref="G15:J15" si="16">B15-B14</f>
+      <c r="G15" s="58">
+        <f t="shared" ref="G15:J15" si="5">B15-B14</f>
         <v>39</v>
       </c>
-      <c r="H15" s="53">
-        <f t="shared" si="16"/>
+      <c r="H15" s="58">
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="I15" s="53">
-        <f t="shared" si="16"/>
+      <c r="I15" s="58">
+        <f t="shared" si="5"/>
         <v>554</v>
       </c>
-      <c r="J15" s="53">
-        <f t="shared" si="16"/>
+      <c r="J15" s="58">
+        <f t="shared" si="5"/>
         <v>1815</v>
       </c>
-      <c r="K15" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="L15" s="47">
+      <c r="K15" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="L15" s="52">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="M15" s="54">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M15" s="48">
+        <v>260</v>
+      </c>
+      <c r="N15" s="55">
+        <f t="shared" si="3"/>
+        <v>505</v>
+      </c>
+      <c r="O15" s="53">
         <f t="shared" si="4"/>
-        <v>271</v>
-      </c>
-      <c r="N15" s="49">
-        <f t="shared" ref="N15:O15" si="17">(I15-I31)+1</f>
-        <v>555</v>
-      </c>
-      <c r="O15" s="50">
-        <f t="shared" si="17"/>
-        <v>1816</v>
-      </c>
-      <c r="P15" s="46"/>
+        <v>1686</v>
+      </c>
+      <c r="P15" s="47"/>
     </row>
     <row r="16">
       <c r="A16" s="45">
@@ -8206,142 +8353,144 @@
       <c r="F16" s="45">
         <v>2023.0</v>
       </c>
-      <c r="G16" s="54">
-        <f t="shared" ref="G16:J16" si="18">B16-B15</f>
+      <c r="G16" s="59">
+        <f t="shared" ref="G16:J16" si="6">B16-B15</f>
         <v>32</v>
       </c>
-      <c r="H16" s="54">
-        <f t="shared" si="18"/>
+      <c r="H16" s="59">
+        <f t="shared" si="6"/>
         <v>167</v>
       </c>
-      <c r="I16" s="54">
-        <f t="shared" si="18"/>
+      <c r="I16" s="59">
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
-      <c r="J16" s="54">
-        <f t="shared" si="18"/>
+      <c r="J16" s="59">
+        <f t="shared" si="6"/>
         <v>1519</v>
       </c>
-      <c r="K16" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="L16" s="47">
+      <c r="K16" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="L16" s="52">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="M16" s="54">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="M16" s="48">
+        <v>157</v>
+      </c>
+      <c r="N16" s="55">
+        <f t="shared" si="3"/>
+        <v>371</v>
+      </c>
+      <c r="O16" s="53">
         <f t="shared" si="4"/>
-        <v>168</v>
-      </c>
-      <c r="N16" s="49">
-        <f t="shared" ref="N16:O16" si="19">(I16-I32)+1</f>
-        <v>421</v>
-      </c>
-      <c r="O16" s="50">
-        <f t="shared" si="19"/>
-        <v>1520</v>
-      </c>
-      <c r="P16" s="46"/>
+        <v>1390</v>
+      </c>
+      <c r="P16" s="47"/>
     </row>
     <row r="17">
-      <c r="A17" s="55">
+      <c r="A17" s="60">
         <v>2024.0</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="60">
         <v>183.0</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="60">
         <v>1166.0</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="60">
         <v>2828.0</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="60">
         <v>9653.0</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="60">
         <v>2024.0</v>
       </c>
-      <c r="G17" s="50">
-        <f t="shared" ref="G17:J17" si="20">B17-B16</f>
+      <c r="G17" s="53">
+        <f t="shared" ref="G17:J17" si="7">B17-B16</f>
         <v>37</v>
       </c>
-      <c r="H17" s="50">
-        <f t="shared" si="20"/>
+      <c r="H17" s="53">
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
-      <c r="I17" s="50">
-        <f t="shared" si="20"/>
+      <c r="I17" s="53">
+        <f t="shared" si="7"/>
         <v>357</v>
       </c>
-      <c r="J17" s="50">
-        <f t="shared" si="20"/>
+      <c r="J17" s="53">
+        <f t="shared" si="7"/>
         <v>1104</v>
       </c>
-      <c r="K17" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="L17" s="47">
+      <c r="K17" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="L17" s="52">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M17" s="54">
         <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="M17" s="48">
+        <v>150</v>
+      </c>
+      <c r="N17" s="55">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+      <c r="O17" s="53">
         <f t="shared" si="4"/>
-        <v>161</v>
-      </c>
-      <c r="N17" s="49">
-        <f t="shared" ref="N17:O17" si="21">(I17-I33)+1</f>
-        <v>358</v>
-      </c>
-      <c r="O17" s="50">
-        <f t="shared" si="21"/>
-        <v>1105</v>
-      </c>
-      <c r="P17" s="46"/>
+        <v>975</v>
+      </c>
+      <c r="P17" s="47"/>
     </row>
     <row r="18">
       <c r="A18" s="45">
         <v>2025.0</v>
       </c>
       <c r="B18" s="45">
-        <v>183.0</v>
+        <v>184.0</v>
       </c>
       <c r="C18" s="45">
-        <v>1166.0</v>
+        <v>1177.0</v>
       </c>
       <c r="D18" s="45">
-        <v>2828.0</v>
+        <v>2878.0</v>
       </c>
       <c r="E18" s="45">
-        <v>9653.0</v>
-      </c>
-      <c r="F18" s="45">
+        <v>9783.0</v>
+      </c>
+      <c r="F18" s="61">
         <v>2025.0</v>
       </c>
-      <c r="G18" s="54">
-        <f t="shared" ref="G18:J18" si="22">B18-B17</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="54">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="54">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="54">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="46"/>
+      <c r="G18" s="62">
+        <f t="shared" ref="G18:J18" si="8">B18-B17</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="62">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="I18" s="62">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="62">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="47" t="s">
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8371,2643 +8520,2635 @@
         <v>8</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="41" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="41" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="41" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="41" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="41" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="41" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="41" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="41" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="41" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="41" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="41" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="41" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="41" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="41" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="41" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="41" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="41" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="41" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="41" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="41" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="41" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="41" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="41" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="41" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="41" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="41" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="41" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="41" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="41" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="41" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="41" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="41" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="41" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="41" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="41" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="41" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="41" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="41" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="41" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="41" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="41" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="41" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="41" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="41" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="41" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="57"/>
-      <c r="B50" s="57"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
     </row>
     <row r="51">
-      <c r="A51" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="B51" s="58" t="s">
-        <v>413</v>
+      <c r="A51" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="58" t="s">
-        <v>414</v>
-      </c>
-      <c r="B52" s="58" t="s">
-        <v>415</v>
+      <c r="A52" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="58" t="s">
-        <v>416</v>
-      </c>
-      <c r="B53" s="58" t="s">
-        <v>417</v>
+      <c r="A53" s="65" t="s">
+        <v>418</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="58" t="s">
-        <v>418</v>
-      </c>
-      <c r="B54" s="58" t="s">
-        <v>419</v>
+      <c r="A54" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="B54" s="65" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="58" t="s">
-        <v>420</v>
-      </c>
-      <c r="B55" s="58" t="s">
-        <v>421</v>
+      <c r="A55" s="65" t="s">
+        <v>422</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="58" t="s">
-        <v>422</v>
-      </c>
-      <c r="B56" s="58" t="s">
-        <v>423</v>
+      <c r="A56" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="58" t="s">
-        <v>424</v>
-      </c>
-      <c r="B57" s="58" t="s">
-        <v>425</v>
+      <c r="A57" s="65" t="s">
+        <v>426</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="58" t="s">
-        <v>426</v>
-      </c>
-      <c r="B58" s="58" t="s">
-        <v>427</v>
+      <c r="A58" s="65" t="s">
+        <v>428</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="B59" s="58" t="s">
-        <v>429</v>
+      <c r="A59" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="B59" s="65" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="B60" s="58" t="s">
-        <v>431</v>
+      <c r="A60" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="58" t="s">
-        <v>432</v>
-      </c>
-      <c r="B61" s="58" t="s">
-        <v>433</v>
+      <c r="A61" s="65" t="s">
+        <v>434</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="58" t="s">
-        <v>434</v>
-      </c>
-      <c r="B62" s="58" t="s">
-        <v>435</v>
+      <c r="A62" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="B62" s="65" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="58" t="s">
-        <v>436</v>
-      </c>
-      <c r="B63" s="58" t="s">
-        <v>437</v>
+      <c r="A63" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="58" t="s">
-        <v>438</v>
-      </c>
-      <c r="B64" s="58" t="s">
-        <v>439</v>
+      <c r="A64" s="65" t="s">
+        <v>440</v>
+      </c>
+      <c r="B64" s="65" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="58" t="s">
-        <v>440</v>
-      </c>
-      <c r="B65" s="58" t="s">
-        <v>441</v>
+      <c r="A65" s="65" t="s">
+        <v>442</v>
+      </c>
+      <c r="B65" s="65" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="58" t="s">
-        <v>442</v>
-      </c>
-      <c r="B66" s="58" t="s">
-        <v>443</v>
+      <c r="A66" s="65" t="s">
+        <v>444</v>
+      </c>
+      <c r="B66" s="65" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="58" t="s">
-        <v>444</v>
-      </c>
-      <c r="B67" s="58" t="s">
-        <v>445</v>
+      <c r="A67" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="B67" s="65" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="58" t="s">
-        <v>446</v>
-      </c>
-      <c r="B68" s="58" t="s">
-        <v>447</v>
+      <c r="A68" s="65" t="s">
+        <v>448</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="B69" s="58" t="s">
-        <v>449</v>
+      <c r="A69" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="B69" s="65" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="58" t="s">
-        <v>450</v>
-      </c>
-      <c r="B70" s="58" t="s">
-        <v>451</v>
+      <c r="A70" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="B70" s="65" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="58" t="s">
-        <v>452</v>
-      </c>
-      <c r="B71" s="58" t="s">
-        <v>453</v>
+      <c r="A71" s="65" t="s">
+        <v>454</v>
+      </c>
+      <c r="B71" s="65" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="57"/>
-      <c r="B72" s="57"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="64"/>
     </row>
     <row r="73">
       <c r="A73" s="43" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="43" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="43" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="43" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="43" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="43" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="43" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="43" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="43" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="43" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="43" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="43" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="43" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="43" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="43" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="43" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="43" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="43" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="43" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="43" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="43" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="43" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="43" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="43" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="43" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="43" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="43" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="43" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="43" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="43" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="43" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="43" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="43" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="43" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="43" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="43" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="43" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="43" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="43" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="57"/>
-      <c r="B112" s="57"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
     </row>
     <row r="113">
-      <c r="A113" s="59" t="s">
-        <v>532</v>
-      </c>
-      <c r="B113" s="59" t="s">
-        <v>533</v>
+      <c r="A113" s="66" t="s">
+        <v>534</v>
+      </c>
+      <c r="B113" s="66" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="59" t="s">
-        <v>534</v>
-      </c>
-      <c r="B114" s="59" t="s">
-        <v>535</v>
+      <c r="A114" s="66" t="s">
+        <v>536</v>
+      </c>
+      <c r="B114" s="66" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="59" t="s">
-        <v>536</v>
-      </c>
-      <c r="B115" s="59" t="s">
-        <v>537</v>
+      <c r="A115" s="66" t="s">
+        <v>538</v>
+      </c>
+      <c r="B115" s="66" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="B116" s="59" t="s">
-        <v>539</v>
+      <c r="A116" s="66" t="s">
+        <v>540</v>
+      </c>
+      <c r="B116" s="66" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="59" t="s">
-        <v>540</v>
-      </c>
-      <c r="B117" s="59" t="s">
-        <v>541</v>
+      <c r="A117" s="66" t="s">
+        <v>542</v>
+      </c>
+      <c r="B117" s="66" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="59" t="s">
-        <v>542</v>
-      </c>
-      <c r="B118" s="59" t="s">
-        <v>543</v>
+      <c r="A118" s="66" t="s">
+        <v>544</v>
+      </c>
+      <c r="B118" s="66" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="59" t="s">
-        <v>544</v>
-      </c>
-      <c r="B119" s="59" t="s">
-        <v>545</v>
+      <c r="A119" s="66" t="s">
+        <v>546</v>
+      </c>
+      <c r="B119" s="66" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="59" t="s">
-        <v>546</v>
-      </c>
-      <c r="B120" s="59" t="s">
-        <v>547</v>
+      <c r="A120" s="66" t="s">
+        <v>548</v>
+      </c>
+      <c r="B120" s="66" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="59" t="s">
-        <v>548</v>
-      </c>
-      <c r="B121" s="59" t="s">
-        <v>549</v>
+      <c r="A121" s="66" t="s">
+        <v>550</v>
+      </c>
+      <c r="B121" s="66" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="59" t="s">
-        <v>550</v>
-      </c>
-      <c r="B122" s="59" t="s">
-        <v>551</v>
+      <c r="A122" s="66" t="s">
+        <v>552</v>
+      </c>
+      <c r="B122" s="66" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="59" t="s">
-        <v>552</v>
-      </c>
-      <c r="B123" s="59" t="s">
-        <v>553</v>
+      <c r="A123" s="66" t="s">
+        <v>554</v>
+      </c>
+      <c r="B123" s="66" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="59" t="s">
-        <v>554</v>
-      </c>
-      <c r="B124" s="59" t="s">
-        <v>555</v>
+      <c r="A124" s="66" t="s">
+        <v>556</v>
+      </c>
+      <c r="B124" s="66" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="59" t="s">
-        <v>556</v>
-      </c>
-      <c r="B125" s="59" t="s">
-        <v>557</v>
+      <c r="A125" s="66" t="s">
+        <v>558</v>
+      </c>
+      <c r="B125" s="66" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="59" t="s">
-        <v>558</v>
-      </c>
-      <c r="B126" s="59" t="s">
-        <v>559</v>
+      <c r="A126" s="66" t="s">
+        <v>560</v>
+      </c>
+      <c r="B126" s="66" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="59" t="s">
-        <v>560</v>
-      </c>
-      <c r="B127" s="59" t="s">
-        <v>561</v>
+      <c r="A127" s="66" t="s">
+        <v>562</v>
+      </c>
+      <c r="B127" s="66" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="59" t="s">
-        <v>562</v>
-      </c>
-      <c r="B128" s="59" t="s">
-        <v>563</v>
+      <c r="A128" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="B128" s="66" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="59" t="s">
-        <v>564</v>
-      </c>
-      <c r="B129" s="59" t="s">
-        <v>565</v>
+      <c r="A129" s="66" t="s">
+        <v>566</v>
+      </c>
+      <c r="B129" s="66" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="59" t="s">
-        <v>566</v>
-      </c>
-      <c r="B130" s="59" t="s">
+      <c r="A130" s="66" t="s">
+        <v>568</v>
+      </c>
+      <c r="B130" s="66" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="66" t="s">
+        <v>570</v>
+      </c>
+      <c r="B131" s="66" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="66" t="s">
+        <v>572</v>
+      </c>
+      <c r="B132" s="66" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="66" t="s">
+        <v>574</v>
+      </c>
+      <c r="B133" s="66" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="66" t="s">
+        <v>576</v>
+      </c>
+      <c r="B134" s="66" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="66" t="s">
+        <v>578</v>
+      </c>
+      <c r="B135" s="66" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="66" t="s">
+        <v>580</v>
+      </c>
+      <c r="B136" s="66" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="66" t="s">
+        <v>582</v>
+      </c>
+      <c r="B137" s="66" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="66" t="s">
+        <v>584</v>
+      </c>
+      <c r="B138" s="66" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="66" t="s">
+        <v>586</v>
+      </c>
+      <c r="B139" s="66" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="66" t="s">
+        <v>588</v>
+      </c>
+      <c r="B140" s="66" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="66" t="s">
+        <v>590</v>
+      </c>
+      <c r="B141" s="66" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="66" t="s">
+        <v>592</v>
+      </c>
+      <c r="B142" s="66" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="66" t="s">
+        <v>594</v>
+      </c>
+      <c r="B143" s="66" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="66" t="s">
+        <v>596</v>
+      </c>
+      <c r="B144" s="66" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="66" t="s">
+        <v>598</v>
+      </c>
+      <c r="B145" s="66" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="66" t="s">
+        <v>600</v>
+      </c>
+      <c r="B146" s="66" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="66" t="s">
+        <v>602</v>
+      </c>
+      <c r="B147" s="66" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="66" t="s">
+        <v>604</v>
+      </c>
+      <c r="B148" s="66" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="59" t="s">
-        <v>568</v>
-      </c>
-      <c r="B131" s="59" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="59" t="s">
-        <v>570</v>
-      </c>
-      <c r="B132" s="59" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="59" t="s">
-        <v>572</v>
-      </c>
-      <c r="B133" s="59" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="59" t="s">
-        <v>574</v>
-      </c>
-      <c r="B134" s="59" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="59" t="s">
-        <v>576</v>
-      </c>
-      <c r="B135" s="59" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="59" t="s">
-        <v>578</v>
-      </c>
-      <c r="B136" s="59" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="59" t="s">
-        <v>580</v>
-      </c>
-      <c r="B137" s="59" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="59" t="s">
-        <v>582</v>
-      </c>
-      <c r="B138" s="59" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="59" t="s">
-        <v>584</v>
-      </c>
-      <c r="B139" s="59" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="59" t="s">
-        <v>586</v>
-      </c>
-      <c r="B140" s="59" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="59" t="s">
-        <v>588</v>
-      </c>
-      <c r="B141" s="59" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="59" t="s">
-        <v>590</v>
-      </c>
-      <c r="B142" s="59" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="59" t="s">
-        <v>592</v>
-      </c>
-      <c r="B143" s="59" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="59" t="s">
-        <v>594</v>
-      </c>
-      <c r="B144" s="59" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="59" t="s">
-        <v>596</v>
-      </c>
-      <c r="B145" s="59" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="59" t="s">
-        <v>598</v>
-      </c>
-      <c r="B146" s="59" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="59" t="s">
-        <v>600</v>
-      </c>
-      <c r="B147" s="59" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="59" t="s">
-        <v>602</v>
-      </c>
-      <c r="B148" s="59" t="s">
-        <v>565</v>
-      </c>
-    </row>
     <row r="149">
-      <c r="A149" s="59" t="s">
-        <v>603</v>
-      </c>
-      <c r="B149" s="59" t="s">
-        <v>604</v>
+      <c r="A149" s="66" t="s">
+        <v>605</v>
+      </c>
+      <c r="B149" s="66" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="59" t="s">
-        <v>605</v>
-      </c>
-      <c r="B150" s="59" t="s">
-        <v>606</v>
+      <c r="A150" s="66" t="s">
+        <v>607</v>
+      </c>
+      <c r="B150" s="66" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="59" t="s">
-        <v>607</v>
-      </c>
-      <c r="B151" s="59" t="s">
-        <v>608</v>
+      <c r="A151" s="66" t="s">
+        <v>609</v>
+      </c>
+      <c r="B151" s="66" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="59" t="s">
-        <v>609</v>
-      </c>
-      <c r="B152" s="59" t="s">
-        <v>610</v>
+      <c r="A152" s="66" t="s">
+        <v>611</v>
+      </c>
+      <c r="B152" s="66" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="57"/>
-      <c r="B153" s="57"/>
+      <c r="A153" s="64"/>
+      <c r="B153" s="64"/>
     </row>
     <row r="154">
-      <c r="A154" s="60" t="s">
-        <v>611</v>
-      </c>
-      <c r="B154" s="60" t="s">
-        <v>612</v>
+      <c r="A154" s="67" t="s">
+        <v>613</v>
+      </c>
+      <c r="B154" s="67" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="60" t="s">
-        <v>613</v>
-      </c>
-      <c r="B155" s="60" t="s">
-        <v>614</v>
+      <c r="A155" s="67" t="s">
+        <v>615</v>
+      </c>
+      <c r="B155" s="67" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="60" t="s">
-        <v>615</v>
-      </c>
-      <c r="B156" s="60" t="s">
-        <v>616</v>
+      <c r="A156" s="67" t="s">
+        <v>617</v>
+      </c>
+      <c r="B156" s="67" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="60" t="s">
-        <v>617</v>
-      </c>
-      <c r="B157" s="60" t="s">
-        <v>618</v>
+      <c r="A157" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="B157" s="67" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="60" t="s">
-        <v>619</v>
-      </c>
-      <c r="B158" s="60" t="s">
-        <v>620</v>
+      <c r="A158" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="B158" s="67" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="60" t="s">
-        <v>621</v>
-      </c>
-      <c r="B159" s="60" t="s">
-        <v>622</v>
+      <c r="A159" s="67" t="s">
+        <v>623</v>
+      </c>
+      <c r="B159" s="67" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="60" t="s">
-        <v>623</v>
-      </c>
-      <c r="B160" s="60" t="s">
-        <v>624</v>
+      <c r="A160" s="67" t="s">
+        <v>625</v>
+      </c>
+      <c r="B160" s="67" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="60" t="s">
-        <v>625</v>
-      </c>
-      <c r="B161" s="60" t="s">
-        <v>626</v>
+      <c r="A161" s="67" t="s">
+        <v>627</v>
+      </c>
+      <c r="B161" s="67" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="60" t="s">
-        <v>627</v>
-      </c>
-      <c r="B162" s="60" t="s">
-        <v>628</v>
+      <c r="A162" s="67" t="s">
+        <v>629</v>
+      </c>
+      <c r="B162" s="67" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="60" t="s">
-        <v>629</v>
-      </c>
-      <c r="B163" s="60" t="s">
-        <v>630</v>
+      <c r="A163" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="B163" s="67" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="60" t="s">
-        <v>631</v>
-      </c>
-      <c r="B164" s="60" t="s">
-        <v>632</v>
+      <c r="A164" s="67" t="s">
+        <v>633</v>
+      </c>
+      <c r="B164" s="67" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="B165" s="60" t="s">
-        <v>634</v>
+      <c r="A165" s="67" t="s">
+        <v>635</v>
+      </c>
+      <c r="B165" s="67" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="60" t="s">
-        <v>635</v>
-      </c>
-      <c r="B166" s="60" t="s">
-        <v>636</v>
+      <c r="A166" s="67" t="s">
+        <v>637</v>
+      </c>
+      <c r="B166" s="67" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="60" t="s">
-        <v>637</v>
-      </c>
-      <c r="B167" s="60" t="s">
-        <v>638</v>
+      <c r="A167" s="67" t="s">
+        <v>639</v>
+      </c>
+      <c r="B167" s="67" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="60" t="s">
-        <v>639</v>
-      </c>
-      <c r="B168" s="60" t="s">
-        <v>640</v>
+      <c r="A168" s="67" t="s">
+        <v>641</v>
+      </c>
+      <c r="B168" s="67" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="60" t="s">
-        <v>641</v>
-      </c>
-      <c r="B169" s="60" t="s">
+      <c r="A169" s="67" t="s">
+        <v>643</v>
+      </c>
+      <c r="B169" s="67" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="67" t="s">
+        <v>645</v>
+      </c>
+      <c r="B170" s="67" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="67" t="s">
+        <v>647</v>
+      </c>
+      <c r="B171" s="67" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="67" t="s">
+        <v>649</v>
+      </c>
+      <c r="B172" s="67" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="67" t="s">
+        <v>651</v>
+      </c>
+      <c r="B173" s="67" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="67" t="s">
+        <v>653</v>
+      </c>
+      <c r="B174" s="67" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="60" t="s">
-        <v>643</v>
-      </c>
-      <c r="B170" s="60" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="60" t="s">
-        <v>645</v>
-      </c>
-      <c r="B171" s="60" t="s">
+    <row r="175">
+      <c r="A175" s="67" t="s">
+        <v>654</v>
+      </c>
+      <c r="B175" s="67" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="67" t="s">
+        <v>656</v>
+      </c>
+      <c r="B176" s="67" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="67" t="s">
+        <v>658</v>
+      </c>
+      <c r="B177" s="67" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="67" t="s">
+        <v>660</v>
+      </c>
+      <c r="B178" s="67" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="67" t="s">
+        <v>662</v>
+      </c>
+      <c r="B179" s="67" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="B180" s="67" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="67" t="s">
+        <v>665</v>
+      </c>
+      <c r="B181" s="67" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="67" t="s">
+        <v>667</v>
+      </c>
+      <c r="B182" s="67" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="67" t="s">
+        <v>669</v>
+      </c>
+      <c r="B183" s="67" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="67" t="s">
+        <v>671</v>
+      </c>
+      <c r="B184" s="67" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="67" t="s">
+        <v>672</v>
+      </c>
+      <c r="B185" s="67" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="60" t="s">
-        <v>647</v>
-      </c>
-      <c r="B172" s="60" t="s">
+    <row r="186">
+      <c r="A186" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="B186" s="67" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="67" t="s">
+        <v>674</v>
+      </c>
+      <c r="B187" s="67" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="67" t="s">
+        <v>676</v>
+      </c>
+      <c r="B188" s="67" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="B189" s="67" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="67" t="s">
+        <v>680</v>
+      </c>
+      <c r="B190" s="67" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="67" t="s">
+        <v>681</v>
+      </c>
+      <c r="B191" s="67" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="67" t="s">
+        <v>683</v>
+      </c>
+      <c r="B192" s="67" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="B193" s="67" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="67" t="s">
+        <v>687</v>
+      </c>
+      <c r="B194" s="67" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="67" t="s">
+        <v>689</v>
+      </c>
+      <c r="B195" s="67" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="67" t="s">
+        <v>691</v>
+      </c>
+      <c r="B196" s="67" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="B197" s="67" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="67" t="s">
+        <v>695</v>
+      </c>
+      <c r="B198" s="67" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="67" t="s">
+        <v>697</v>
+      </c>
+      <c r="B199" s="67" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="67" t="s">
+        <v>699</v>
+      </c>
+      <c r="B200" s="67" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="67" t="s">
+        <v>701</v>
+      </c>
+      <c r="B201" s="67" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="67" t="s">
+        <v>703</v>
+      </c>
+      <c r="B202" s="67" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="67" t="s">
+        <v>705</v>
+      </c>
+      <c r="B203" s="67" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="67" t="s">
+        <v>707</v>
+      </c>
+      <c r="B204" s="67" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="67" t="s">
+        <v>708</v>
+      </c>
+      <c r="B205" s="67" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="67" t="s">
+        <v>710</v>
+      </c>
+      <c r="B206" s="67" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="67" t="s">
+        <v>712</v>
+      </c>
+      <c r="B207" s="67" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="67" t="s">
+        <v>714</v>
+      </c>
+      <c r="B208" s="67" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="67" t="s">
+        <v>716</v>
+      </c>
+      <c r="B209" s="67" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="67" t="s">
+        <v>717</v>
+      </c>
+      <c r="B210" s="67" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="67" t="s">
+        <v>719</v>
+      </c>
+      <c r="B211" s="67" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="67" t="s">
+        <v>720</v>
+      </c>
+      <c r="B212" s="67" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="67" t="s">
+        <v>722</v>
+      </c>
+      <c r="B213" s="67" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="67" t="s">
+        <v>724</v>
+      </c>
+      <c r="B214" s="67" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="B215" s="67" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="67" t="s">
+        <v>728</v>
+      </c>
+      <c r="B216" s="67" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="67" t="s">
+        <v>729</v>
+      </c>
+      <c r="B217" s="67" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="67" t="s">
+        <v>731</v>
+      </c>
+      <c r="B218" s="67" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="67" t="s">
+        <v>733</v>
+      </c>
+      <c r="B219" s="67" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="67" t="s">
+        <v>735</v>
+      </c>
+      <c r="B220" s="67" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="67" t="s">
+        <v>736</v>
+      </c>
+      <c r="B221" s="67" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="67" t="s">
+        <v>738</v>
+      </c>
+      <c r="B222" s="67" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="67" t="s">
+        <v>739</v>
+      </c>
+      <c r="B223" s="67" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="67" t="s">
+        <v>740</v>
+      </c>
+      <c r="B224" s="67" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="67" t="s">
+        <v>742</v>
+      </c>
+      <c r="B225" s="67" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="67" t="s">
+        <v>744</v>
+      </c>
+      <c r="B226" s="67" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="67" t="s">
+        <v>746</v>
+      </c>
+      <c r="B227" s="67" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="67" t="s">
+        <v>748</v>
+      </c>
+      <c r="B228" s="67" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="60" t="s">
-        <v>649</v>
-      </c>
-      <c r="B173" s="60" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="60" t="s">
-        <v>651</v>
-      </c>
-      <c r="B174" s="60" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="60" t="s">
-        <v>652</v>
-      </c>
-      <c r="B175" s="60" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="60" t="s">
-        <v>654</v>
-      </c>
-      <c r="B176" s="60" t="s">
+    <row r="229">
+      <c r="A229" s="67" t="s">
+        <v>749</v>
+      </c>
+      <c r="B229" s="67" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="67" t="s">
+        <v>751</v>
+      </c>
+      <c r="B230" s="67" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="67" t="s">
+        <v>753</v>
+      </c>
+      <c r="B231" s="67" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="67" t="s">
+        <v>755</v>
+      </c>
+      <c r="B232" s="67" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="B233" s="67" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="67" t="s">
+        <v>758</v>
+      </c>
+      <c r="B234" s="67" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="67" t="s">
+        <v>759</v>
+      </c>
+      <c r="B235" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="67" t="s">
+        <v>761</v>
+      </c>
+      <c r="B236" s="67" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="67" t="s">
+        <v>763</v>
+      </c>
+      <c r="B237" s="67" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="60" t="s">
-        <v>656</v>
-      </c>
-      <c r="B177" s="60" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="60" t="s">
-        <v>658</v>
-      </c>
-      <c r="B178" s="60" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="60" t="s">
-        <v>660</v>
-      </c>
-      <c r="B179" s="60" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="60" t="s">
-        <v>662</v>
-      </c>
-      <c r="B180" s="60" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="60" t="s">
-        <v>663</v>
-      </c>
-      <c r="B181" s="60" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="60" t="s">
-        <v>665</v>
-      </c>
-      <c r="B182" s="60" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="60" t="s">
-        <v>667</v>
-      </c>
-      <c r="B183" s="60" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="60" t="s">
-        <v>669</v>
-      </c>
-      <c r="B184" s="60" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="60" t="s">
-        <v>670</v>
-      </c>
-      <c r="B185" s="60" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="60" t="s">
-        <v>671</v>
-      </c>
-      <c r="B186" s="60" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="60" t="s">
-        <v>672</v>
-      </c>
-      <c r="B187" s="60" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="60" t="s">
-        <v>674</v>
-      </c>
-      <c r="B188" s="60" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="60" t="s">
-        <v>676</v>
-      </c>
-      <c r="B189" s="60" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="60" t="s">
-        <v>678</v>
-      </c>
-      <c r="B190" s="60" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="60" t="s">
-        <v>679</v>
-      </c>
-      <c r="B191" s="60" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="60" t="s">
-        <v>681</v>
-      </c>
-      <c r="B192" s="60" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="60" t="s">
-        <v>683</v>
-      </c>
-      <c r="B193" s="60" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="60" t="s">
-        <v>685</v>
-      </c>
-      <c r="B194" s="60" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="60" t="s">
-        <v>687</v>
-      </c>
-      <c r="B195" s="60" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="60" t="s">
-        <v>689</v>
-      </c>
-      <c r="B196" s="60" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="60" t="s">
-        <v>691</v>
-      </c>
-      <c r="B197" s="60" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="60" t="s">
-        <v>693</v>
-      </c>
-      <c r="B198" s="60" t="s">
+    <row r="238">
+      <c r="A238" s="67" t="s">
+        <v>764</v>
+      </c>
+      <c r="B238" s="67" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="67" t="s">
+        <v>766</v>
+      </c>
+      <c r="B239" s="67" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="67" t="s">
+        <v>768</v>
+      </c>
+      <c r="B240" s="67" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="67" t="s">
+        <v>770</v>
+      </c>
+      <c r="B241" s="67" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="67" t="s">
+        <v>772</v>
+      </c>
+      <c r="B242" s="67" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="67" t="s">
+        <v>773</v>
+      </c>
+      <c r="B243" s="67" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="67" t="s">
+        <v>775</v>
+      </c>
+      <c r="B244" s="67" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="67" t="s">
+        <v>776</v>
+      </c>
+      <c r="B245" s="67" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="67" t="s">
+        <v>778</v>
+      </c>
+      <c r="B246" s="67" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="67" t="s">
+        <v>780</v>
+      </c>
+      <c r="B247" s="67" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="B248" s="67" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="B249" s="67" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="60" t="s">
-        <v>695</v>
-      </c>
-      <c r="B199" s="60" t="s">
+    <row r="250">
+      <c r="A250" s="67" t="s">
+        <v>785</v>
+      </c>
+      <c r="B250" s="67" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="60" t="s">
-        <v>697</v>
-      </c>
-      <c r="B200" s="60" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="60" t="s">
-        <v>699</v>
-      </c>
-      <c r="B201" s="60" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="60" t="s">
-        <v>701</v>
-      </c>
-      <c r="B202" s="60" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="60" t="s">
-        <v>703</v>
-      </c>
-      <c r="B203" s="60" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="60" t="s">
-        <v>705</v>
-      </c>
-      <c r="B204" s="60" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="60" t="s">
+    <row r="251">
+      <c r="A251" s="67" t="s">
+        <v>786</v>
+      </c>
+      <c r="B251" s="67" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="67" t="s">
+        <v>788</v>
+      </c>
+      <c r="B252" s="67" t="s">
         <v>706</v>
       </c>
-      <c r="B205" s="60" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="60" t="s">
-        <v>708</v>
-      </c>
-      <c r="B206" s="60" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="60" t="s">
-        <v>710</v>
-      </c>
-      <c r="B207" s="60" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="60" t="s">
-        <v>712</v>
-      </c>
-      <c r="B208" s="60" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="60" t="s">
-        <v>714</v>
-      </c>
-      <c r="B209" s="60" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="60" t="s">
-        <v>715</v>
-      </c>
-      <c r="B210" s="60" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="60" t="s">
-        <v>717</v>
-      </c>
-      <c r="B211" s="60" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="60" t="s">
-        <v>718</v>
-      </c>
-      <c r="B212" s="60" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="60" t="s">
-        <v>720</v>
-      </c>
-      <c r="B213" s="60" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="60" t="s">
-        <v>722</v>
-      </c>
-      <c r="B214" s="60" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="60" t="s">
-        <v>724</v>
-      </c>
-      <c r="B215" s="60" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="60" t="s">
-        <v>726</v>
-      </c>
-      <c r="B216" s="60" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="60" t="s">
-        <v>727</v>
-      </c>
-      <c r="B217" s="60" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="60" t="s">
-        <v>729</v>
-      </c>
-      <c r="B218" s="60" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="60" t="s">
-        <v>731</v>
-      </c>
-      <c r="B219" s="60" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="60" t="s">
-        <v>733</v>
-      </c>
-      <c r="B220" s="60" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="60" t="s">
-        <v>734</v>
-      </c>
-      <c r="B221" s="60" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="60" t="s">
-        <v>736</v>
-      </c>
-      <c r="B222" s="60" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="60" t="s">
-        <v>737</v>
-      </c>
-      <c r="B223" s="60" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="60" t="s">
-        <v>738</v>
-      </c>
-      <c r="B224" s="60" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="60" t="s">
-        <v>740</v>
-      </c>
-      <c r="B225" s="60" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="60" t="s">
-        <v>742</v>
-      </c>
-      <c r="B226" s="60" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="60" t="s">
-        <v>744</v>
-      </c>
-      <c r="B227" s="60" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="60" t="s">
-        <v>746</v>
-      </c>
-      <c r="B228" s="60" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="60" t="s">
-        <v>747</v>
-      </c>
-      <c r="B229" s="60" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="60" t="s">
-        <v>749</v>
-      </c>
-      <c r="B230" s="60" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="60" t="s">
-        <v>751</v>
-      </c>
-      <c r="B231" s="60" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="60" t="s">
-        <v>753</v>
-      </c>
-      <c r="B232" s="60" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="60" t="s">
-        <v>755</v>
-      </c>
-      <c r="B233" s="60" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="60" t="s">
-        <v>756</v>
-      </c>
-      <c r="B234" s="60" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="60" t="s">
-        <v>757</v>
-      </c>
-      <c r="B235" s="60" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="B236" s="60" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="60" t="s">
-        <v>761</v>
-      </c>
-      <c r="B237" s="60" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="60" t="s">
-        <v>762</v>
-      </c>
-      <c r="B238" s="60" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="60" t="s">
-        <v>764</v>
-      </c>
-      <c r="B239" s="60" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="B240" s="60" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="60" t="s">
-        <v>768</v>
-      </c>
-      <c r="B241" s="60" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="60" t="s">
-        <v>770</v>
-      </c>
-      <c r="B242" s="60" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="60" t="s">
-        <v>771</v>
-      </c>
-      <c r="B243" s="60" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="60" t="s">
-        <v>773</v>
-      </c>
-      <c r="B244" s="60" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="60" t="s">
-        <v>774</v>
-      </c>
-      <c r="B245" s="60" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="60" t="s">
-        <v>776</v>
-      </c>
-      <c r="B246" s="60" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="60" t="s">
-        <v>778</v>
-      </c>
-      <c r="B247" s="60" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="60" t="s">
-        <v>780</v>
-      </c>
-      <c r="B248" s="60" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="60" t="s">
-        <v>782</v>
-      </c>
-      <c r="B249" s="60" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="60" t="s">
-        <v>783</v>
-      </c>
-      <c r="B250" s="60" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="60" t="s">
-        <v>784</v>
-      </c>
-      <c r="B251" s="60" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="60" t="s">
-        <v>786</v>
-      </c>
-      <c r="B252" s="60" t="s">
-        <v>704</v>
-      </c>
     </row>
     <row r="253">
-      <c r="A253" s="61"/>
-      <c r="B253" s="57"/>
+      <c r="A253" s="68"/>
+      <c r="B253" s="64"/>
     </row>
     <row r="254">
-      <c r="A254" s="62" t="s">
-        <v>787</v>
-      </c>
-      <c r="B254" s="62" t="s">
-        <v>788</v>
+      <c r="A254" s="69" t="s">
+        <v>789</v>
+      </c>
+      <c r="B254" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="62" t="s">
-        <v>789</v>
-      </c>
-      <c r="B255" s="62" t="s">
-        <v>788</v>
+      <c r="A255" s="69" t="s">
+        <v>791</v>
+      </c>
+      <c r="B255" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="62" t="s">
+      <c r="A256" s="69" t="s">
+        <v>792</v>
+      </c>
+      <c r="B256" s="69" t="s">
         <v>790</v>
       </c>
-      <c r="B256" s="62" t="s">
-        <v>788</v>
-      </c>
     </row>
     <row r="257">
-      <c r="A257" s="62" t="s">
-        <v>791</v>
-      </c>
-      <c r="B257" s="62" t="s">
-        <v>788</v>
+      <c r="A257" s="69" t="s">
+        <v>793</v>
+      </c>
+      <c r="B257" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="62" t="s">
-        <v>792</v>
-      </c>
-      <c r="B258" s="62" t="s">
-        <v>788</v>
+      <c r="A258" s="69" t="s">
+        <v>794</v>
+      </c>
+      <c r="B258" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="62" t="s">
-        <v>793</v>
-      </c>
-      <c r="B259" s="62" t="s">
-        <v>788</v>
+      <c r="A259" s="69" t="s">
+        <v>795</v>
+      </c>
+      <c r="B259" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="62" t="s">
-        <v>794</v>
-      </c>
-      <c r="B260" s="62" t="s">
-        <v>788</v>
+      <c r="A260" s="69" t="s">
+        <v>796</v>
+      </c>
+      <c r="B260" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="62" t="s">
-        <v>795</v>
-      </c>
-      <c r="B261" s="62" t="s">
-        <v>788</v>
+      <c r="A261" s="69" t="s">
+        <v>797</v>
+      </c>
+      <c r="B261" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="62" t="s">
-        <v>796</v>
-      </c>
-      <c r="B262" s="62" t="s">
-        <v>788</v>
+      <c r="A262" s="69" t="s">
+        <v>798</v>
+      </c>
+      <c r="B262" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="62" t="s">
-        <v>797</v>
-      </c>
-      <c r="B263" s="62" t="s">
-        <v>788</v>
+      <c r="A263" s="69" t="s">
+        <v>799</v>
+      </c>
+      <c r="B263" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="62" t="s">
-        <v>798</v>
-      </c>
-      <c r="B264" s="62" t="s">
-        <v>788</v>
+      <c r="A264" s="69" t="s">
+        <v>800</v>
+      </c>
+      <c r="B264" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="62" t="s">
-        <v>799</v>
-      </c>
-      <c r="B265" s="62" t="s">
-        <v>788</v>
+      <c r="A265" s="69" t="s">
+        <v>801</v>
+      </c>
+      <c r="B265" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="62" t="s">
-        <v>800</v>
-      </c>
-      <c r="B266" s="62" t="s">
-        <v>788</v>
+      <c r="A266" s="69" t="s">
+        <v>802</v>
+      </c>
+      <c r="B266" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="62" t="s">
-        <v>801</v>
-      </c>
-      <c r="B267" s="62" t="s">
-        <v>788</v>
+      <c r="A267" s="69" t="s">
+        <v>803</v>
+      </c>
+      <c r="B267" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="62" t="s">
-        <v>802</v>
-      </c>
-      <c r="B268" s="62" t="s">
-        <v>788</v>
+      <c r="A268" s="69" t="s">
+        <v>804</v>
+      </c>
+      <c r="B268" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="62" t="s">
-        <v>803</v>
-      </c>
-      <c r="B269" s="62" t="s">
-        <v>788</v>
+      <c r="A269" s="69" t="s">
+        <v>805</v>
+      </c>
+      <c r="B269" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="62" t="s">
-        <v>804</v>
-      </c>
-      <c r="B270" s="62" t="s">
-        <v>788</v>
+      <c r="A270" s="69" t="s">
+        <v>806</v>
+      </c>
+      <c r="B270" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="62" t="s">
-        <v>805</v>
-      </c>
-      <c r="B271" s="62" t="s">
-        <v>788</v>
+      <c r="A271" s="69" t="s">
+        <v>807</v>
+      </c>
+      <c r="B271" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="62" t="s">
-        <v>806</v>
-      </c>
-      <c r="B272" s="62" t="s">
-        <v>788</v>
+      <c r="A272" s="69" t="s">
+        <v>808</v>
+      </c>
+      <c r="B272" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="62" t="s">
-        <v>807</v>
-      </c>
-      <c r="B273" s="62" t="s">
-        <v>788</v>
+      <c r="A273" s="69" t="s">
+        <v>809</v>
+      </c>
+      <c r="B273" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="62" t="s">
-        <v>808</v>
-      </c>
-      <c r="B274" s="62" t="s">
-        <v>788</v>
+      <c r="A274" s="69" t="s">
+        <v>810</v>
+      </c>
+      <c r="B274" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="62" t="s">
-        <v>809</v>
-      </c>
-      <c r="B275" s="62" t="s">
-        <v>788</v>
+      <c r="A275" s="69" t="s">
+        <v>811</v>
+      </c>
+      <c r="B275" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="62" t="s">
-        <v>810</v>
-      </c>
-      <c r="B276" s="62" t="s">
-        <v>788</v>
+      <c r="A276" s="69" t="s">
+        <v>812</v>
+      </c>
+      <c r="B276" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="62" t="s">
-        <v>811</v>
-      </c>
-      <c r="B277" s="62" t="s">
-        <v>788</v>
+      <c r="A277" s="69" t="s">
+        <v>813</v>
+      </c>
+      <c r="B277" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="62" t="s">
-        <v>812</v>
-      </c>
-      <c r="B278" s="62" t="s">
-        <v>788</v>
+      <c r="A278" s="69" t="s">
+        <v>814</v>
+      </c>
+      <c r="B278" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="62" t="s">
-        <v>813</v>
-      </c>
-      <c r="B279" s="62" t="s">
-        <v>788</v>
+      <c r="A279" s="69" t="s">
+        <v>815</v>
+      </c>
+      <c r="B279" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="62" t="s">
-        <v>814</v>
-      </c>
-      <c r="B280" s="62" t="s">
-        <v>788</v>
+      <c r="A280" s="69" t="s">
+        <v>816</v>
+      </c>
+      <c r="B280" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="62" t="s">
-        <v>815</v>
-      </c>
-      <c r="B281" s="62" t="s">
-        <v>788</v>
+      <c r="A281" s="69" t="s">
+        <v>817</v>
+      </c>
+      <c r="B281" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="62" t="s">
-        <v>816</v>
-      </c>
-      <c r="B282" s="62" t="s">
-        <v>788</v>
+      <c r="A282" s="69" t="s">
+        <v>818</v>
+      </c>
+      <c r="B282" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="62" t="s">
-        <v>817</v>
-      </c>
-      <c r="B283" s="62" t="s">
-        <v>788</v>
+      <c r="A283" s="69" t="s">
+        <v>819</v>
+      </c>
+      <c r="B283" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="62" t="s">
-        <v>818</v>
-      </c>
-      <c r="B284" s="62" t="s">
-        <v>788</v>
+      <c r="A284" s="69" t="s">
+        <v>820</v>
+      </c>
+      <c r="B284" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="62" t="s">
-        <v>819</v>
-      </c>
-      <c r="B285" s="62" t="s">
-        <v>788</v>
+      <c r="A285" s="69" t="s">
+        <v>821</v>
+      </c>
+      <c r="B285" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="62" t="s">
-        <v>820</v>
-      </c>
-      <c r="B286" s="62" t="s">
-        <v>788</v>
+      <c r="A286" s="69" t="s">
+        <v>822</v>
+      </c>
+      <c r="B286" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="62" t="s">
-        <v>821</v>
-      </c>
-      <c r="B287" s="62" t="s">
-        <v>788</v>
+      <c r="A287" s="69" t="s">
+        <v>823</v>
+      </c>
+      <c r="B287" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="62" t="s">
-        <v>822</v>
-      </c>
-      <c r="B288" s="62" t="s">
-        <v>788</v>
+      <c r="A288" s="69" t="s">
+        <v>824</v>
+      </c>
+      <c r="B288" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="62" t="s">
-        <v>823</v>
-      </c>
-      <c r="B289" s="62" t="s">
-        <v>788</v>
+      <c r="A289" s="69" t="s">
+        <v>825</v>
+      </c>
+      <c r="B289" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="62" t="s">
-        <v>824</v>
-      </c>
-      <c r="B290" s="62" t="s">
-        <v>788</v>
+      <c r="A290" s="69" t="s">
+        <v>826</v>
+      </c>
+      <c r="B290" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="62" t="s">
-        <v>825</v>
-      </c>
-      <c r="B291" s="62" t="s">
-        <v>788</v>
+      <c r="A291" s="69" t="s">
+        <v>827</v>
+      </c>
+      <c r="B291" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="62" t="s">
-        <v>826</v>
-      </c>
-      <c r="B292" s="62" t="s">
-        <v>788</v>
+      <c r="A292" s="69" t="s">
+        <v>828</v>
+      </c>
+      <c r="B292" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="B293" s="62" t="s">
-        <v>788</v>
+      <c r="A293" s="69" t="s">
+        <v>829</v>
+      </c>
+      <c r="B293" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="62" t="s">
-        <v>828</v>
-      </c>
-      <c r="B294" s="62" t="s">
-        <v>788</v>
+      <c r="A294" s="69" t="s">
+        <v>830</v>
+      </c>
+      <c r="B294" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="62" t="s">
-        <v>829</v>
-      </c>
-      <c r="B295" s="62" t="s">
-        <v>788</v>
+      <c r="A295" s="69" t="s">
+        <v>831</v>
+      </c>
+      <c r="B295" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="62" t="s">
-        <v>830</v>
-      </c>
-      <c r="B296" s="62" t="s">
-        <v>788</v>
+      <c r="A296" s="69" t="s">
+        <v>832</v>
+      </c>
+      <c r="B296" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="62" t="s">
-        <v>831</v>
-      </c>
-      <c r="B297" s="62" t="s">
-        <v>788</v>
+      <c r="A297" s="69" t="s">
+        <v>833</v>
+      </c>
+      <c r="B297" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="62" t="s">
-        <v>832</v>
-      </c>
-      <c r="B298" s="62" t="s">
-        <v>788</v>
+      <c r="A298" s="69" t="s">
+        <v>834</v>
+      </c>
+      <c r="B298" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="B299" s="62" t="s">
-        <v>788</v>
+      <c r="A299" s="69" t="s">
+        <v>835</v>
+      </c>
+      <c r="B299" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="62" t="s">
-        <v>834</v>
-      </c>
-      <c r="B300" s="62" t="s">
-        <v>788</v>
+      <c r="A300" s="69" t="s">
+        <v>836</v>
+      </c>
+      <c r="B300" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="62" t="s">
-        <v>835</v>
-      </c>
-      <c r="B301" s="62" t="s">
-        <v>788</v>
+      <c r="A301" s="69" t="s">
+        <v>837</v>
+      </c>
+      <c r="B301" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="62" t="s">
-        <v>836</v>
-      </c>
-      <c r="B302" s="62" t="s">
-        <v>788</v>
+      <c r="A302" s="69" t="s">
+        <v>838</v>
+      </c>
+      <c r="B302" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="62" t="s">
-        <v>837</v>
-      </c>
-      <c r="B303" s="62" t="s">
-        <v>788</v>
+      <c r="A303" s="69" t="s">
+        <v>839</v>
+      </c>
+      <c r="B303" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="62" t="s">
-        <v>838</v>
-      </c>
-      <c r="B304" s="62" t="s">
-        <v>788</v>
+      <c r="A304" s="69" t="s">
+        <v>840</v>
+      </c>
+      <c r="B304" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="62" t="s">
-        <v>839</v>
-      </c>
-      <c r="B305" s="62" t="s">
-        <v>788</v>
+      <c r="A305" s="69" t="s">
+        <v>841</v>
+      </c>
+      <c r="B305" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="62" t="s">
-        <v>840</v>
-      </c>
-      <c r="B306" s="62" t="s">
-        <v>788</v>
+      <c r="A306" s="69" t="s">
+        <v>842</v>
+      </c>
+      <c r="B306" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="62" t="s">
-        <v>841</v>
-      </c>
-      <c r="B307" s="62" t="s">
-        <v>788</v>
+      <c r="A307" s="69" t="s">
+        <v>843</v>
+      </c>
+      <c r="B307" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="62" t="s">
-        <v>842</v>
-      </c>
-      <c r="B308" s="62" t="s">
-        <v>788</v>
+      <c r="A308" s="69" t="s">
+        <v>844</v>
+      </c>
+      <c r="B308" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="62" t="s">
-        <v>843</v>
-      </c>
-      <c r="B309" s="62" t="s">
-        <v>788</v>
+      <c r="A309" s="69" t="s">
+        <v>845</v>
+      </c>
+      <c r="B309" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="62" t="s">
-        <v>844</v>
-      </c>
-      <c r="B310" s="62" t="s">
-        <v>788</v>
+      <c r="A310" s="69" t="s">
+        <v>846</v>
+      </c>
+      <c r="B310" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="62" t="s">
-        <v>845</v>
-      </c>
-      <c r="B311" s="62" t="s">
-        <v>788</v>
+      <c r="A311" s="69" t="s">
+        <v>847</v>
+      </c>
+      <c r="B311" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="62" t="s">
-        <v>846</v>
-      </c>
-      <c r="B312" s="62" t="s">
-        <v>788</v>
+      <c r="A312" s="69" t="s">
+        <v>848</v>
+      </c>
+      <c r="B312" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="62" t="s">
-        <v>847</v>
-      </c>
-      <c r="B313" s="62" t="s">
-        <v>788</v>
+      <c r="A313" s="69" t="s">
+        <v>849</v>
+      </c>
+      <c r="B313" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="62" t="s">
-        <v>848</v>
-      </c>
-      <c r="B314" s="62" t="s">
-        <v>788</v>
+      <c r="A314" s="69" t="s">
+        <v>850</v>
+      </c>
+      <c r="B314" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="62" t="s">
-        <v>849</v>
-      </c>
-      <c r="B315" s="62" t="s">
-        <v>788</v>
+      <c r="A315" s="69" t="s">
+        <v>851</v>
+      </c>
+      <c r="B315" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="62" t="s">
-        <v>850</v>
-      </c>
-      <c r="B316" s="62" t="s">
-        <v>788</v>
+      <c r="A316" s="69" t="s">
+        <v>852</v>
+      </c>
+      <c r="B316" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="62" t="s">
-        <v>851</v>
-      </c>
-      <c r="B317" s="62" t="s">
-        <v>788</v>
+      <c r="A317" s="69" t="s">
+        <v>853</v>
+      </c>
+      <c r="B317" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="62" t="s">
-        <v>852</v>
-      </c>
-      <c r="B318" s="62" t="s">
-        <v>788</v>
+      <c r="A318" s="69" t="s">
+        <v>854</v>
+      </c>
+      <c r="B318" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="62" t="s">
-        <v>853</v>
-      </c>
-      <c r="B319" s="62" t="s">
-        <v>788</v>
+      <c r="A319" s="69" t="s">
+        <v>855</v>
+      </c>
+      <c r="B319" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="62" t="s">
-        <v>854</v>
-      </c>
-      <c r="B320" s="62" t="s">
-        <v>788</v>
+      <c r="A320" s="69" t="s">
+        <v>856</v>
+      </c>
+      <c r="B320" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="62" t="s">
-        <v>855</v>
-      </c>
-      <c r="B321" s="62" t="s">
-        <v>788</v>
+      <c r="A321" s="69" t="s">
+        <v>857</v>
+      </c>
+      <c r="B321" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="62" t="s">
-        <v>856</v>
-      </c>
-      <c r="B322" s="62" t="s">
-        <v>788</v>
+      <c r="A322" s="69" t="s">
+        <v>858</v>
+      </c>
+      <c r="B322" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="62" t="s">
-        <v>857</v>
-      </c>
-      <c r="B323" s="62" t="s">
-        <v>788</v>
+      <c r="A323" s="69" t="s">
+        <v>859</v>
+      </c>
+      <c r="B323" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="62" t="s">
-        <v>858</v>
-      </c>
-      <c r="B324" s="62" t="s">
-        <v>788</v>
+      <c r="A324" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="B324" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="62" t="s">
-        <v>859</v>
-      </c>
-      <c r="B325" s="62" t="s">
-        <v>788</v>
+      <c r="A325" s="69" t="s">
+        <v>861</v>
+      </c>
+      <c r="B325" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="62" t="s">
-        <v>860</v>
-      </c>
-      <c r="B326" s="62" t="s">
-        <v>788</v>
+      <c r="A326" s="69" t="s">
+        <v>862</v>
+      </c>
+      <c r="B326" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="62" t="s">
-        <v>861</v>
-      </c>
-      <c r="B327" s="62" t="s">
-        <v>788</v>
+      <c r="A327" s="69" t="s">
+        <v>863</v>
+      </c>
+      <c r="B327" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="62" t="s">
-        <v>862</v>
-      </c>
-      <c r="B328" s="62" t="s">
-        <v>788</v>
+      <c r="A328" s="69" t="s">
+        <v>864</v>
+      </c>
+      <c r="B328" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="62" t="s">
-        <v>863</v>
-      </c>
-      <c r="B329" s="62" t="s">
-        <v>788</v>
+      <c r="A329" s="69" t="s">
+        <v>865</v>
+      </c>
+      <c r="B329" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="62" t="s">
-        <v>864</v>
-      </c>
-      <c r="B330" s="62" t="s">
-        <v>788</v>
+      <c r="A330" s="69" t="s">
+        <v>866</v>
+      </c>
+      <c r="B330" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="62" t="s">
-        <v>865</v>
-      </c>
-      <c r="B331" s="62" t="s">
-        <v>788</v>
+      <c r="A331" s="69" t="s">
+        <v>867</v>
+      </c>
+      <c r="B331" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="62" t="s">
-        <v>866</v>
-      </c>
-      <c r="B332" s="62" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="62" t="s">
-        <v>867</v>
-      </c>
-      <c r="B333" s="62" t="s">
-        <v>788</v>
+      <c r="A332" s="69" t="s">
+        <v>868</v>
+      </c>
+      <c r="B332" s="69" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>

--- a/playstation/output/platinums & trophies.xlsx
+++ b/playstation/output/platinums & trophies.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="2025-04-30" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="2025-05-31" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="platinums" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="trophies" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="grades" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">platinums!$A$1:$E$192</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">grades!$A$1:$B$325</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">platinums!$A$1:$E$196</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">grades!$A$1:$B$324</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="888">
   <si>
     <t>Tasks</t>
   </si>
@@ -52,963 +52,981 @@
     <t>Rarity</t>
   </si>
   <si>
+    <t>Medievil 2</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>Trophies</t>
+  </si>
+  <si>
+    <t>SELECT * FROM trophies ORDER BY id ASC</t>
+  </si>
+  <si>
+    <t>SELECT * FROM trophies WHERE year = '2025'</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>Jak and Daxter: The Precursor Legacy</t>
+  </si>
+  <si>
+    <t>PS3</t>
+  </si>
+  <si>
+    <t>16/12/2012</t>
+  </si>
+  <si>
+    <t>VITA</t>
+  </si>
+  <si>
+    <t>14/11/2015</t>
+  </si>
+  <si>
+    <t>The Walking Dead: Season 1 TTG</t>
+  </si>
+  <si>
+    <t>29/12/2015</t>
+  </si>
+  <si>
+    <t>PS4</t>
+  </si>
+  <si>
+    <t>21/10/2016</t>
+  </si>
+  <si>
+    <t>Batman: Season 1 TTG</t>
+  </si>
+  <si>
+    <t>28/03/2017</t>
+  </si>
+  <si>
+    <t>Game of Thrones TTG</t>
+  </si>
+  <si>
+    <t>13/10/2017</t>
+  </si>
+  <si>
+    <t>23/01/2018</t>
+  </si>
+  <si>
+    <t>Tales from the Borderlands TTG</t>
+  </si>
+  <si>
+    <t>Bully: Canis Canem Edit</t>
+  </si>
+  <si>
+    <t>24/08/2018</t>
+  </si>
+  <si>
+    <t>Rocket League</t>
+  </si>
+  <si>
+    <t>Spyro the Dragon</t>
+  </si>
+  <si>
+    <t>14/11/2018</t>
+  </si>
+  <si>
+    <t>Spyro 3: Year of the Dragon</t>
+  </si>
+  <si>
+    <t>19/11/2018</t>
+  </si>
+  <si>
+    <t>Spyro 2: Gateway to Glimmer</t>
+  </si>
+  <si>
+    <t>Marvel's Spider-Man</t>
+  </si>
+  <si>
+    <t>14/01/2019</t>
+  </si>
+  <si>
+    <t>Apocalypse Rider</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Shooty Fruity</t>
+  </si>
+  <si>
+    <t>15/07/2020</t>
+  </si>
+  <si>
+    <t>Syrup and the Ultimate Sweet</t>
+  </si>
+  <si>
+    <t>17/07/2020</t>
+  </si>
+  <si>
+    <t>Batman: Season 2 TTG</t>
+  </si>
+  <si>
+    <t>21/07/2020</t>
+  </si>
+  <si>
+    <t>Saints Row: The Third Remastered</t>
+  </si>
+  <si>
+    <t>Destroy All Humans! (Original)</t>
+  </si>
+  <si>
+    <t>Destroy All Humans! (Remake)</t>
+  </si>
+  <si>
+    <t>Destroy All Humans! 2</t>
+  </si>
+  <si>
+    <t>Lovers in a Dangerous Spacetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inFamous </t>
+  </si>
+  <si>
+    <t>29/09/2020</t>
+  </si>
+  <si>
+    <t>inFamous 2</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot 3: Warped</t>
+  </si>
+  <si>
+    <t>South Park: The Fractured But Whole</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot 2: Cortex Strikes Back</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank: A Crack in Time</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot</t>
+  </si>
+  <si>
+    <t>23/10/2020</t>
+  </si>
+  <si>
+    <t>Family Guy: Back to the Multiverse</t>
+  </si>
+  <si>
+    <t>Crash Team Racing: Nitro Fueled</t>
+  </si>
+  <si>
+    <t>25/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MediEvil </t>
+  </si>
+  <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank (2016)</t>
+  </si>
+  <si>
+    <t>31/10/2020</t>
+  </si>
+  <si>
+    <t>Oddworld: New 'n' Tasty</t>
+  </si>
+  <si>
+    <t>Borderlands 3</t>
+  </si>
+  <si>
+    <t>15/11/2020</t>
+  </si>
+  <si>
+    <t>Ghost of Tsushima</t>
+  </si>
+  <si>
+    <t>Star Wars Episode I: Racer</t>
+  </si>
+  <si>
+    <t>24/12/2020</t>
+  </si>
+  <si>
+    <t>ASTRO BOT: RESCUE MISSION</t>
+  </si>
+  <si>
+    <t>Ratchet and Clank: Nexus</t>
+  </si>
+  <si>
+    <t>13/02/2021</t>
+  </si>
+  <si>
+    <t>Ratchet: Gladiator</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto: San Andreas</t>
+  </si>
+  <si>
+    <t>ASTRO'S PLAYROOM</t>
+  </si>
+  <si>
+    <t>PS5</t>
+  </si>
+  <si>
+    <t>17/05/2021</t>
+  </si>
+  <si>
+    <t>One Escape</t>
+  </si>
+  <si>
+    <t>19/05/2021</t>
+  </si>
+  <si>
+    <t>Maneater</t>
+  </si>
+  <si>
+    <t>31/05/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugsnax </t>
+  </si>
+  <si>
+    <t>Concept Destruction</t>
+  </si>
+  <si>
+    <t>Sir Lovelot</t>
+  </si>
+  <si>
+    <t>Wreckfest</t>
+  </si>
+  <si>
+    <t>Evil Inside</t>
+  </si>
+  <si>
+    <t>24/06/2021</t>
+  </si>
+  <si>
+    <t>Concrete Genie</t>
+  </si>
+  <si>
+    <t>28/06/2021</t>
+  </si>
+  <si>
+    <t>Days Gone</t>
+  </si>
+  <si>
+    <t>Manual Samuel</t>
+  </si>
+  <si>
+    <t>Donut County</t>
+  </si>
+  <si>
+    <t>Saints Row IV: Re-Elected</t>
+  </si>
+  <si>
+    <t>18/07/2021</t>
+  </si>
+  <si>
+    <t>Marvel's Guardians of the Galaxy TTG</t>
+  </si>
+  <si>
+    <t>God of War (2018)</t>
+  </si>
+  <si>
+    <t>29/07/2021</t>
+  </si>
+  <si>
+    <t>Psychonauts</t>
+  </si>
+  <si>
+    <t>Sumatra: Fate of Yandi</t>
+  </si>
+  <si>
+    <t>19/08/2021</t>
+  </si>
+  <si>
+    <t>Accounting+</t>
+  </si>
+  <si>
+    <t>29/08/2021</t>
+  </si>
+  <si>
+    <t>Putty Squad</t>
+  </si>
+  <si>
+    <t>Supermarket Shriek</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants: Battle for Bikini Bottom: Rehydrated</t>
+  </si>
+  <si>
+    <t>Shing!</t>
+  </si>
+  <si>
+    <t>Trover Saves The Universe</t>
+  </si>
+  <si>
+    <t>Twin Robots: Ultimate Edition</t>
+  </si>
+  <si>
+    <t>27/09/2021</t>
+  </si>
+  <si>
+    <t>F1 2021</t>
+  </si>
+  <si>
+    <t>30/09/2021</t>
+  </si>
+  <si>
+    <t>Infliction: Extended Cut</t>
+  </si>
+  <si>
+    <t>Until Dawn</t>
+  </si>
+  <si>
+    <t>Psychonauts 2</t>
+  </si>
+  <si>
+    <t>26/11/2021</t>
+  </si>
+  <si>
+    <t>Jak X</t>
+  </si>
+  <si>
+    <t>13/12/2021</t>
+  </si>
+  <si>
+    <t>Ovivo</t>
+  </si>
+  <si>
+    <t>14/12/2021</t>
+  </si>
+  <si>
+    <t>Ratchet and Clank 2</t>
+  </si>
+  <si>
+    <t>21/12/2021</t>
+  </si>
+  <si>
+    <t>Ratchet and Clank 3</t>
+  </si>
+  <si>
+    <t>25/12/2021</t>
+  </si>
+  <si>
+    <t>Ratchet and Clank: Rift Apart</t>
+  </si>
+  <si>
+    <t>29/12/2021</t>
+  </si>
+  <si>
+    <t>Beat Cop</t>
+  </si>
+  <si>
+    <t>Deeeer Simulator</t>
+  </si>
+  <si>
+    <t>Kandagawa Jet Girls</t>
+  </si>
+  <si>
+    <t>21/03/2022</t>
+  </si>
+  <si>
+    <t>Cyberpunk 2077</t>
+  </si>
+  <si>
+    <t>Cloudpunk</t>
+  </si>
+  <si>
+    <t>Absolute Drift: Zen Edition</t>
+  </si>
+  <si>
+    <t>20/04/2022</t>
+  </si>
+  <si>
+    <t>In Rays of the Light</t>
+  </si>
+  <si>
+    <t>22/04/2022</t>
+  </si>
+  <si>
+    <t>The Guy VR</t>
+  </si>
+  <si>
+    <t>27/04/2022</t>
+  </si>
+  <si>
+    <t>Art of Rally</t>
+  </si>
+  <si>
+    <t>Leisure Suit Larry - Wet Dreams Don't Dry</t>
+  </si>
+  <si>
+    <t>25/05/2022</t>
+  </si>
+  <si>
+    <t>Leisure Suit Larry - Wet Dreams Dry Twice</t>
+  </si>
+  <si>
+    <t>29/05/2022</t>
+  </si>
+  <si>
+    <t>Ghostwire: Tokyo</t>
+  </si>
+  <si>
+    <t>Need for Speed: Shift</t>
+  </si>
+  <si>
+    <t>15/06/2022</t>
+  </si>
+  <si>
+    <t>Sly Cooper and the Thievius Raccoonus</t>
+  </si>
+  <si>
+    <t>Sly Cooper 2: Band of Thieves</t>
+  </si>
+  <si>
+    <t>Sly Cooper 3: Honour Among Thieves</t>
+  </si>
+  <si>
+    <t>Sonic Origins</t>
+  </si>
+  <si>
+    <t>20/09/2022</t>
+  </si>
+  <si>
+    <t>TOEM</t>
+  </si>
+  <si>
+    <t>25/09/2022</t>
+  </si>
+  <si>
+    <t>Night Book</t>
+  </si>
+  <si>
+    <t>Jazzpunk</t>
+  </si>
+  <si>
+    <t>The Walking Dead: Season 3 TTG</t>
+  </si>
+  <si>
+    <t>The Walking Dead: The Final Season TTG</t>
+  </si>
+  <si>
+    <t>16/10/2022</t>
+  </si>
+  <si>
+    <t>The Darkside Detective</t>
+  </si>
+  <si>
+    <t>20/10/2022</t>
+  </si>
+  <si>
+    <t>The Wolf Among Us</t>
+  </si>
+  <si>
+    <t>Oxenfree</t>
+  </si>
+  <si>
+    <t>24/10/2022</t>
+  </si>
+  <si>
+    <t>LEGO Batman 2: DC Super Heroes</t>
+  </si>
+  <si>
+    <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>Rayman Origins</t>
+  </si>
+  <si>
+    <t>Biomutant</t>
+  </si>
+  <si>
+    <t>18/11/2022</t>
+  </si>
+  <si>
+    <t>Hot Wheels Unleashed</t>
+  </si>
+  <si>
+    <t>23/11/2022</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>24/11/2022</t>
+  </si>
+  <si>
+    <t>Marvel's Spider-Man: Miles Morales</t>
+  </si>
+  <si>
+    <t>27/11/2022</t>
+  </si>
+  <si>
+    <t>Cult of the Lamb</t>
+  </si>
+  <si>
+    <t>Knack</t>
+  </si>
+  <si>
+    <t>Ratchet and Clank (2002)</t>
+  </si>
+  <si>
+    <t>Knack II</t>
+  </si>
+  <si>
+    <t>Stray</t>
+  </si>
+  <si>
+    <t>Klonoa Phantasy Reverie Series</t>
+  </si>
+  <si>
+    <t>Color Slayer</t>
+  </si>
+  <si>
+    <t>17/12/2022</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>19/12/2022</t>
+  </si>
+  <si>
+    <t>Potion Permit</t>
+  </si>
+  <si>
+    <t>Horizon Zero Dawn</t>
+  </si>
+  <si>
+    <t>13/01/2023</t>
+  </si>
+  <si>
+    <t>Pic-a-Pix Color</t>
+  </si>
+  <si>
+    <t>26/01/2023</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>31/01/2023</t>
+  </si>
+  <si>
+    <t>PlayStation Vita Pets</t>
+  </si>
+  <si>
+    <t>Hogwarts Legacy</t>
+  </si>
+  <si>
+    <t>22/02/2023</t>
+  </si>
+  <si>
+    <t>Uncharted: Golden Abyss</t>
+  </si>
+  <si>
+    <t>22/03/2023</t>
+  </si>
+  <si>
+    <t>26/03/2023</t>
+  </si>
+  <si>
+    <t>30/03/2023</t>
+  </si>
+  <si>
+    <t>Spy Hunter</t>
+  </si>
+  <si>
+    <t>27/04/2023</t>
+  </si>
+  <si>
+    <t>The Amazing Spider-Man</t>
+  </si>
+  <si>
+    <t>19/06/2023</t>
+  </si>
+  <si>
+    <t>The Darkness II</t>
+  </si>
+  <si>
+    <t>PlayStation Move Heroes</t>
+  </si>
+  <si>
+    <t>20/07/2023</t>
+  </si>
+  <si>
+    <t>Uncharted: Drake's Fortune: Remastered</t>
+  </si>
+  <si>
+    <t>Uncharted 2: Among Thieves: Remastered</t>
+  </si>
+  <si>
+    <t>Uncharted 3: Drake's Deception: Remastered</t>
+  </si>
+  <si>
+    <t>The American Dream</t>
+  </si>
+  <si>
+    <t>13/08/2023</t>
+  </si>
+  <si>
+    <t>inFamous Second Son</t>
+  </si>
+  <si>
+    <t>21/08/2023</t>
+  </si>
+  <si>
+    <t>inFamous First Light</t>
+  </si>
+  <si>
+    <t>22/08/2023</t>
+  </si>
+  <si>
+    <t>Dark Cloud</t>
+  </si>
+  <si>
+    <t>Sleeping Dogs: Definitive Edition</t>
+  </si>
+  <si>
+    <t>30/09/2023</t>
+  </si>
+  <si>
+    <t>Marvel's Spider-Man 2</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>Turnip Boy Commits Tax Evasion</t>
+  </si>
+  <si>
+    <t>31/10/2023</t>
+  </si>
+  <si>
+    <t>GRID Legends</t>
+  </si>
+  <si>
+    <t>16/11/2023</t>
+  </si>
+  <si>
+    <t>Saints Row (2022)</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>Run Sausage Run!</t>
+  </si>
+  <si>
+    <t>27/11/2023</t>
+  </si>
+  <si>
+    <t>PowerWash Simulator</t>
+  </si>
+  <si>
+    <t>14/12/2023</t>
+  </si>
+  <si>
+    <t>Like a Dragon Gaiden: The Man Who Erased His Name</t>
+  </si>
+  <si>
+    <t>Bud Spencer &amp; Terence Hill - Slaps And Beans</t>
+  </si>
+  <si>
+    <t>Riptide GP: Renegade</t>
+  </si>
+  <si>
+    <t>15/01/2024</t>
+  </si>
+  <si>
+    <t>Far Cry New Dawn</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>Like a Dragon: Infinite Wealth</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>SpongeBob SquarePants: The Cosmic Shake</t>
+  </si>
+  <si>
+    <t>19/02/2024</t>
+  </si>
+  <si>
+    <t>Borderlands</t>
+  </si>
+  <si>
+    <t>26/02/2024</t>
+  </si>
+  <si>
+    <t>RoboCop: Rogue City</t>
+  </si>
+  <si>
+    <t>Spirit of the North: Enhanced Edition</t>
+  </si>
+  <si>
+    <t>19/03/2024</t>
+  </si>
+  <si>
+    <t>Going Under</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>Far Cry Primal</t>
+  </si>
+  <si>
+    <t>22/04/2024</t>
+  </si>
+  <si>
+    <t>A Plague Tale: Innocence</t>
+  </si>
+  <si>
+    <t>28/04/2024</t>
+  </si>
+  <si>
+    <t>Rustler</t>
+  </si>
+  <si>
+    <t>Coffee Talk</t>
+  </si>
+  <si>
+    <t>Daxter</t>
+  </si>
+  <si>
+    <t>PSP</t>
+  </si>
+  <si>
+    <t>Medievil (1998)</t>
+  </si>
+  <si>
+    <t>Jumping Flash</t>
+  </si>
+  <si>
+    <t>Toy Story 2</t>
+  </si>
+  <si>
+    <t>Rayman Legends</t>
+  </si>
+  <si>
+    <t>18/07/2024</t>
+  </si>
+  <si>
+    <t>Nobody Saves the World</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>Dead Island 2</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank: Size Matters</t>
+  </si>
+  <si>
+    <t>18/08/2024</t>
+  </si>
+  <si>
+    <t>Astro Bot</t>
+  </si>
+  <si>
+    <t>Yakuza 0</t>
+  </si>
+  <si>
+    <t>17/10/2024</t>
+  </si>
+  <si>
+    <t>Yakuza Kiwami</t>
+  </si>
+  <si>
+    <t>Squirrel with a Gun</t>
+  </si>
+  <si>
+    <t>Yakuza Kiwami 2</t>
+  </si>
+  <si>
+    <t>20/11/2024</t>
+  </si>
+  <si>
+    <t>Parcel Corps</t>
+  </si>
+  <si>
+    <t>27/11/2024</t>
+  </si>
+  <si>
+    <t>LA Cops</t>
+  </si>
+  <si>
+    <t>28/11/2024</t>
+  </si>
+  <si>
+    <t>Hot Wheels Unleashed 2 - Turbocharged</t>
+  </si>
+  <si>
+    <t>30/11/2024</t>
+  </si>
+  <si>
+    <t>Horizon Forbidden West</t>
+  </si>
+  <si>
+    <t>Watch_Dogs</t>
+  </si>
+  <si>
+    <t>Watch_Dogs 2</t>
+  </si>
+  <si>
+    <t>Watch Dogs Legion</t>
+  </si>
+  <si>
+    <t>15/12/2024</t>
+  </si>
+  <si>
+    <t>Uncharted: The Lost Legacy</t>
+  </si>
+  <si>
+    <t>24/12/2024</t>
+  </si>
+  <si>
+    <t>South Park: Snow Day</t>
+  </si>
+  <si>
+    <t>27/12/2024</t>
+  </si>
+  <si>
+    <t>TY the Tasmanian Tiger</t>
+  </si>
+  <si>
+    <t>PS2</t>
+  </si>
+  <si>
+    <t>28/12/2024</t>
+  </si>
+  <si>
+    <t>Saints Row: The Third</t>
+  </si>
+  <si>
+    <t>14/01/2025</t>
+  </si>
+  <si>
+    <t>Like a Dragon: Pirate Yakuza in Hawaii</t>
+  </si>
+  <si>
+    <t>Tekken 8</t>
+  </si>
+  <si>
+    <t>26/03/2025</t>
+  </si>
+  <si>
+    <t>Headliner: NoviNews</t>
+  </si>
+  <si>
+    <t>Dungeon Munchies</t>
+  </si>
+  <si>
+    <t>Tails of Iron</t>
+  </si>
+  <si>
+    <t>Total Arcade Racing</t>
+  </si>
+  <si>
+    <t>14/04/2025</t>
+  </si>
+  <si>
     <t>Judgment</t>
   </si>
   <si>
-    <t>PS4</t>
-  </si>
-  <si>
     <t>21/04/2025</t>
   </si>
   <si>
-    <t>Trophies</t>
-  </si>
-  <si>
-    <t>SELECT * FROM trophies ORDER BY id ASC</t>
-  </si>
-  <si>
-    <t>SELECT * FROM trophies WHERE year = '2025'</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Bronze</t>
-  </si>
-  <si>
-    <t>Rank</t>
+    <t>Grindstone</t>
+  </si>
+  <si>
+    <t>13/05/2025</t>
+  </si>
+  <si>
+    <t>Just Crow Things</t>
+  </si>
+  <si>
+    <t>28/05/2025</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>16th</t>
+  </si>
+  <si>
+    <t>17th</t>
+  </si>
+  <si>
+    <t>14th</t>
+  </si>
+  <si>
+    <t>15th</t>
+  </si>
+  <si>
+    <t>12th</t>
+  </si>
+  <si>
+    <t>13th</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>11th</t>
   </si>
   <si>
     <t>9th</t>
   </si>
   <si>
-    <t>Jak and Daxter: The Precursor Legacy</t>
-  </si>
-  <si>
-    <t>PS3</t>
-  </si>
-  <si>
-    <t>16/12/2012</t>
-  </si>
-  <si>
-    <t>VITA</t>
-  </si>
-  <si>
-    <t>14/11/2015</t>
-  </si>
-  <si>
-    <t>The Walking Dead: Season 1 TTG</t>
-  </si>
-  <si>
-    <t>29/12/2015</t>
-  </si>
-  <si>
-    <t>21/10/2016</t>
-  </si>
-  <si>
-    <t>Batman: Season 1 TTG</t>
-  </si>
-  <si>
-    <t>28/03/2017</t>
-  </si>
-  <si>
-    <t>Game of Thrones TTG</t>
-  </si>
-  <si>
-    <t>13/10/2017</t>
-  </si>
-  <si>
-    <t>23/01/2018</t>
-  </si>
-  <si>
-    <t>Tales from the Borderlands TTG</t>
-  </si>
-  <si>
-    <t>Bully: Canis Canem Edit</t>
-  </si>
-  <si>
-    <t>24/08/2018</t>
-  </si>
-  <si>
-    <t>Rocket League</t>
-  </si>
-  <si>
-    <t>Spyro the Dragon</t>
-  </si>
-  <si>
-    <t>14/11/2018</t>
-  </si>
-  <si>
-    <t>Spyro 3: Year of the Dragon</t>
-  </si>
-  <si>
-    <t>19/11/2018</t>
-  </si>
-  <si>
-    <t>Spyro 2: Gateway to Glimmer</t>
-  </si>
-  <si>
-    <t>Marvel's Spider-Man</t>
-  </si>
-  <si>
-    <t>14/01/2019</t>
-  </si>
-  <si>
-    <t>Apocalypse Rider</t>
-  </si>
-  <si>
-    <t>VR</t>
-  </si>
-  <si>
-    <t>Shooty Fruity</t>
-  </si>
-  <si>
-    <t>15/07/2020</t>
-  </si>
-  <si>
-    <t>Syrup and the Ultimate Sweet</t>
-  </si>
-  <si>
-    <t>17/07/2020</t>
-  </si>
-  <si>
-    <t>Batman: Season 2 TTG</t>
-  </si>
-  <si>
-    <t>21/07/2020</t>
-  </si>
-  <si>
-    <t>Saints Row: The Third Remastered</t>
-  </si>
-  <si>
-    <t>Destroy All Humans! (Original)</t>
-  </si>
-  <si>
-    <t>Destroy All Humans! (Remake)</t>
-  </si>
-  <si>
-    <t>Destroy All Humans! 2</t>
-  </si>
-  <si>
-    <t>Lovers in a Dangerous Spacetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inFamous </t>
-  </si>
-  <si>
-    <t>29/09/2020</t>
-  </si>
-  <si>
-    <t>inFamous 2</t>
-  </si>
-  <si>
-    <t>Crash Bandicoot 3: Warped</t>
-  </si>
-  <si>
-    <t>South Park: The Fractured But Whole</t>
-  </si>
-  <si>
-    <t>14/10/2020</t>
-  </si>
-  <si>
-    <t>Crash Bandicoot 2: Cortex Strikes Back</t>
-  </si>
-  <si>
-    <t>19/10/2020</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank: A Crack in Time</t>
-  </si>
-  <si>
-    <t>21/10/2020</t>
-  </si>
-  <si>
-    <t>Crash Bandicoot</t>
-  </si>
-  <si>
-    <t>23/10/2020</t>
-  </si>
-  <si>
-    <t>Family Guy: Back to the Multiverse</t>
-  </si>
-  <si>
-    <t>Crash Team Racing: Nitro Fueled</t>
-  </si>
-  <si>
-    <t>25/10/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MediEvil </t>
-  </si>
-  <si>
-    <t>28/10/2020</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank (2016)</t>
-  </si>
-  <si>
-    <t>31/10/2020</t>
-  </si>
-  <si>
-    <t>Oddworld: New 'n' Tasty</t>
-  </si>
-  <si>
-    <t>Borderlands 3</t>
-  </si>
-  <si>
-    <t>15/11/2020</t>
-  </si>
-  <si>
-    <t>Ghost of Tsushima</t>
-  </si>
-  <si>
-    <t>Star Wars Episode I: Racer</t>
-  </si>
-  <si>
-    <t>24/12/2020</t>
-  </si>
-  <si>
-    <t>ASTRO BOT: RESCUE MISSION</t>
-  </si>
-  <si>
-    <t>Ratchet and Clank: Nexus</t>
-  </si>
-  <si>
-    <t>13/02/2021</t>
-  </si>
-  <si>
-    <t>Ratchet: Gladiator</t>
-  </si>
-  <si>
-    <t>Grand Theft Auto: San Andreas</t>
-  </si>
-  <si>
-    <t>ASTRO'S PLAYROOM</t>
-  </si>
-  <si>
-    <t>PS5</t>
-  </si>
-  <si>
-    <t>17/05/2021</t>
-  </si>
-  <si>
-    <t>One Escape</t>
-  </si>
-  <si>
-    <t>19/05/2021</t>
-  </si>
-  <si>
-    <t>Maneater</t>
-  </si>
-  <si>
-    <t>31/05/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugsnax </t>
-  </si>
-  <si>
-    <t>Concept Destruction</t>
-  </si>
-  <si>
-    <t>Sir Lovelot</t>
-  </si>
-  <si>
-    <t>Wreckfest</t>
-  </si>
-  <si>
-    <t>Evil Inside</t>
-  </si>
-  <si>
-    <t>24/06/2021</t>
-  </si>
-  <si>
-    <t>Concrete Genie</t>
-  </si>
-  <si>
-    <t>28/06/2021</t>
-  </si>
-  <si>
-    <t>Days Gone</t>
-  </si>
-  <si>
-    <t>Manual Samuel</t>
-  </si>
-  <si>
-    <t>Donut County</t>
-  </si>
-  <si>
-    <t>Saints Row IV: Re-Elected</t>
-  </si>
-  <si>
-    <t>18/07/2021</t>
-  </si>
-  <si>
-    <t>Marvel's Guardians of the Galaxy TTG</t>
-  </si>
-  <si>
-    <t>God of War (2018)</t>
-  </si>
-  <si>
-    <t>29/07/2021</t>
-  </si>
-  <si>
-    <t>Psychonauts</t>
-  </si>
-  <si>
-    <t>Sumatra: Fate of Yandi</t>
-  </si>
-  <si>
-    <t>19/08/2021</t>
-  </si>
-  <si>
-    <t>Accounting+</t>
-  </si>
-  <si>
-    <t>29/08/2021</t>
-  </si>
-  <si>
-    <t>Putty Squad</t>
-  </si>
-  <si>
-    <t>Supermarket Shriek</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants: Battle for Bikini Bottom: Rehydrated</t>
-  </si>
-  <si>
-    <t>Shing!</t>
-  </si>
-  <si>
-    <t>Trover Saves The Universe</t>
-  </si>
-  <si>
-    <t>Twin Robots: Ultimate Edition</t>
-  </si>
-  <si>
-    <t>27/09/2021</t>
-  </si>
-  <si>
-    <t>F1 2021</t>
-  </si>
-  <si>
-    <t>30/09/2021</t>
-  </si>
-  <si>
-    <t>Infliction: Extended Cut</t>
-  </si>
-  <si>
-    <t>Until Dawn</t>
-  </si>
-  <si>
-    <t>Psychonauts 2</t>
-  </si>
-  <si>
-    <t>26/11/2021</t>
-  </si>
-  <si>
-    <t>Jak X</t>
-  </si>
-  <si>
-    <t>13/12/2021</t>
-  </si>
-  <si>
-    <t>Ovivo</t>
-  </si>
-  <si>
-    <t>14/12/2021</t>
-  </si>
-  <si>
-    <t>Ratchet and Clank 2</t>
-  </si>
-  <si>
-    <t>21/12/2021</t>
-  </si>
-  <si>
-    <t>Ratchet and Clank 3</t>
-  </si>
-  <si>
-    <t>25/12/2021</t>
-  </si>
-  <si>
-    <t>Ratchet and Clank: Rift Apart</t>
-  </si>
-  <si>
-    <t>29/12/2021</t>
-  </si>
-  <si>
-    <t>Beat Cop</t>
-  </si>
-  <si>
-    <t>Deeeer Simulator</t>
-  </si>
-  <si>
-    <t>Kandagawa Jet Girls</t>
-  </si>
-  <si>
-    <t>21/03/2022</t>
-  </si>
-  <si>
-    <t>Cyberpunk 2077</t>
-  </si>
-  <si>
-    <t>Cloudpunk</t>
-  </si>
-  <si>
-    <t>Absolute Drift: Zen Edition</t>
-  </si>
-  <si>
-    <t>20/04/2022</t>
-  </si>
-  <si>
-    <t>In Rays of the Light</t>
-  </si>
-  <si>
-    <t>22/04/2022</t>
-  </si>
-  <si>
-    <t>The Guy VR</t>
-  </si>
-  <si>
-    <t>27/04/2022</t>
-  </si>
-  <si>
-    <t>Art of Rally</t>
-  </si>
-  <si>
-    <t>Leisure Suit Larry - Wet Dreams Don't Dry</t>
-  </si>
-  <si>
-    <t>25/05/2022</t>
-  </si>
-  <si>
-    <t>Leisure Suit Larry - Wet Dreams Dry Twice</t>
-  </si>
-  <si>
-    <t>29/05/2022</t>
-  </si>
-  <si>
-    <t>Ghostwire: Tokyo</t>
-  </si>
-  <si>
-    <t>Need for Speed: Shift</t>
-  </si>
-  <si>
-    <t>15/06/2022</t>
-  </si>
-  <si>
-    <t>Sly Cooper and the Thievius Raccoonus</t>
-  </si>
-  <si>
-    <t>Sly Cooper 2: Band of Thieves</t>
-  </si>
-  <si>
-    <t>Sly Cooper 3: Honour Among Thieves</t>
-  </si>
-  <si>
-    <t>Sonic Origins</t>
-  </si>
-  <si>
-    <t>20/09/2022</t>
-  </si>
-  <si>
-    <t>TOEM</t>
-  </si>
-  <si>
-    <t>25/09/2022</t>
-  </si>
-  <si>
-    <t>Night Book</t>
-  </si>
-  <si>
-    <t>Jazzpunk</t>
-  </si>
-  <si>
-    <t>The Walking Dead: Season 3 TTG</t>
-  </si>
-  <si>
-    <t>The Walking Dead: The Final Season TTG</t>
-  </si>
-  <si>
-    <t>16/10/2022</t>
-  </si>
-  <si>
-    <t>The Darkside Detective</t>
-  </si>
-  <si>
-    <t>20/10/2022</t>
-  </si>
-  <si>
-    <t>The Wolf Among Us</t>
-  </si>
-  <si>
-    <t>Oxenfree</t>
-  </si>
-  <si>
-    <t>24/10/2022</t>
-  </si>
-  <si>
-    <t>LEGO Batman 2: DC Super Heroes</t>
-  </si>
-  <si>
-    <t>31/10/2022</t>
-  </si>
-  <si>
-    <t>Rayman Origins</t>
-  </si>
-  <si>
-    <t>Biomutant</t>
-  </si>
-  <si>
-    <t>18/11/2022</t>
-  </si>
-  <si>
-    <t>Hot Wheels Unleashed</t>
-  </si>
-  <si>
-    <t>23/11/2022</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>24/11/2022</t>
-  </si>
-  <si>
-    <t>Marvel's Spider-Man: Miles Morales</t>
-  </si>
-  <si>
-    <t>27/11/2022</t>
-  </si>
-  <si>
-    <t>Cult of the Lamb</t>
-  </si>
-  <si>
-    <t>Knack</t>
-  </si>
-  <si>
-    <t>Ratchet and Clank (2002)</t>
-  </si>
-  <si>
-    <t>Knack II</t>
-  </si>
-  <si>
-    <t>Stray</t>
-  </si>
-  <si>
-    <t>Klonoa Phantasy Reverie Series</t>
-  </si>
-  <si>
-    <t>Color Slayer</t>
-  </si>
-  <si>
-    <t>17/12/2022</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>19/12/2022</t>
-  </si>
-  <si>
-    <t>Potion Permit</t>
-  </si>
-  <si>
-    <t>Horizon Zero Dawn</t>
-  </si>
-  <si>
-    <t>13/01/2023</t>
-  </si>
-  <si>
-    <t>Pic-a-Pix Color</t>
-  </si>
-  <si>
-    <t>26/01/2023</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>31/01/2023</t>
-  </si>
-  <si>
-    <t>PlayStation Vita Pets</t>
-  </si>
-  <si>
-    <t>Hogwarts Legacy</t>
-  </si>
-  <si>
-    <t>22/02/2023</t>
-  </si>
-  <si>
-    <t>Uncharted: Golden Abyss</t>
-  </si>
-  <si>
-    <t>22/03/2023</t>
-  </si>
-  <si>
-    <t>26/03/2023</t>
-  </si>
-  <si>
-    <t>30/03/2023</t>
-  </si>
-  <si>
-    <t>Spy Hunter</t>
-  </si>
-  <si>
-    <t>27/04/2023</t>
-  </si>
-  <si>
-    <t>The Amazing Spider-Man</t>
-  </si>
-  <si>
-    <t>19/06/2023</t>
-  </si>
-  <si>
-    <t>The Darkness II</t>
-  </si>
-  <si>
-    <t>PlayStation Move Heroes</t>
-  </si>
-  <si>
-    <t>20/07/2023</t>
-  </si>
-  <si>
-    <t>Uncharted: Drake's Fortune: Remastered</t>
-  </si>
-  <si>
-    <t>Uncharted 2: Among Thieves: Remastered</t>
-  </si>
-  <si>
-    <t>Uncharted 3: Drake's Deception: Remastered</t>
-  </si>
-  <si>
-    <t>The American Dream</t>
-  </si>
-  <si>
-    <t>13/08/2023</t>
-  </si>
-  <si>
-    <t>inFamous Second Son</t>
-  </si>
-  <si>
-    <t>21/08/2023</t>
-  </si>
-  <si>
-    <t>inFamous First Light</t>
-  </si>
-  <si>
-    <t>22/08/2023</t>
-  </si>
-  <si>
-    <t>Dark Cloud</t>
-  </si>
-  <si>
-    <t>Sleeping Dogs: Definitive Edition</t>
-  </si>
-  <si>
-    <t>30/09/2023</t>
-  </si>
-  <si>
-    <t>Marvel's Spider-Man 2</t>
-  </si>
-  <si>
-    <t>25/10/2023</t>
-  </si>
-  <si>
-    <t>Turnip Boy Commits Tax Evasion</t>
-  </si>
-  <si>
-    <t>31/10/2023</t>
-  </si>
-  <si>
-    <t>GRID Legends</t>
-  </si>
-  <si>
-    <t>16/11/2023</t>
-  </si>
-  <si>
-    <t>Saints Row (2022)</t>
-  </si>
-  <si>
-    <t>24/11/2023</t>
-  </si>
-  <si>
-    <t>Run Sausage Run!</t>
-  </si>
-  <si>
-    <t>27/11/2023</t>
-  </si>
-  <si>
-    <t>PowerWash Simulator</t>
-  </si>
-  <si>
-    <t>14/12/2023</t>
-  </si>
-  <si>
-    <t>Like a Dragon Gaiden: The Man Who Erased His Name</t>
-  </si>
-  <si>
-    <t>Bud Spencer &amp; Terence Hill - Slaps And Beans</t>
-  </si>
-  <si>
-    <t>Riptide GP: Renegade</t>
-  </si>
-  <si>
-    <t>15/01/2024</t>
-  </si>
-  <si>
-    <t>Far Cry New Dawn</t>
-  </si>
-  <si>
-    <t>19/01/2024</t>
-  </si>
-  <si>
-    <t>Like a Dragon: Infinite Wealth</t>
-  </si>
-  <si>
-    <t>16/02/2024</t>
-  </si>
-  <si>
-    <t>SpongeBob SquarePants: The Cosmic Shake</t>
-  </si>
-  <si>
-    <t>19/02/2024</t>
-  </si>
-  <si>
-    <t>Borderlands</t>
-  </si>
-  <si>
-    <t>26/02/2024</t>
-  </si>
-  <si>
-    <t>RoboCop: Rogue City</t>
-  </si>
-  <si>
-    <t>Spirit of the North: Enhanced Edition</t>
-  </si>
-  <si>
-    <t>19/03/2024</t>
-  </si>
-  <si>
-    <t>Going Under</t>
-  </si>
-  <si>
-    <t>19/04/2024</t>
-  </si>
-  <si>
-    <t>Far Cry Primal</t>
-  </si>
-  <si>
-    <t>22/04/2024</t>
-  </si>
-  <si>
-    <t>A Plague Tale: Innocence</t>
-  </si>
-  <si>
-    <t>28/04/2024</t>
-  </si>
-  <si>
-    <t>Rustler</t>
-  </si>
-  <si>
-    <t>Coffee Talk</t>
-  </si>
-  <si>
-    <t>Daxter</t>
-  </si>
-  <si>
-    <t>PSP</t>
-  </si>
-  <si>
-    <t>Medievil (1998)</t>
-  </si>
-  <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>Jumping Flash</t>
-  </si>
-  <si>
-    <t>Toy Story 2</t>
-  </si>
-  <si>
-    <t>Rayman Legends</t>
-  </si>
-  <si>
-    <t>18/07/2024</t>
-  </si>
-  <si>
-    <t>Nobody Saves the World</t>
-  </si>
-  <si>
-    <t>26/07/2024</t>
-  </si>
-  <si>
-    <t>Dead Island 2</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank: Size Matters</t>
-  </si>
-  <si>
-    <t>18/08/2024</t>
-  </si>
-  <si>
-    <t>Astro Bot</t>
-  </si>
-  <si>
-    <t>Yakuza 0</t>
-  </si>
-  <si>
-    <t>17/10/2024</t>
-  </si>
-  <si>
-    <t>Yakuza Kiwami</t>
-  </si>
-  <si>
-    <t>Squirrel with a Gun</t>
-  </si>
-  <si>
-    <t>Yakuza Kiwami 2</t>
-  </si>
-  <si>
-    <t>20/11/2024</t>
-  </si>
-  <si>
-    <t>Parcel Corps</t>
-  </si>
-  <si>
-    <t>27/11/2024</t>
-  </si>
-  <si>
-    <t>LA Cops</t>
-  </si>
-  <si>
-    <t>28/11/2024</t>
-  </si>
-  <si>
-    <t>Hot Wheels Unleashed 2 - Turbocharged</t>
-  </si>
-  <si>
-    <t>30/11/2024</t>
-  </si>
-  <si>
-    <t>Horizon Forbidden West</t>
-  </si>
-  <si>
-    <t>Watch_Dogs</t>
-  </si>
-  <si>
-    <t>Watch_Dogs 2</t>
-  </si>
-  <si>
-    <t>Watch Dogs Legion</t>
-  </si>
-  <si>
-    <t>15/12/2024</t>
-  </si>
-  <si>
-    <t>Uncharted: The Lost Legacy</t>
-  </si>
-  <si>
-    <t>24/12/2024</t>
-  </si>
-  <si>
-    <t>South Park: Snow Day</t>
-  </si>
-  <si>
-    <t>27/12/2024</t>
-  </si>
-  <si>
-    <t>TY the Tasmanian Tiger</t>
-  </si>
-  <si>
-    <t>PS2</t>
-  </si>
-  <si>
-    <t>28/12/2024</t>
-  </si>
-  <si>
-    <t>Saints Row: The Third</t>
-  </si>
-  <si>
-    <t>14/01/2025</t>
-  </si>
-  <si>
-    <t>Like a Dragon: Pirate Yakuza in Hawaii</t>
-  </si>
-  <si>
-    <t>Tekken 8</t>
-  </si>
-  <si>
-    <t>26/03/2025</t>
-  </si>
-  <si>
-    <t>Headliner: NoviNews</t>
-  </si>
-  <si>
-    <t>Dungeon Munchies</t>
-  </si>
-  <si>
-    <t>Tails of Iron</t>
-  </si>
-  <si>
-    <t>Total Arcade Racing</t>
-  </si>
-  <si>
-    <t>14/04/2025</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>16th</t>
-  </si>
-  <si>
-    <t>17th</t>
-  </si>
-  <si>
-    <t>14th</t>
-  </si>
-  <si>
-    <t>15th</t>
-  </si>
-  <si>
-    <t>12th</t>
-  </si>
-  <si>
-    <t>13th</t>
-  </si>
-  <si>
-    <t>10th</t>
-  </si>
-  <si>
-    <t>11th</t>
-  </si>
-  <si>
     <t>8th</t>
   </si>
   <si>
-    <t>6th</t>
-  </si>
-  <si>
     <t>7th</t>
   </si>
   <si>
@@ -1037,9 +1055,6 @@
   </si>
   <si>
     <t>Olliolli 2</t>
-  </si>
-  <si>
-    <t>Tropico 5</t>
   </si>
   <si>
     <t>Soul Calibur VI</t>
@@ -2987,16 +3002,16 @@
     <xf borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3046,7 +3061,7 @@
                 </a:solidFill>
                 <a:latin typeface="Roboto"/>
               </a:rPr>
-              <a:t>Updated as of 30th April 2025</a:t>
+              <a:t>Updated as of 31st May 2025</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3087,21 +3102,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>platinums!$A$2:$A$192</c:f>
+              <c:f>platinums!$A$2:$A$196</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>platinums!$E$2:$E$192</c:f>
+              <c:f>platinums!$E$2:$E$196</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1791095460"/>
-        <c:axId val="1410058846"/>
+        <c:axId val="1215699957"/>
+        <c:axId val="979963309"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1791095460"/>
+        <c:axId val="1215699957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,10 +3168,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1410058846"/>
+        <c:crossAx val="979963309"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1410058846"/>
+        <c:axId val="979963309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3231,7 +3246,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1791095460"/>
+        <c:crossAx val="1215699957"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3263,7 +3278,7 @@
                 </a:solidFill>
                 <a:latin typeface="Roboto"/>
               </a:rPr>
-              <a:t>Updated as of 30th April 2025</a:t>
+              <a:t>Updated as of 31st May 2025</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3484,11 +3499,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1748061462"/>
-        <c:axId val="1753817436"/>
+        <c:axId val="1041213156"/>
+        <c:axId val="1515349111"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1748061462"/>
+        <c:axId val="1041213156"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3540,10 +3555,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753817436"/>
+        <c:crossAx val="1515349111"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1753817436"/>
+        <c:axId val="1515349111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3618,7 +3633,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1748061462"/>
+        <c:crossAx val="1041213156"/>
       </c:valAx>
     </c:plotArea>
   </c:chart>
@@ -3664,11 +3679,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7867650" cy="4857750"/>
+    <xdr:ext cx="7867650" cy="4248150"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2" title="Updated as of 31st Dec 2024"/>
@@ -4039,7 +4054,7 @@
     </row>
     <row r="9">
       <c r="A9" s="14">
-        <v>191.0</v>
+        <v>195.0</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>11</v>
@@ -4051,7 +4066,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="15">
-        <v>0.006</v>
+        <v>0.045</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4158,31 +4173,31 @@
         <v>2025.0</v>
       </c>
       <c r="B15" s="16">
-        <v>191.0</v>
+        <v>195.0</v>
       </c>
       <c r="C15" s="16">
-        <v>1224.0</v>
+        <v>1247.0</v>
       </c>
       <c r="D15" s="16">
-        <v>2954.0</v>
+        <v>3011.0</v>
       </c>
       <c r="E15" s="16">
-        <v>10086.0</v>
+        <v>10256.0</v>
       </c>
       <c r="F15" s="24">
         <v>2025.0</v>
       </c>
       <c r="G15" s="24">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="H15" s="24">
-        <v>58.0</v>
+        <v>81.0</v>
       </c>
       <c r="I15" s="24">
-        <v>126.0</v>
+        <v>183.0</v>
       </c>
       <c r="J15" s="24">
-        <v>433.0</v>
+        <v>603.0</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>23</v>
@@ -4351,10 +4366,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="18">
         <v>0.457</v>
@@ -4380,13 +4395,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="18">
         <v>0.146</v>
@@ -4412,13 +4427,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="18">
         <v>0.192</v>
@@ -4447,10 +4462,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="18">
         <v>0.147</v>
@@ -4476,10 +4491,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D9" s="26">
         <v>43198.0</v>
@@ -4508,13 +4523,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="18">
         <v>0.032</v>
@@ -4540,10 +4555,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D11" s="26">
         <v>43229.0</v>
@@ -4572,13 +4587,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="18">
         <v>0.076</v>
@@ -4604,13 +4619,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="27">
         <v>0.057</v>
@@ -4636,13 +4651,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>44</v>
       </c>
       <c r="E14" s="18">
         <v>0.055</v>
@@ -4668,13 +4683,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="18">
         <v>0.084</v>
@@ -4700,10 +4715,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="26">
         <v>44050.0</v>
@@ -4732,13 +4747,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="D17" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="18">
         <v>0.006</v>
@@ -4764,13 +4779,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="18">
         <v>0.936</v>
@@ -4796,13 +4811,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" s="18">
         <v>0.122</v>
@@ -4828,10 +4843,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D20" s="26">
         <v>43959.0</v>
@@ -4860,10 +4875,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D21" s="26">
         <v>43870.0</v>
@@ -4892,10 +4907,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D22" s="26">
         <v>44021.0</v>
@@ -4924,10 +4939,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D23" s="26">
         <v>44083.0</v>
@@ -4956,10 +4971,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D24" s="26">
         <v>44144.0</v>
@@ -4988,13 +5003,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E25" s="27">
         <v>0.019</v>
@@ -5020,7 +5035,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>25</v>
@@ -5052,10 +5067,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D27" s="28">
         <v>44175.0</v>
@@ -5084,13 +5099,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28" s="18">
         <v>0.039</v>
@@ -5116,13 +5131,13 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E29" s="27">
         <v>0.006</v>
@@ -5148,13 +5163,13 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" s="18">
         <v>0.039</v>
@@ -5180,13 +5195,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" s="27">
         <v>0.007</v>
@@ -5212,13 +5227,13 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32" s="18">
         <v>0.026</v>
@@ -5244,13 +5259,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="18">
         <v>0.005</v>
@@ -5276,13 +5291,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="18">
         <v>0.068</v>
@@ -5308,13 +5323,13 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" s="18">
         <v>0.025</v>
@@ -5340,10 +5355,10 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D36" s="26">
         <v>43962.0</v>
@@ -5372,13 +5387,13 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E37" s="18">
         <v>0.018</v>
@@ -5404,10 +5419,10 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D38" s="28">
         <v>44116.0</v>
@@ -5436,13 +5451,13 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E39" s="18">
         <v>0.114</v>
@@ -5468,10 +5483,10 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" s="26">
         <v>44441.0</v>
@@ -5500,13 +5515,13 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="18">
         <v>0.077</v>
@@ -5532,7 +5547,7 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>25</v>
@@ -5564,10 +5579,10 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D43" s="26">
         <v>44413.0</v>
@@ -5596,13 +5611,13 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E44" s="18">
         <v>0.045</v>
@@ -5628,13 +5643,13 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E45" s="18">
         <v>0.774</v>
@@ -5660,13 +5675,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E46" s="18">
         <v>0.098</v>
@@ -5692,10 +5707,10 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D47" s="26">
         <v>44233.0</v>
@@ -5724,10 +5739,10 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D48" s="26">
         <v>44292.0</v>
@@ -5756,10 +5771,10 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D49" s="26">
         <v>44383.0</v>
@@ -5788,10 +5803,10 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D50" s="26">
         <v>44383.0</v>
@@ -5820,13 +5835,13 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E51" s="18">
         <v>0.548</v>
@@ -5852,13 +5867,13 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E52" s="18">
         <v>0.059</v>
@@ -5884,10 +5899,10 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D53" s="26">
         <v>44323.0</v>
@@ -5916,10 +5931,10 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D54" s="26">
         <v>44415.0</v>
@@ -5948,10 +5963,10 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D55" s="26">
         <v>44415.0</v>
@@ -5980,13 +5995,13 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E56" s="27">
         <v>0.016</v>
@@ -6012,13 +6027,13 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>110</v>
       </c>
       <c r="E57" s="18">
         <v>0.292</v>
@@ -6044,13 +6059,13 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E58" s="18">
         <v>0.045</v>
@@ -6076,10 +6091,10 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D59" s="26">
         <v>44294.0</v>
@@ -6108,13 +6123,13 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E60" s="18">
         <v>0.625</v>
@@ -6140,13 +6155,13 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E61" s="18">
         <v>0.12</v>
@@ -6172,10 +6187,10 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D62" s="26">
         <v>44264.0</v>
@@ -6204,10 +6219,10 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D63" s="26">
         <v>44386.0</v>
@@ -6236,10 +6251,10 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D64" s="26">
         <v>44417.0</v>
@@ -6268,10 +6283,10 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D65" s="26">
         <v>44448.0</v>
@@ -6300,10 +6315,10 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D66" s="26">
         <v>44509.0</v>
@@ -6332,13 +6347,13 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E67" s="18">
         <v>0.207</v>
@@ -6364,13 +6379,13 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E68" s="18">
         <v>0.003</v>
@@ -6396,10 +6411,10 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D69" s="26">
         <v>44296.0</v>
@@ -6428,10 +6443,10 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D70" s="28">
         <v>44479.0</v>
@@ -6460,13 +6475,13 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E71" s="18">
         <v>0.185</v>
@@ -6492,13 +6507,13 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E72" s="30">
         <v>0.03</v>
@@ -6524,13 +6539,13 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E73" s="18">
         <v>0.312</v>
@@ -6556,13 +6571,13 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C74" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E74" s="18">
         <v>0.105</v>
@@ -6588,13 +6603,13 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C75" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E75" s="29">
         <v>0.101</v>
@@ -6620,13 +6635,13 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E76" s="18">
         <v>0.1</v>
@@ -6652,10 +6667,10 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D77" s="26">
         <v>44774.0</v>
@@ -6684,10 +6699,10 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D78" s="26">
         <v>44807.0</v>
@@ -6716,13 +6731,13 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E79" s="18">
         <v>0.142</v>
@@ -6748,10 +6763,10 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D80" s="26">
         <v>44565.0</v>
@@ -6780,10 +6795,10 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D81" s="26">
         <v>44624.0</v>
@@ -6812,13 +6827,13 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E82" s="18">
         <v>0.054</v>
@@ -6844,13 +6859,13 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E83" s="18">
         <v>0.213</v>
@@ -6876,13 +6891,13 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E84" s="29">
         <v>0.011</v>
@@ -6908,10 +6923,10 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D85" s="26">
         <v>44625.0</v>
@@ -6940,13 +6955,13 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E86" s="18">
         <v>0.171</v>
@@ -6972,13 +6987,13 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E87" s="18">
         <v>0.104</v>
@@ -7004,10 +7019,10 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D88" s="26">
         <v>44748.0</v>
@@ -7036,13 +7051,13 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C89" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E89" s="18">
         <v>0.008</v>
@@ -7068,7 +7083,7 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C90" s="25" t="s">
         <v>25</v>
@@ -7100,7 +7115,7 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C91" s="25" t="s">
         <v>25</v>
@@ -7132,7 +7147,7 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C92" s="25" t="s">
         <v>25</v>
@@ -7164,13 +7179,13 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E93" s="18">
         <v>0.063</v>
@@ -7196,13 +7211,13 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E94" s="18">
         <v>0.218</v>
@@ -7228,10 +7243,10 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D95" s="26">
         <v>44691.0</v>
@@ -7260,10 +7275,10 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D96" s="28">
         <v>44844.0</v>
@@ -7292,10 +7307,10 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D97" s="28">
         <v>44875.0</v>
@@ -7324,13 +7339,13 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E98" s="18">
         <v>0.113</v>
@@ -7356,13 +7371,13 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E99" s="29">
         <v>0.131</v>
@@ -7388,13 +7403,13 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" s="25" t="s">
         <v>176</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>175</v>
       </c>
       <c r="E100" s="18">
         <v>0.191</v>
@@ -7420,13 +7435,13 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E101" s="18">
         <v>0.064</v>
@@ -7452,13 +7467,13 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C102" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E102" s="29">
         <v>0.073</v>
@@ -7484,13 +7499,13 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C103" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E103" s="18">
         <v>0.052</v>
@@ -7516,13 +7531,13 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E104" s="18">
         <v>0.015</v>
@@ -7548,13 +7563,13 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E105" s="18">
         <v>0.004</v>
@@ -7580,13 +7595,13 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E106" s="18">
         <v>0.005</v>
@@ -7612,13 +7627,13 @@
         <v>106.0</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E107" s="18">
         <v>0.057</v>
@@ -7644,10 +7659,10 @@
         <v>107.0</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D108" s="26">
         <v>44573.0</v>
@@ -7676,10 +7691,10 @@
         <v>108.0</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D109" s="26">
         <v>44663.0</v>
@@ -7708,7 +7723,7 @@
         <v>109.0</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C110" s="25" t="s">
         <v>25</v>
@@ -7740,10 +7755,10 @@
         <v>110.0</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D111" s="26">
         <v>44785.0</v>
@@ -7772,10 +7787,10 @@
         <v>111.0</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D112" s="28">
         <v>44846.0</v>
@@ -7804,10 +7819,10 @@
         <v>112.0</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D113" s="28">
         <v>44907.0</v>
@@ -7836,13 +7851,13 @@
         <v>113.0</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E114" s="18">
         <v>0.536</v>
@@ -7868,13 +7883,13 @@
         <v>114.0</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E115" s="18">
         <v>0.067</v>
@@ -7900,10 +7915,10 @@
         <v>115.0</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D116" s="26">
         <v>45017.0</v>
@@ -7932,13 +7947,13 @@
         <v>116.0</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E117" s="27">
         <v>0.054</v>
@@ -7964,13 +7979,13 @@
         <v>117.0</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C118" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E118" s="18">
         <v>0.879</v>
@@ -7996,13 +8011,13 @@
         <v>118.0</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C119" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E119" s="18">
         <v>0.351</v>
@@ -8028,7 +8043,7 @@
         <v>119.0</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C120" s="25" t="s">
         <v>27</v>
@@ -8060,13 +8075,13 @@
         <v>120.0</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E121" s="18">
         <v>0.022</v>
@@ -8092,7 +8107,7 @@
         <v>121.0</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C122" s="25" t="s">
         <v>27</v>
@@ -8124,13 +8139,13 @@
         <v>122.0</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C123" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E123" s="18">
         <v>0.959</v>
@@ -8156,13 +8171,13 @@
         <v>123.0</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C124" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E124" s="18">
         <v>0.096</v>
@@ -8188,13 +8203,13 @@
         <v>124.0</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C125" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E125" s="18">
         <v>0.182</v>
@@ -8220,7 +8235,7 @@
         <v>125.0</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C126" s="25" t="s">
         <v>27</v>
@@ -8252,7 +8267,7 @@
         <v>126.0</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C127" s="25" t="s">
         <v>27</v>
@@ -8284,7 +8299,7 @@
         <v>127.0</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C128" s="25" t="s">
         <v>27</v>
@@ -8316,7 +8331,7 @@
         <v>128.0</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C129" s="25" t="s">
         <v>27</v>
@@ -8348,13 +8363,13 @@
         <v>129.0</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C130" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E130" s="18">
         <v>0.16</v>
@@ -8380,13 +8395,13 @@
         <v>130.0</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C131" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E131" s="18">
         <v>0.016</v>
@@ -8412,7 +8427,7 @@
         <v>131.0</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C132" s="25" t="s">
         <v>25</v>
@@ -8444,13 +8459,13 @@
         <v>132.0</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C133" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E133" s="18">
         <v>0.02</v>
@@ -8476,10 +8491,10 @@
         <v>133.0</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D134" s="26">
         <v>44965.0</v>
@@ -8508,10 +8523,10 @@
         <v>134.0</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D135" s="26">
         <v>45085.0</v>
@@ -8540,10 +8555,10 @@
         <v>135.0</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D136" s="26">
         <v>45177.0</v>
@@ -8572,13 +8587,13 @@
         <v>136.0</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E137" s="18">
         <v>0.038</v>
@@ -8604,13 +8619,13 @@
         <v>137.0</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E138" s="27">
         <v>0.055</v>
@@ -8636,13 +8651,13 @@
         <v>138.0</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E139" s="27">
         <v>0.055</v>
@@ -8668,10 +8683,10 @@
         <v>139.0</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D140" s="26">
         <v>45239.0</v>
@@ -8700,13 +8715,13 @@
         <v>140.0</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E141" s="18">
         <v>0.033</v>
@@ -8732,13 +8747,13 @@
         <v>141.0</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E142" s="18">
         <v>0.163</v>
@@ -8764,13 +8779,13 @@
         <v>142.0</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E143" s="18">
         <v>0.523</v>
@@ -8796,13 +8811,13 @@
         <v>143.0</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E144" s="27">
         <v>0.005</v>
@@ -8828,13 +8843,13 @@
         <v>144.0</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E145" s="18">
         <v>0.007</v>
@@ -8860,13 +8875,13 @@
         <v>145.0</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E146" s="18">
         <v>0.04</v>
@@ -8892,13 +8907,13 @@
         <v>146.0</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E147" s="18">
         <v>0.01</v>
@@ -8924,10 +8939,10 @@
         <v>147.0</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D148" s="26">
         <v>45413.0</v>
@@ -8956,10 +8971,10 @@
         <v>148.0</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D149" s="26">
         <v>45627.0</v>
@@ -8988,13 +9003,13 @@
         <v>149.0</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E150" s="18">
         <v>0.029</v>
@@ -9020,13 +9035,13 @@
         <v>150.0</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E151" s="27">
         <v>0.025</v>
@@ -9052,13 +9067,13 @@
         <v>151.0</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E152" s="18">
         <v>0.096</v>
@@ -9084,13 +9099,13 @@
         <v>152.0</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E153" s="18">
         <v>0.02</v>
@@ -9116,13 +9131,13 @@
         <v>153.0</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E154" s="18">
         <v>0.057</v>
@@ -9148,10 +9163,10 @@
         <v>154.0</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D155" s="26">
         <v>45354.0</v>
@@ -9180,13 +9195,13 @@
         <v>155.0</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E156" s="27">
         <v>0.038</v>
@@ -9212,13 +9227,13 @@
         <v>156.0</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E157" s="18">
         <v>0.081</v>
@@ -9244,13 +9259,13 @@
         <v>157.0</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E158" s="18">
         <v>0.039</v>
@@ -9276,13 +9291,13 @@
         <v>158.0</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E159" s="27">
         <v>0.092</v>
@@ -9308,10 +9323,10 @@
         <v>159.0</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D160" s="26">
         <v>45510.0</v>
@@ -9340,10 +9355,10 @@
         <v>160.0</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D161" s="26">
         <v>45571.0</v>
@@ -9372,10 +9387,10 @@
         <v>161.0</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D162" s="26">
         <v>45419.0</v>
@@ -9404,10 +9419,10 @@
         <v>162.0</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="D163" s="26">
         <v>45572.0</v>
@@ -9439,7 +9454,7 @@
         <v>272</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="D164" s="26">
         <v>45572.0</v>
@@ -9471,7 +9486,7 @@
         <v>273</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="D165" s="17">
         <v>45633.0</v>
@@ -9503,7 +9518,7 @@
         <v>274</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>275</v>
@@ -9535,7 +9550,7 @@
         <v>276</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>277</v>
@@ -9567,7 +9582,7 @@
         <v>278</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D168" s="17">
         <v>45573.0</v>
@@ -9599,7 +9614,7 @@
         <v>279</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>280</v>
@@ -9631,7 +9646,7 @@
         <v>281</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D170" s="17">
         <v>45544.0</v>
@@ -9663,7 +9678,7 @@
         <v>282</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>283</v>
@@ -9695,7 +9710,7 @@
         <v>284</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D172" s="17">
         <v>45423.0</v>
@@ -9727,7 +9742,7 @@
         <v>285</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D173" s="32">
         <v>45515.0</v>
@@ -9759,7 +9774,7 @@
         <v>286</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D174" s="31" t="s">
         <v>287</v>
@@ -9791,7 +9806,7 @@
         <v>288</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>289</v>
@@ -9823,7 +9838,7 @@
         <v>290</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>291</v>
@@ -9855,7 +9870,7 @@
         <v>292</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D177" s="16" t="s">
         <v>293</v>
@@ -9887,7 +9902,7 @@
         <v>294</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D178" s="17">
         <v>45394.0</v>
@@ -9951,7 +9966,7 @@
         <v>296</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D180" s="34">
         <v>45577.0</v>
@@ -9983,7 +9998,7 @@
         <v>297</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D181" s="16" t="s">
         <v>298</v>
@@ -10015,7 +10030,7 @@
         <v>299</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D182" s="16" t="s">
         <v>300</v>
@@ -10047,7 +10062,7 @@
         <v>301</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D183" s="16" t="s">
         <v>302</v>
@@ -10111,7 +10126,7 @@
         <v>306</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D185" s="31" t="s">
         <v>307</v>
@@ -10143,7 +10158,7 @@
         <v>308</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D186" s="32">
         <v>45691.0</v>
@@ -10175,7 +10190,7 @@
         <v>309</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D187" s="36" t="s">
         <v>310</v>
@@ -10207,7 +10222,7 @@
         <v>311</v>
       </c>
       <c r="C188" s="31" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D188" s="31" t="s">
         <v>310</v>
@@ -10239,7 +10254,7 @@
         <v>312</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D189" s="32">
         <v>45812.0</v>
@@ -10271,7 +10286,7 @@
         <v>313</v>
       </c>
       <c r="C190" s="31" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D190" s="32">
         <v>45904.0</v>
@@ -10303,7 +10318,7 @@
         <v>314</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D191" s="31" t="s">
         <v>315</v>
@@ -10328,19 +10343,19 @@
       <c r="T191" s="3"/>
     </row>
     <row r="192">
-      <c r="A192" s="14">
+      <c r="A192" s="31">
         <v>191.0</v>
       </c>
-      <c r="B192" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C192" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E192" s="15">
+      <c r="B192" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C192" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D192" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E192" s="33">
         <v>0.006</v>
       </c>
       <c r="F192" s="3"/>
@@ -10359,11 +10374,139 @@
       <c r="S192" s="3"/>
       <c r="T192" s="3"/>
     </row>
+    <row r="193">
+      <c r="A193" s="31">
+        <v>192.0</v>
+      </c>
+      <c r="B193" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C193" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D193" s="32">
+        <v>45813.0</v>
+      </c>
+      <c r="E193" s="33">
+        <v>0.096</v>
+      </c>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="3"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="3"/>
+      <c r="T193" s="3"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="31">
+        <v>193.0</v>
+      </c>
+      <c r="B194" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C194" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E194" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
+      <c r="P194" s="3"/>
+      <c r="Q194" s="3"/>
+      <c r="R194" s="3"/>
+      <c r="S194" s="3"/>
+      <c r="T194" s="3"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="31">
+        <v>194.0</v>
+      </c>
+      <c r="B195" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C195" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D195" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="E195" s="33">
+        <v>0.069</v>
+      </c>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+      <c r="R195" s="3"/>
+      <c r="S195" s="3"/>
+      <c r="T195" s="3"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="14">
+        <v>195.0</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" s="15">
+        <v>0.045</v>
+      </c>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+      <c r="R196" s="3"/>
+      <c r="S196" s="3"/>
+      <c r="T196" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$192">
-    <sortState ref="A1:E192">
-      <sortCondition ref="A1:A192"/>
-      <sortCondition ref="E1:E192"/>
+  <autoFilter ref="$A$1:$E$196">
+    <sortState ref="A1:E196">
+      <sortCondition ref="A1:A196"/>
+      <sortCondition ref="E1:E196"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>
@@ -10437,16 +10580,16 @@
         <v>22</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P1" s="39" t="s">
         <v>22</v>
@@ -10484,26 +10627,26 @@
         <v>33.0</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L2" s="42">
         <f t="shared" ref="L2:L17" si="1">(G2-$G$18)+1</f>
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="M2" s="43">
         <f t="shared" ref="M2:M17" si="2">(H2-$H$18)+1</f>
-        <v>-55</v>
+        <v>-78</v>
       </c>
       <c r="N2" s="44">
         <f t="shared" ref="N2:N17" si="3">(I2-$I$18)+1</f>
-        <v>-120</v>
+        <v>-177</v>
       </c>
       <c r="O2" s="45">
         <f t="shared" ref="O2:O17" si="4">(J2-$J$18)+1</f>
-        <v>-399</v>
+        <v>-569</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3">
@@ -10538,26 +10681,26 @@
         <v>119.0</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L3" s="42">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="M3" s="43">
         <f t="shared" si="2"/>
-        <v>-53</v>
+        <v>-76</v>
       </c>
       <c r="N3" s="44">
         <f t="shared" si="3"/>
-        <v>-106</v>
+        <v>-163</v>
       </c>
       <c r="O3" s="45">
         <f t="shared" si="4"/>
-        <v>-313</v>
+        <v>-483</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
@@ -10592,26 +10735,26 @@
         <v>87.0</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L4" s="42">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="M4" s="43">
         <f t="shared" si="2"/>
-        <v>-55</v>
+        <v>-78</v>
       </c>
       <c r="N4" s="44">
         <f t="shared" si="3"/>
-        <v>-110</v>
+        <v>-167</v>
       </c>
       <c r="O4" s="45">
         <f t="shared" si="4"/>
-        <v>-345</v>
+        <v>-515</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5">
@@ -10646,26 +10789,26 @@
         <v>146.0</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L5" s="42">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="M5" s="43">
         <f t="shared" si="2"/>
-        <v>-49</v>
+        <v>-72</v>
       </c>
       <c r="N5" s="44">
         <f t="shared" si="3"/>
-        <v>-81</v>
+        <v>-138</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="4"/>
-        <v>-286</v>
+        <v>-456</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
@@ -10700,26 +10843,26 @@
         <v>254.0</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L6" s="42">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="M6" s="43">
         <f t="shared" si="2"/>
-        <v>-47</v>
+        <v>-70</v>
       </c>
       <c r="N6" s="44">
         <f t="shared" si="3"/>
-        <v>-88</v>
+        <v>-145</v>
       </c>
       <c r="O6" s="45">
         <f t="shared" si="4"/>
-        <v>-178</v>
+        <v>-348</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7">
@@ -10754,26 +10897,26 @@
         <v>236.0</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L7" s="42">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="M7" s="43">
         <f t="shared" si="2"/>
-        <v>-43</v>
+        <v>-66</v>
       </c>
       <c r="N7" s="44">
         <f t="shared" si="3"/>
-        <v>-76</v>
+        <v>-133</v>
       </c>
       <c r="O7" s="45">
         <f t="shared" si="4"/>
-        <v>-196</v>
+        <v>-366</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8">
@@ -10808,26 +10951,26 @@
         <v>344.0</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>23</v>
+        <v>334</v>
       </c>
       <c r="L8" s="42">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="M8" s="43">
         <f t="shared" si="2"/>
-        <v>-28</v>
+        <v>-51</v>
       </c>
       <c r="N8" s="44">
         <f t="shared" si="3"/>
-        <v>-49</v>
+        <v>-106</v>
       </c>
       <c r="O8" s="45">
         <f t="shared" si="4"/>
-        <v>-88</v>
+        <v>-258</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9">
@@ -10862,26 +11005,26 @@
         <v>101.0</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L9" s="42">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="M9" s="43">
         <f t="shared" si="2"/>
-        <v>-51</v>
+        <v>-74</v>
       </c>
       <c r="N9" s="44">
         <f t="shared" si="3"/>
-        <v>-88</v>
+        <v>-145</v>
       </c>
       <c r="O9" s="45">
         <f t="shared" si="4"/>
-        <v>-331</v>
+        <v>-501</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10">
@@ -10900,41 +11043,43 @@
       <c r="E10" s="16">
         <v>1759.0</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>2017.0</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>2.0</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>45.0</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="14">
         <v>132.0</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="14">
         <v>439.0</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L10" s="42">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="M10" s="43">
         <f t="shared" si="2"/>
-        <v>-12</v>
-      </c>
-      <c r="N10" s="47">
+        <v>-35</v>
+      </c>
+      <c r="N10" s="44">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="O10" s="48">
+        <v>-50</v>
+      </c>
+      <c r="O10" s="45">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="P10" s="12"/>
+        <v>-163</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="16">
@@ -10952,41 +11097,43 @@
       <c r="E11" s="16">
         <v>2237.0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>2018.0</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="14">
         <v>8.0</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="14">
         <v>52.0</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="14">
         <v>146.0</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="14">
         <v>478.0</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="L11" s="49">
+        <v>23</v>
+      </c>
+      <c r="L11" s="42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="M11" s="43">
         <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="N11" s="47">
+        <v>-28</v>
+      </c>
+      <c r="N11" s="44">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="O11" s="48">
+        <v>-36</v>
+      </c>
+      <c r="O11" s="45">
         <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="P11" s="12"/>
+        <v>-124</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="16">
@@ -11004,41 +11151,43 @@
       <c r="E12" s="16">
         <v>2794.0</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <v>2019.0</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="14">
         <v>0.0</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <v>33.0</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="14">
         <v>106.0</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="14">
         <v>557.0</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L12" s="42">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="M12" s="43">
         <f t="shared" si="2"/>
-        <v>-24</v>
+        <v>-47</v>
       </c>
       <c r="N12" s="44">
         <f t="shared" si="3"/>
-        <v>-19</v>
-      </c>
-      <c r="O12" s="48">
+        <v>-76</v>
+      </c>
+      <c r="O12" s="45">
         <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-      <c r="P12" s="12"/>
+        <v>-45</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="16">
@@ -11072,23 +11221,23 @@
         <v>1068.0</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="L13" s="49">
+        <v>337</v>
+      </c>
+      <c r="L13" s="47">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="M13" s="50">
+        <v>13</v>
+      </c>
+      <c r="M13" s="48">
         <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="N13" s="47">
+        <v>44</v>
+      </c>
+      <c r="N13" s="49">
         <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="O13" s="48">
+        <v>171</v>
+      </c>
+      <c r="O13" s="50">
         <f t="shared" si="4"/>
-        <v>636</v>
+        <v>466</v>
       </c>
       <c r="P13" s="12"/>
     </row>
@@ -11124,23 +11273,23 @@
         <v>1353.0</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="L14" s="49">
+        <v>338</v>
+      </c>
+      <c r="L14" s="47">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="M14" s="50">
+        <v>26</v>
+      </c>
+      <c r="M14" s="48">
         <f t="shared" si="2"/>
-        <v>183</v>
-      </c>
-      <c r="N14" s="47">
+        <v>160</v>
+      </c>
+      <c r="N14" s="49">
         <f t="shared" si="3"/>
-        <v>353</v>
-      </c>
-      <c r="O14" s="48">
+        <v>296</v>
+      </c>
+      <c r="O14" s="50">
         <f t="shared" si="4"/>
-        <v>921</v>
+        <v>751</v>
       </c>
       <c r="P14" s="12"/>
     </row>
@@ -11180,23 +11329,23 @@
         <v>1815</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L15" s="49">
+        <v>339</v>
+      </c>
+      <c r="L15" s="47">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="M15" s="50">
+        <v>28</v>
+      </c>
+      <c r="M15" s="48">
         <f t="shared" si="2"/>
-        <v>213</v>
-      </c>
-      <c r="N15" s="47">
+        <v>190</v>
+      </c>
+      <c r="N15" s="49">
         <f t="shared" si="3"/>
-        <v>429</v>
-      </c>
-      <c r="O15" s="48">
+        <v>372</v>
+      </c>
+      <c r="O15" s="50">
         <f t="shared" si="4"/>
-        <v>1383</v>
+        <v>1213</v>
       </c>
       <c r="P15" s="12"/>
     </row>
@@ -11236,23 +11385,23 @@
         <v>1519</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="L16" s="49">
+        <v>340</v>
+      </c>
+      <c r="L16" s="47">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="M16" s="50">
+        <v>21</v>
+      </c>
+      <c r="M16" s="48">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="N16" s="47">
+        <v>87</v>
+      </c>
+      <c r="N16" s="49">
         <f t="shared" si="3"/>
-        <v>295</v>
-      </c>
-      <c r="O16" s="48">
+        <v>238</v>
+      </c>
+      <c r="O16" s="50">
         <f t="shared" si="4"/>
-        <v>1087</v>
+        <v>917</v>
       </c>
       <c r="P16" s="12"/>
     </row>
@@ -11275,40 +11424,40 @@
       <c r="F17" s="23">
         <v>2024.0</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="50">
         <f t="shared" ref="G17:J17" si="7">B17-B16</f>
         <v>37</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="50">
         <f t="shared" si="7"/>
         <v>160</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="50">
         <f t="shared" si="7"/>
         <v>357</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="50">
         <f t="shared" si="7"/>
         <v>1104</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="L17" s="49">
+        <v>341</v>
+      </c>
+      <c r="L17" s="47">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="M17" s="50">
+        <v>26</v>
+      </c>
+      <c r="M17" s="48">
         <f t="shared" si="2"/>
-        <v>103</v>
-      </c>
-      <c r="N17" s="47">
+        <v>80</v>
+      </c>
+      <c r="N17" s="49">
         <f t="shared" si="3"/>
-        <v>232</v>
-      </c>
-      <c r="O17" s="48">
+        <v>175</v>
+      </c>
+      <c r="O17" s="50">
         <f t="shared" si="4"/>
-        <v>672</v>
+        <v>502</v>
       </c>
       <c r="P17" s="12"/>
     </row>
@@ -11317,38 +11466,38 @@
         <v>2025.0</v>
       </c>
       <c r="B18" s="16">
-        <v>191.0</v>
+        <v>195.0</v>
       </c>
       <c r="C18" s="16">
-        <v>1224.0</v>
+        <v>1247.0</v>
       </c>
       <c r="D18" s="16">
-        <v>2954.0</v>
+        <v>3011.0</v>
       </c>
       <c r="E18" s="16">
-        <v>10086.0</v>
+        <v>10256.0</v>
       </c>
       <c r="F18" s="24">
         <v>2025.0</v>
       </c>
       <c r="G18" s="51">
         <f t="shared" ref="G18:J18" si="8">B18-B17</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H18" s="51">
         <f t="shared" si="8"/>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="I18" s="51">
         <f t="shared" si="8"/>
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="J18" s="51">
         <f t="shared" si="8"/>
-        <v>433</v>
+        <v>603</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -11836,2605 +11985,2597 @@
         <v>7</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="52" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="52" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>344</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="52" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="52" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="52" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="52" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="52" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="52" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="52" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="52" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="52" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="52" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="52" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="52" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="52" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="52" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="52" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="52" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="52" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="52" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="52" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="52" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="52" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="52" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="52" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="52" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="52" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="52" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="52" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="52" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="52" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="52" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="52" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="52" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="52" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="52" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="52" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="52" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="52" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="52" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="52" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="52" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="52" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="52" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="52" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="52" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="52" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="52" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="52" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="52" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="52" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="52" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="52" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="52" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="52" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="52" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="52" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="52" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B65" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="52" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B66" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="52" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B67" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="52" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="52" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B69" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="52" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="52" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B71" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="52" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="52" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B73" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="52" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="52" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B75" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="52" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="52" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="52" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="52" t="s">
-        <v>415</v>
-      </c>
-      <c r="B79" s="52" t="s">
-        <v>338</v>
+      <c r="A79" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="53" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="53" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="53" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="53" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B83" s="53" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="53" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B84" s="53" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="53" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B85" s="53" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="53" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B86" s="53" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="53" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B87" s="53" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="53" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B88" s="53" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="53" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B89" s="53" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="53" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B90" s="53" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="53" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B91" s="53" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="53" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B92" s="53" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="53" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B93" s="53" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="53" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B94" s="53" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="53" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B95" s="53" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="53" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B96" s="53" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="53" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B97" s="53" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="53" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B98" s="53" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="53" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B99" s="53" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="53" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B100" s="53" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="53" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B101" s="53" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="53" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B102" s="53" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="53" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B103" s="53" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="53" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B104" s="53" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="53" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B105" s="53" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="53" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B106" s="53" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="53" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B107" s="53" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="53" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B108" s="53" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="53" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B109" s="53" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="53" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B110" s="53" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="53" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B111" s="53" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="53" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B112" s="53" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="53" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B113" s="53" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="53" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B114" s="53" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="53" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B115" s="53" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="53" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B116" s="53" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="53" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B117" s="53" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="53" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B118" s="53" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="53" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B119" s="53" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="53" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B120" s="53" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="53" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B121" s="53" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="53" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B122" s="53" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="53" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="B123" s="53" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="53" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B124" s="53" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="53" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B125" s="53" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="53" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B126" s="53" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="53" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B127" s="53" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="53" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B128" s="53" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="53" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B129" s="53" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="53" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B130" s="53" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="53" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B131" s="53" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="53" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="B132" s="53" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="53" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B133" s="53" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="53" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B134" s="53" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="53" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B135" s="53" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="53" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B136" s="53" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="53" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B137" s="53" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="53" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B138" s="53" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="53" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B139" s="53" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="53" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B140" s="53" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="53" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B141" s="53" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="53" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B142" s="53" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="53" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B143" s="53" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="53" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B144" s="53" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="53" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B145" s="53" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="53" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B146" s="53" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="53" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B147" s="53" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="53" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B148" s="53" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="53" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="B149" s="53" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="53" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B150" s="53" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="53" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B151" s="53" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="53" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B152" s="53" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="53" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B153" s="53" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="53" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B154" s="53" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="53" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B155" s="53" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="53" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B156" s="53" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="53" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B157" s="53" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="53" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B158" s="53" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="53" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B159" s="53" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="53" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B160" s="53" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="53" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B161" s="53" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="53" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B162" s="53" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="53" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B163" s="53" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="53" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B164" s="53" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="53" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B165" s="53" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="53" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B166" s="53" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="53" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="B167" s="53" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="53" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B168" s="53" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="53" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B169" s="53" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="53" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B170" s="53" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="53" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="B171" s="53" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="53" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B172" s="53" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="53" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B173" s="53" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="53" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="B174" s="53" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="53" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="B175" s="53" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="53" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="B176" s="53" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="53" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B177" s="53" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="53" t="s">
-        <v>590</v>
-      </c>
-      <c r="B178" s="53" t="s">
-        <v>591</v>
+      <c r="A178" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="B178" s="54" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="54" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B179" s="54" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="54" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="B180" s="54" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="54" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B181" s="54" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="54" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="B182" s="54" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="54" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="B183" s="54" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="54" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="B184" s="54" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="54" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="B185" s="54" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="54" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="B186" s="54" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="54" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="B187" s="54" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="54" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="B188" s="54" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="54" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="B189" s="54" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="54" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="B190" s="54" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="54" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="B191" s="54" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="54" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="B192" s="54" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="54" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="B193" s="54" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="54" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="B194" s="54" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="54" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="B195" s="54" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="54" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="B196" s="54" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="54" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="B197" s="54" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="54" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="B198" s="54" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="54" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="B199" s="54" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="54" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="B200" s="54" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="54" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="B201" s="54" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="54" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="B202" s="54" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="54" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="B203" s="54" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="54" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B204" s="54" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="54" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="B205" s="54" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="54" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="B206" s="54" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="54" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B207" s="54" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="54" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="B208" s="54" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="54" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="B209" s="54" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="54" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B210" s="54" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="54" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="B211" s="54" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="54" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="B212" s="54" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="54" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="B213" s="54" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="54" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="B214" s="54" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="54" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="B215" s="54" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="54" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="B216" s="54" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="54" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="B217" s="54" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="54" t="s">
-        <v>669</v>
-      </c>
-      <c r="B218" s="54" t="s">
-        <v>670</v>
+      <c r="A218" s="23" t="s">
+        <v>676</v>
+      </c>
+      <c r="B218" s="23" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="23" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="B219" s="23" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="23" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="B220" s="23" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="23" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="B221" s="23" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="23" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="23" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="23" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="23" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="B225" s="23" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="23" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="23" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="23" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="23" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="23" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="23" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="23" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="23" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="23" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="23" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="23" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="23" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="23" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="23" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="23" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="B240" s="23" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="23" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="23" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="23" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="23" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="23" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="23" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="23" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="23" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="23" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="23" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="23" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="B251" s="23" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="23" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="23" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="23" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="23" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="23" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="23" t="s">
-        <v>747</v>
-      </c>
-      <c r="B257" s="23" t="s">
-        <v>748</v>
+      <c r="A257" s="55" t="s">
+        <v>754</v>
+      </c>
+      <c r="B257" s="55" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="55" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="B258" s="55" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="55" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="B259" s="55" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="55" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B260" s="55" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="55" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="B261" s="55" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="55" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="B262" s="55" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="55" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="B263" s="55" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="55" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="B264" s="55" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="55" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="B265" s="55" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="55" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="B266" s="55" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="55" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="B267" s="55" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="55" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="B268" s="55" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="55" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="B269" s="55" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="55" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="B270" s="55" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="55" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="B271" s="55" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="55" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="B272" s="55" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="55" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="B273" s="55" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="55" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="B274" s="55" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="55" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="B275" s="55" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="55" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="B276" s="55" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="55" t="s">
-        <v>787</v>
-      </c>
-      <c r="B277" s="55" t="s">
-        <v>788</v>
+      <c r="A277" s="21" t="s">
+        <v>794</v>
+      </c>
+      <c r="B277" s="21" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="21" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="21" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="21" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="21" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="21" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="21" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="21" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="21" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="21" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="21" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="21" t="s">
-        <v>809</v>
+        <v>191</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="21" t="s">
-        <v>190</v>
+        <v>816</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="21" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="21" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="21" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="B292" s="21" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="21" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="21" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="21" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="21" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="B296" s="21" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="21" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="B297" s="21" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="21" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="21" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="B299" s="21" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="21" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="21" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="21" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="21" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="21" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="21" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="21" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="21" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="21" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="21" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="21" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="21" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="21" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="21" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="21" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="21" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="21" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="21" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="B317" s="21" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="21" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="21" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="21" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="21" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="B321" s="21" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="21" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="21" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="21" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="21" t="s">
-        <v>881</v>
-      </c>
-      <c r="B325" s="21" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$B$325">
-    <sortState ref="A1:B325">
-      <sortCondition descending="1" ref="B1:B325"/>
+  <autoFilter ref="$A$1:$B$324">
+    <sortState ref="A1:B324">
+      <sortCondition descending="1" ref="B1:B324"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>
